--- a/sriramModel-nelson-atypical-patientID_1-sims-gr-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-gr-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.002134786528057</v>
+        <v>2.103237016452786</v>
       </c>
       <c r="C2">
-        <v>2.004094718131262</v>
+        <v>2.003054142349444</v>
       </c>
       <c r="D2">
-        <v>2.039331752417317</v>
+        <v>2.007164446642568</v>
       </c>
       <c r="E2">
-        <v>2.002563424475578</v>
+        <v>2.308187985133958</v>
       </c>
       <c r="F2">
-        <v>2.046346030824505</v>
+        <v>2.025913343357785</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.0043019025263</v>
+        <v>2.205174650803865</v>
       </c>
       <c r="C3">
-        <v>2.008228246501255</v>
+        <v>2.006132387166962</v>
       </c>
       <c r="D3">
-        <v>2.078744379564495</v>
+        <v>2.01442751397942</v>
       </c>
       <c r="E3">
-        <v>2.005150540540304</v>
+        <v>2.609679565485379</v>
       </c>
       <c r="F3">
-        <v>2.093081837239445</v>
+        <v>2.051829457440385</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.006501316186711</v>
+        <v>2.305845608895224</v>
       </c>
       <c r="C4">
-        <v>2.012400037101782</v>
+        <v>2.009234519342856</v>
       </c>
       <c r="D4">
-        <v>2.118212100122612</v>
+        <v>2.021790927843802</v>
       </c>
       <c r="E4">
-        <v>2.007761159318227</v>
+        <v>2.904715356287958</v>
       </c>
       <c r="F4">
-        <v>2.140200759616579</v>
+        <v>2.077748296661224</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.008732998372891</v>
+        <v>2.405290975313128</v>
       </c>
       <c r="C5">
-        <v>2.016609552678821</v>
+        <v>2.01236031747531</v>
       </c>
       <c r="D5">
-        <v>2.157709416308028</v>
+        <v>2.02925651643442</v>
       </c>
       <c r="E5">
-        <v>2.010395093113198</v>
+        <v>3.193581983236001</v>
       </c>
       <c r="F5">
-        <v>2.187696139452934</v>
+        <v>2.103669816679691</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.010996922585651</v>
+        <v>2.503562467641389</v>
       </c>
       <c r="C6">
-        <v>2.02085626634984</v>
+        <v>2.015509564496464</v>
       </c>
       <c r="D6">
-        <v>2.197211673852117</v>
+        <v>2.036826134024152</v>
       </c>
       <c r="E6">
-        <v>2.013052155341799</v>
+        <v>3.476618067442646</v>
       </c>
       <c r="F6">
-        <v>2.2355613257381</v>
+        <v>2.129593974278686</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.013293064929898</v>
+        <v>2.60072504105278</v>
       </c>
       <c r="C7">
-        <v>2.025139661225818</v>
+        <v>2.018682044796537</v>
       </c>
       <c r="D7">
-        <v>2.236695481688465</v>
+        <v>2.044501666126469</v>
       </c>
       <c r="E7">
-        <v>2.015732160468249</v>
+        <v>3.754213539542664</v>
       </c>
       <c r="F7">
-        <v>2.283789680965305</v>
+        <v>2.155520727246037</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.015621404081266</v>
+        <v>2.696859735593388</v>
       </c>
       <c r="C8">
-        <v>2.029459230046455</v>
+        <v>2.021877543950305</v>
       </c>
       <c r="D8">
-        <v>2.276139000018185</v>
+        <v>2.05228504152337</v>
       </c>
       <c r="E8">
-        <v>2.018434923941353</v>
+        <v>4.02679895604153</v>
       </c>
       <c r="F8">
-        <v>2.332374586800349</v>
+        <v>2.181450034285743</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.017981921254406</v>
+        <v>2.792066356614364</v>
       </c>
       <c r="C9">
-        <v>2.033814474821879</v>
+        <v>2.0250958488943</v>
       </c>
       <c r="D9">
-        <v>2.315522113292133</v>
+        <v>2.060178235714474</v>
       </c>
       <c r="E9">
-        <v>2.021160262133647</v>
+        <v>4.294822912499385</v>
       </c>
       <c r="F9">
-        <v>2.381309449413157</v>
+        <v>2.207381854949249</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.020374600171709</v>
+        <v>2.88646555994911</v>
       </c>
       <c r="C10">
-        <v>2.038204906484506</v>
+        <v>2.028336747842717</v>
       </c>
       <c r="D10">
-        <v>2.354826508327292</v>
+        <v>2.068183269059736</v>
       </c>
       <c r="E10">
-        <v>2.023907992282787</v>
+        <v>4.558718637452344</v>
       </c>
       <c r="F10">
-        <v>2.43058770447975</v>
+        <v>2.233316149569462</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.022799427032905</v>
+        <v>2.980199827081767</v>
       </c>
       <c r="C11">
-        <v>2.042630044550225</v>
+        <v>2.031600030266122</v>
       </c>
       <c r="D11">
-        <v>2.394035678514069</v>
+        <v>2.076302207836274</v>
       </c>
       <c r="E11">
-        <v>2.026677932434515</v>
+        <v>4.81886494787876</v>
       </c>
       <c r="F11">
-        <v>2.480202821862756</v>
+        <v>2.259252879175794</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.025256390485439</v>
+        <v>3.073432583892065</v>
       </c>
       <c r="C12">
-        <v>2.047089416788175</v>
+        <v>2.034885486798394</v>
       </c>
       <c r="D12">
-        <v>2.433134873587973</v>
+        <v>2.084537164489169</v>
       </c>
       <c r="E12">
-        <v>2.029469901387984</v>
+        <v>5.075550317486644</v>
       </c>
       <c r="F12">
-        <v>2.530148309979741</v>
+        <v>2.285192005425275</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.027745481595887</v>
+        <v>3.166344520037633</v>
       </c>
       <c r="C13">
-        <v>2.051582558899834</v>
+        <v>2.038192909141636</v>
       </c>
       <c r="D13">
-        <v>2.472111011889174</v>
+        <v>2.09289029943999</v>
       </c>
       <c r="E13">
-        <v>2.032283718642881</v>
+        <v>5.328949549789762</v>
       </c>
       <c r="F13">
-        <v>2.580417719868784</v>
+        <v>2.311133490542518</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.030266693822254</v>
+        <v>3.25912640971928</v>
       </c>
       <c r="C14">
-        <v>2.056109014207105</v>
+        <v>2.041522090092307</v>
       </c>
       <c r="D14">
-        <v>2.510952568987635</v>
+        <v>2.101363821487334</v>
       </c>
       <c r="E14">
-        <v>2.035119204348485</v>
+        <v>5.579119225996603</v>
       </c>
       <c r="F14">
-        <v>2.631004648961041</v>
+        <v>2.337077297264459</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.032820022987205</v>
+        <v>3.351968444080093</v>
       </c>
       <c r="C15">
-        <v>2.060668333349311</v>
+        <v>2.044872823439465</v>
       </c>
       <c r="D15">
-        <v>2.549649453523561</v>
+        <v>2.109959989052983</v>
       </c>
       <c r="E15">
-        <v>2.037976179254697</v>
+        <v>5.826011854906837</v>
       </c>
       <c r="F15">
-        <v>2.681902744570602</v>
+        <v>2.363023388787044</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.035405467252238</v>
+        <v>3.445044911798722</v>
       </c>
       <c r="C16">
-        <v>2.065260073989179</v>
+        <v>2.048244903929322</v>
       </c>
       <c r="D16">
-        <v>2.588192878369181</v>
+        <v>2.118681111520671</v>
       </c>
       <c r="E16">
-        <v>2.040854464664893</v>
+        <v>6.069503190908106</v>
       </c>
       <c r="F16">
-        <v>2.733105707112049</v>
+        <v>2.388971728705824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.038023027092875</v>
+        <v>3.53849829045245</v>
       </c>
       <c r="C17">
-        <v>2.069883800527626</v>
+        <v>2.05163812724158</v>
       </c>
       <c r="D17">
-        <v>2.626575232887314</v>
+        <v>2.127529550066422</v>
       </c>
       <c r="E17">
-        <v>2.043753882390637</v>
+        <v>6.309424182633332</v>
       </c>
       <c r="F17">
-        <v>2.784607293056189</v>
+        <v>2.414922280961359</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.040672705274803</v>
+        <v>3.632423382322429</v>
       </c>
       <c r="C18">
-        <v>2.074539083827343</v>
+        <v>2.055052289970451</v>
       </c>
       <c r="D18">
-        <v>2.664789960201212</v>
+        <v>2.13650771827831</v>
       </c>
       <c r="E18">
-        <v>2.046674254708222</v>
+        <v>6.545590318135962</v>
       </c>
       <c r="F18">
-        <v>2.836401317634659</v>
+        <v>2.440875009885343</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.043354506831067</v>
+        <v>3.726855548805002</v>
       </c>
       <c r="C19">
-        <v>2.079225500945078</v>
+        <v>2.058487189529156</v>
       </c>
       <c r="D19">
-        <v>2.702831441915937</v>
+        <v>2.145618083476011</v>
       </c>
       <c r="E19">
-        <v>2.049615404316988</v>
+        <v>6.777824073873382</v>
       </c>
       <c r="F19">
-        <v>2.888481657304028</v>
+        <v>2.466829880036359</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.04606843904025</v>
+        <v>3.821766197004168</v>
       </c>
       <c r="C20">
-        <v>2.083942634872544</v>
+        <v>2.06194262406192</v>
       </c>
       <c r="D20">
-        <v>2.740694891664522</v>
+        <v>2.154863166711166</v>
       </c>
       <c r="E20">
-        <v>2.052577154299405</v>
+        <v>7.005969349283155</v>
       </c>
       <c r="F20">
-        <v>2.940842251979875</v>
+        <v>2.492786856215673</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.048814511405736</v>
+        <v>3.917066243381087</v>
       </c>
       <c r="C21">
-        <v>2.088690074285847</v>
+        <v>2.06541839262756</v>
       </c>
       <c r="D21">
-        <v>2.778376258059669</v>
+        <v>2.164245545112744</v>
       </c>
       <c r="E21">
-        <v>2.055559328082884</v>
+        <v>7.229898851932698</v>
       </c>
       <c r="F21">
-        <v>2.993477107051381</v>
+        <v>2.518745903407444</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.051592735635987</v>
+        <v>4.012618005801227</v>
       </c>
       <c r="C22">
-        <v>2.09346741330336</v>
+        <v>2.068914294983811</v>
       </c>
       <c r="D22">
-        <v>2.815872137101583</v>
+        <v>2.173767850177704</v>
       </c>
       <c r="E22">
-        <v>2.058561749403294</v>
+        <v>7.449516307564878</v>
       </c>
       <c r="F22">
-        <v>3.046380295186648</v>
+        <v>2.544706986762634</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.054403125625929</v>
+        <v>4.10825152501546</v>
       </c>
       <c r="C23">
-        <v>2.098274251251911</v>
+        <v>2.072430131388588</v>
       </c>
       <c r="D23">
-        <v>2.853179693728426</v>
+        <v>2.183432772799377</v>
       </c>
       <c r="E23">
-        <v>2.061584242270159</v>
+        <v>7.664755366769544</v>
       </c>
       <c r="F23">
-        <v>3.099545957938731</v>
+        <v>2.57067007159137</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.057245697439379</v>
+        <v>4.203781597471006</v>
       </c>
       <c r="C24">
-        <v>2.103110192441211</v>
+        <v>2.07596570324148</v>
       </c>
       <c r="D24">
-        <v>2.890296591977302</v>
+        <v>2.193243059661512</v>
       </c>
       <c r="E24">
-        <v>2.064626630933487</v>
+        <v>7.875576752302844</v>
       </c>
       <c r="F24">
-        <v>3.152968307162227</v>
+        <v>2.596635123317918</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.060120469292604</v>
+        <v>4.299023177268682</v>
       </c>
       <c r="C25">
-        <v>2.107974845946397</v>
+        <v>2.079520812332684</v>
       </c>
       <c r="D25">
-        <v>2.927220933105211</v>
+        <v>2.203201518112363</v>
       </c>
       <c r="E25">
-        <v>2.067688739852226</v>
+        <v>8.081964634817602</v>
       </c>
       <c r="F25">
-        <v>3.206641626249769</v>
+        <v>2.622602107458817</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.06302746153894</v>
+        <v>4.393802676146748</v>
       </c>
       <c r="C26">
-        <v>2.11286782539855</v>
+        <v>2.083095260961983</v>
       </c>
       <c r="D26">
-        <v>2.96395120095749</v>
+        <v>2.213311014333609</v>
       </c>
       <c r="E26">
-        <v>2.070770393664311</v>
+        <v>8.28392289464767</v>
       </c>
       <c r="F26">
-        <v>3.260560271197464</v>
+        <v>2.648570989588676</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.065966696654569</v>
+        <v>4.487964921792417</v>
       </c>
       <c r="C27">
-        <v>2.117788748783104</v>
+        <v>2.086688852115013</v>
       </c>
       <c r="D27">
-        <v>3.000486213872234</v>
+        <v>2.223574474997872</v>
       </c>
       <c r="E27">
-        <v>2.073871417158263</v>
+        <v>8.481471672962908</v>
       </c>
       <c r="F27">
-        <v>3.314718671507959</v>
+        <v>2.674541735321327</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.068938199225362</v>
+        <v>4.581376355863493</v>
       </c>
       <c r="C28">
-        <v>2.122737238245986</v>
+        <v>2.090301389208639</v>
       </c>
       <c r="D28">
-        <v>3.036825082425254</v>
+        <v>2.233994888382036</v>
       </c>
       <c r="E28">
-        <v>2.076991635246331</v>
+        <v>8.674644290270924</v>
       </c>
       <c r="F28">
-        <v>3.369111330939196</v>
+        <v>2.700514310304237</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.071941995934907</v>
+        <v>4.673925458602989</v>
       </c>
       <c r="C29">
-        <v>2.127712919907383</v>
+        <v>2.093932676224123</v>
       </c>
       <c r="D29">
-        <v>3.072967172362707</v>
+        <v>2.244575303427225</v>
       </c>
       <c r="E29">
-        <v>2.080130872939121</v>
+        <v>8.863484620295958</v>
       </c>
       <c r="F29">
-        <v>3.423732828106486</v>
+        <v>2.726488680154306</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.074978115553616</v>
+        <v>4.765521452271019</v>
       </c>
       <c r="C30">
-        <v>2.132715423682972</v>
+        <v>2.097582517686279</v>
       </c>
       <c r="D30">
-        <v>3.108912072121057</v>
+        <v>2.255318832231561</v>
       </c>
       <c r="E30">
-        <v>2.083288955321711</v>
+        <v>9.048044893345512</v>
       </c>
       <c r="F30">
-        <v>3.478577816944941</v>
+        <v>2.752464810479252</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.078046588929023</v>
+        <v>4.856092126872871</v>
       </c>
       <c r="C31">
-        <v>2.137744383112508</v>
+        <v>2.101250718583208</v>
       </c>
       <c r="D31">
-        <v>3.14465956438416</v>
+        <v>2.266228648935642</v>
       </c>
       <c r="E31">
-        <v>2.086465707531215</v>
+        <v>9.228383849864066</v>
       </c>
       <c r="F31">
-        <v>3.533641027038553</v>
+        <v>2.778442666867114</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.08114744897718</v>
+        <v>4.945581145013538</v>
       </c>
       <c r="C32">
-        <v>2.142799435195591</v>
+        <v>2.104937084446483</v>
       </c>
       <c r="D32">
-        <v>3.180209601187437</v>
+        <v>2.277307991435153</v>
       </c>
       <c r="E32">
-        <v>2.089660954735745</v>
+        <v>9.404565274229579</v>
       </c>
       <c r="F32">
-        <v>3.588917263821616</v>
+        <v>2.804422214853068</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.084280730675247</v>
+        <v>5.033945613169064</v>
       </c>
       <c r="C33">
-        <v>2.147880220234507</v>
+        <v>2.108641421223519</v>
       </c>
       <c r="D33">
-        <v>3.215562282128954</v>
+        <v>2.288560160476818</v>
       </c>
       <c r="E33">
-        <v>2.092874522114781</v>
+        <v>9.576656802942415</v>
       </c>
       <c r="F33">
-        <v>3.644401408657182</v>
+        <v>2.830403419927722</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.087446471055189</v>
+        <v>5.121153663365231</v>
       </c>
       <c r="C34">
-        <v>2.152986381683958</v>
+        <v>2.112363535296771</v>
       </c>
       <c r="D34">
-        <v>3.250717835298556</v>
+        <v>2.299988521948904</v>
       </c>
       <c r="E34">
-        <v>2.096106234840879</v>
+        <v>9.744728944040286</v>
       </c>
       <c r="F34">
-        <v>3.700088418796693</v>
+        <v>2.856386247505404</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.090644709198673</v>
+        <v>5.207182507378942</v>
       </c>
       <c r="C35">
-        <v>2.158117566007548</v>
+        <v>2.116103233479605</v>
       </c>
       <c r="D35">
-        <v>3.285676600583381</v>
+        <v>2.311596506634163</v>
       </c>
       <c r="E35">
-        <v>2.099355918062728</v>
+        <v>9.90885426688576</v>
       </c>
       <c r="F35">
-        <v>3.755973327223592</v>
+        <v>2.882370662927044</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.093875486233082</v>
+        <v>5.292016658936283</v>
       </c>
       <c r="C36">
-        <v>2.163273422540883</v>
+        <v>2.119860322957654</v>
       </c>
       <c r="D36">
-        <v>3.320439015047515</v>
+        <v>2.323387606389807</v>
       </c>
       <c r="E36">
-        <v>2.102623396889493</v>
+        <v>10.06910676910713</v>
       </c>
       <c r="F36">
-        <v>3.812051242382901</v>
+        <v>2.908356631435736</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.097138845328721</v>
+        <v>5.375646558745316</v>
       </c>
       <c r="C37">
-        <v>2.168453603361101</v>
+        <v>2.123634611309118</v>
       </c>
       <c r="D37">
-        <v>3.355005600123544</v>
+        <v>2.335365380560649</v>
       </c>
       <c r="E37">
-        <v>2.10590849637643</v>
+        <v>10.22556136170259</v>
       </c>
       <c r="F37">
-        <v>3.868317347797586</v>
+        <v>2.934344118173715</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.100434831697141</v>
+        <v>5.458067384745751</v>
       </c>
       <c r="C38">
-        <v>2.173657763162708</v>
+        <v>2.127425906470668</v>
       </c>
       <c r="D38">
-        <v>3.389376950385288</v>
+        <v>2.347533455167973</v>
       </c>
       <c r="E38">
-        <v>2.109211041511744</v>
+        <v>10.37829345753632</v>
       </c>
       <c r="F38">
-        <v>3.924766901571363</v>
+        <v>2.960333088177463</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.103763492590668</v>
+        <v>5.53927813065374</v>
       </c>
       <c r="C39">
-        <v>2.178885559139534</v>
+        <v>2.131234016737506</v>
       </c>
       <c r="D39">
-        <v>3.423553723700985</v>
+        <v>2.359895516385138</v>
       </c>
       <c r="E39">
-        <v>2.112530857204663</v>
+        <v>10.52737862814601</v>
       </c>
       <c r="F39">
-        <v>3.98139523577645</v>
+        <v>2.986323506362695</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.107124877303032</v>
+        <v>5.619280825696323</v>
       </c>
       <c r="C40">
-        <v>2.184136650872669</v>
+        <v>2.135058750760841</v>
       </c>
       <c r="D40">
-        <v>3.457536632592673</v>
+        <v>2.372455311061039</v>
       </c>
       <c r="E40">
-        <v>2.115867768274685</v>
+        <v>10.67289232438795</v>
       </c>
       <c r="F40">
-        <v>4.038197755723601</v>
+        <v>3.012315337528122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.110519037171203</v>
+        <v>5.69807994699976</v>
       </c>
       <c r="C41">
-        <v>2.189410700224219</v>
+        <v>2.138899917526169</v>
       </c>
       <c r="D41">
-        <v>3.49132643665075</v>
+        <v>2.385216659173724</v>
       </c>
       <c r="E41">
-        <v>2.119221599441988</v>
+        <v>10.81490963264747</v>
       </c>
       <c r="F41">
-        <v>4.095169939110847</v>
+        <v>3.038308546347437</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.113946025578325</v>
+        <v>5.77568197089276</v>
       </c>
       <c r="C42">
-        <v>2.194707371236704</v>
+        <v>2.142757326363648</v>
       </c>
       <c r="D42">
-        <v>3.524923935861411</v>
+        <v>2.398183440442542</v>
       </c>
       <c r="E42">
-        <v>2.122592175318951</v>
+        <v>10.95350510269691</v>
       </c>
       <c r="F42">
-        <v>4.152307335046583</v>
+        <v>3.064303097366806</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.117405897957838</v>
+        <v>5.852094934193967</v>
       </c>
       <c r="C43">
-        <v>2.200026330038036</v>
+        <v>2.146630786924884</v>
       </c>
       <c r="D43">
-        <v>3.558329964752083</v>
+        <v>2.411359583663315</v>
       </c>
       <c r="E43">
-        <v>2.125979320402786</v>
+        <v>11.08875265507354</v>
       </c>
       <c r="F43">
-        <v>4.209605562942392</v>
+        <v>3.090298954995622</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.120898711798705</v>
+        <v>5.927328084101054</v>
       </c>
       <c r="C44">
-        <v>2.205367244751725</v>
+        <v>2.150520109186865</v>
       </c>
       <c r="D44">
-        <v>3.591545387237243</v>
+        <v>2.424749095811284</v>
       </c>
       <c r="E44">
-        <v>2.129382859069216</v>
+        <v>11.22072543173752</v>
       </c>
       <c r="F44">
-        <v>4.267060311271358</v>
+        <v>3.116296083505698</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.124424526651806</v>
+        <v>6.001391654184879</v>
       </c>
       <c r="C45">
-        <v>2.210729785411936</v>
+        <v>2.154425103445555</v>
       </c>
       <c r="D45">
-        <v>3.624571092078297</v>
+        <v>2.43835604086857</v>
       </c>
       <c r="E45">
-        <v>2.132802615567208</v>
+        <v>11.34949569788035</v>
       </c>
       <c r="F45">
-        <v>4.324667336188837</v>
+        <v>3.142294447029837</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.127983404137427</v>
+        <v>6.074296688254519</v>
       </c>
       <c r="C46">
-        <v>2.216113623884095</v>
+        <v>2.158345580306989</v>
       </c>
       <c r="D46">
-        <v>3.657407988891515</v>
+        <v>2.452184525078824</v>
       </c>
       <c r="E46">
-        <v>2.136238414014691</v>
+        <v>11.47513476062016</v>
       </c>
       <c r="F46">
-        <v>4.382422460015058</v>
+        <v>3.168294009554727</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.131575407953902</v>
+        <v>6.146054879628222</v>
       </c>
       <c r="C47">
-        <v>2.221518433790525</v>
+        <v>2.162281350673763</v>
       </c>
       <c r="D47">
-        <v>3.690057004628701</v>
+        <v>2.466238726168174</v>
       </c>
       <c r="E47">
-        <v>2.139690078395273</v>
+        <v>11.59771291147556</v>
       </c>
       <c r="F47">
-        <v>4.440321569582779</v>
+        <v>3.194294734923843</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.135200603887339</v>
+        <v>6.216678431193358</v>
       </c>
       <c r="C48">
-        <v>2.226943890440091</v>
+        <v>2.166232225742125</v>
       </c>
       <c r="D48">
-        <v>3.722519080477337</v>
+        <v>2.4805228779466</v>
       </c>
       <c r="E48">
-        <v>2.14315743255589</v>
+        <v>11.7172993815997</v>
       </c>
       <c r="F48">
-        <v>4.498360614458488</v>
+        <v>3.220296586831691</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.13885905982248</v>
+        <v>6.286179926637888</v>
       </c>
       <c r="C49">
-        <v>2.232389670762607</v>
+        <v>2.170198017111765</v>
       </c>
       <c r="D49">
-        <v>3.75479516912753</v>
+        <v>2.495041256397433</v>
       </c>
       <c r="E49">
-        <v>2.146640300205381</v>
+        <v>11.83396230607817</v>
       </c>
       <c r="F49">
-        <v>4.556535605052605</v>
+        <v>3.246299528826762</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.142550845754628</v>
+        <v>6.354572273690005</v>
       </c>
       <c r="C50">
-        <v>2.237855453247689</v>
+        <v>2.174178536559169</v>
       </c>
       <c r="D50">
-        <v>3.786886232363571</v>
+        <v>2.509798185724586</v>
       </c>
       <c r="E50">
-        <v>2.15013850491395</v>
+        <v>11.94776869510743</v>
       </c>
       <c r="F50">
-        <v>4.614842610642364</v>
+        <v>3.272303524308487</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.146276033802691</v>
+        <v>6.421868528846947</v>
       </c>
       <c r="C51">
-        <v>2.243340917887958</v>
+        <v>2.178173596179388</v>
       </c>
       <c r="D51">
-        <v>3.818793238940181</v>
+        <v>2.524798052201537</v>
       </c>
       <c r="E51">
-        <v>2.153651870113496</v>
+        <v>12.05878442091734</v>
       </c>
       <c r="F51">
-        <v>4.673277757340021</v>
+        <v>3.298308536528032</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.150034698223267</v>
+        <v>6.488082022890828</v>
       </c>
       <c r="C52">
-        <v>2.248845746126127</v>
+        <v>2.182183008400243</v>
       </c>
       <c r="D52">
-        <v>3.850517162710279</v>
+        <v>2.540045279479638</v>
       </c>
       <c r="E52">
-        <v>2.157180219098769</v>
+        <v>12.16707419624059</v>
       </c>
       <c r="F52">
-        <v>4.731837226047746</v>
+        <v>3.324314528589118</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.153826915425827</v>
+        <v>6.55322607061884</v>
       </c>
       <c r="C53">
-        <v>2.254369620806018</v>
+        <v>2.186206586094074</v>
       </c>
       <c r="D53">
-        <v>3.882058980974774</v>
+        <v>2.555544313670009</v>
       </c>
       <c r="E53">
-        <v>2.160723375029334</v>
+        <v>12.27270156112431</v>
       </c>
       <c r="F53">
-        <v>4.790517250447901</v>
+        <v>3.350321463446105</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.157652763988924</v>
+        <v>6.617314202347724</v>
       </c>
       <c r="C54">
-        <v>2.259912226127326</v>
+        <v>2.19024414221974</v>
       </c>
       <c r="D54">
-        <v>3.913419673028621</v>
+        <v>2.571299666003697</v>
       </c>
       <c r="E54">
-        <v>2.164281160932308</v>
+        <v>12.3757288808807</v>
       </c>
       <c r="F54">
-        <v>4.849314115081691</v>
+        <v>3.376329303907511</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.161512324677465</v>
+        <v>6.680359920391314</v>
       </c>
       <c r="C55">
-        <v>2.265473247604126</v>
+        <v>2.194295490100902</v>
       </c>
       <c r="D55">
-        <v>3.944600218880272</v>
+        <v>2.587315877208183</v>
       </c>
       <c r="E55">
-        <v>2.167853399705869</v>
+        <v>12.47621733221563</v>
       </c>
       <c r="F55">
-        <v>4.908224153569564</v>
+        <v>3.402338012634014</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.165405680460986</v>
+        <v>6.742376806600934</v>
       </c>
       <c r="C56">
-        <v>2.271052372026685</v>
+        <v>2.198360443502045</v>
       </c>
       <c r="D56">
-        <v>3.975601598124439</v>
+        <v>2.603597484362459</v>
       </c>
       <c r="E56">
-        <v>2.17143991412345</v>
+        <v>12.57422692480304</v>
       </c>
       <c r="F56">
-        <v>4.967243747021855</v>
+        <v>3.42834755214221</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.169332916532965</v>
+        <v>6.803378420773317</v>
       </c>
       <c r="C57">
-        <v>2.276649287426699</v>
+        <v>2.202438816514655</v>
       </c>
       <c r="D57">
-        <v>4.006424788950997</v>
+        <v>2.620149084894551</v>
       </c>
       <c r="E57">
-        <v>2.175040526838598</v>
+        <v>12.66981648921415</v>
       </c>
       <c r="F57">
-        <v>5.026369322678528</v>
+        <v>3.454357884803729</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.173294120331112</v>
+        <v>6.863378302641921</v>
       </c>
       <c r="C58">
-        <v>2.282263683045569</v>
+        <v>2.206530423422665</v>
       </c>
       <c r="D58">
-        <v>4.037070767274335</v>
+        <v>2.636975290995294</v>
       </c>
       <c r="E58">
-        <v>2.178655060390562</v>
+        <v>12.76304370854049</v>
       </c>
       <c r="F58">
-        <v>5.085597352802841</v>
+        <v>3.480368972848758</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.177289381558664</v>
+        <v>6.922389956494169</v>
       </c>
       <c r="C59">
-        <v>2.287895249305898</v>
+        <v>2.210635078892082</v>
       </c>
       <c r="D59">
-        <v>4.067540505969628</v>
+        <v>2.654080708048657</v>
       </c>
       <c r="E59">
-        <v>2.182283337210565</v>
+        <v>12.85396510036285</v>
       </c>
       <c r="F59">
-        <v>5.144924353837363</v>
+        <v>3.506380778366576</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.18131879220663</v>
+        <v>6.98042681687941</v>
       </c>
       <c r="C60">
-        <v>2.293543677785763</v>
+        <v>2.214752598112104</v>
       </c>
       <c r="D60">
-        <v>4.097834974203841</v>
+        <v>2.67146995413089</v>
       </c>
       <c r="E60">
-        <v>2.185925179628592</v>
+        <v>12.94263604597672</v>
       </c>
       <c r="F60">
-        <v>5.204346885813973</v>
+        <v>3.532393263308115</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.185382446577003</v>
+        <v>7.037502268577767</v>
       </c>
       <c r="C61">
-        <v>2.299208661195832</v>
+        <v>2.218882796465363</v>
       </c>
       <c r="D61">
-        <v>4.127955136851193</v>
+        <v>2.689147668544375</v>
       </c>
       <c r="E61">
-        <v>2.189580409880762</v>
+        <v>13.0291107840018</v>
       </c>
       <c r="F61">
-        <v>5.263861551994412</v>
+        <v>3.558406389488366</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.189480441306898</v>
+        <v>7.093629608486514</v>
       </c>
       <c r="C62">
-        <v>2.304889893358959</v>
+        <v>2.223025489718196</v>
       </c>
       <c r="D62">
-        <v>4.157901953983434</v>
+        <v>2.707118471258887</v>
       </c>
       <c r="E62">
-        <v>2.193248850117309</v>
+        <v>13.11344242658569</v>
       </c>
       <c r="F62">
-        <v>5.323464998706461</v>
+        <v>3.584420118587652</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.193612875393623</v>
+        <v>7.148822065758506</v>
       </c>
       <c r="C63">
-        <v>2.310587069192467</v>
+        <v>2.227180494035691</v>
       </c>
       <c r="D63">
-        <v>4.187676380426743</v>
+        <v>2.725386946289154</v>
       </c>
       <c r="E63">
-        <v>2.196930322411087</v>
+        <v>13.19568299135036</v>
       </c>
       <c r="F63">
-        <v>5.383153915333814</v>
+        <v>3.610434412155455</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.197779850220625</v>
+        <v>7.203092776779283</v>
       </c>
       <c r="C64">
-        <v>2.316299884692712</v>
+        <v>2.231347626072802</v>
       </c>
       <c r="D64">
-        <v>4.217279365377802</v>
+        <v>2.743957697563292</v>
       </c>
       <c r="E64">
-        <v>2.200624648766574</v>
+        <v>13.27588337982486</v>
       </c>
       <c r="F64">
-        <v>5.442925034415214</v>
+        <v>3.636449231611685</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.201981469584355</v>
+        <v>7.256454786695103</v>
       </c>
       <c r="C65">
-        <v>2.322028036921953</v>
+        <v>2.235526702749654</v>
       </c>
       <c r="D65">
-        <v>4.246711852072705</v>
+        <v>2.762835292993435</v>
       </c>
       <c r="E65">
-        <v>2.204331651129361</v>
+        <v>13.3540933884743</v>
       </c>
       <c r="F65">
-        <v>5.502775131809987</v>
+        <v>3.662464538251051</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.206217839721966</v>
+        <v>7.30892104016528</v>
       </c>
       <c r="C66">
-        <v>2.327771223997237</v>
+        <v>2.239717541433667</v>
       </c>
       <c r="D66">
-        <v>4.275974777502757</v>
+        <v>2.78202421889017</v>
       </c>
       <c r="E66">
-        <v>2.2080511513961</v>
+        <v>13.43036178622091</v>
       </c>
       <c r="F66">
-        <v>5.562701026891703</v>
+        <v>3.688480293242511</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.210489069339872</v>
+        <v>7.360504376789862</v>
       </c>
       <c r="C67">
-        <v>2.333529145081442</v>
+        <v>2.243919959957912</v>
       </c>
       <c r="D67">
-        <v>4.305069072172079</v>
+        <v>2.801528969467114</v>
       </c>
       <c r="E67">
-        <v>2.211782971424888</v>
+        <v>13.504736287819</v>
       </c>
       <c r="F67">
-        <v>5.622699582738053</v>
+        <v>3.714496457635581</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.214795269643124</v>
+        <v>7.411217528911595</v>
       </c>
       <c r="C68">
-        <v>2.339301500376155</v>
+        <v>2.24813377662089</v>
       </c>
       <c r="D68">
-        <v>4.333995659892428</v>
+        <v>2.821353974566938</v>
       </c>
       <c r="E68">
-        <v>2.215526933046064</v>
+        <v>13.57726349140634</v>
       </c>
       <c r="F68">
-        <v>5.682767706292121</v>
+        <v>3.740512992361452</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.219136554365603</v>
+        <v>7.461073115293961</v>
       </c>
       <c r="C69">
-        <v>2.345087991116372</v>
+        <v>2.252358810087744</v>
       </c>
       <c r="D69">
-        <v>4.362755457611225</v>
+        <v>2.841503569952812</v>
       </c>
       <c r="E69">
-        <v>2.219282858073389</v>
+        <v>13.64798901142033</v>
       </c>
       <c r="F69">
-        <v>5.742902348477333</v>
+        <v>3.766529858232655</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.223513039800976</v>
+        <v>7.510083642117437</v>
       </c>
       <c r="C70">
-        <v>2.350888319566816</v>
+        <v>2.256594879509686</v>
       </c>
       <c r="D70">
-        <v>4.391349375269116</v>
+        <v>2.861982034002325</v>
       </c>
       <c r="E70">
-        <v>2.223050568315578</v>
+        <v>13.71695754536764</v>
       </c>
       <c r="F70">
-        <v>5.8031005042546</v>
+        <v>3.792547015956937</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.227924844834461</v>
+        <v>7.558261499211561</v>
       </c>
       <c r="C71">
-        <v>2.356702189019901</v>
+        <v>2.260841804592027</v>
       </c>
       <c r="D71">
-        <v>4.419778315683806</v>
+        <v>2.882793576439253</v>
       </c>
       <c r="E71">
-        <v>2.226829885588198</v>
+        <v>13.78421265484472</v>
       </c>
       <c r="F71">
-        <v>5.863359212615521</v>
+        <v>3.818564426127218</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.232372090975298</v>
+        <v>7.605618957849368</v>
       </c>
       <c r="C72">
-        <v>2.362529303795156</v>
+        <v>2.265099405476725</v>
       </c>
       <c r="D72">
-        <v>4.448043174457367</v>
+        <v>2.903942293758456</v>
       </c>
       <c r="E72">
-        <v>2.230620631725867</v>
+        <v>13.84979696289374</v>
       </c>
       <c r="F72">
-        <v>5.923675556509709</v>
+        <v>3.844582049231073</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.236854902389833</v>
+        <v>7.652168170939283</v>
       </c>
       <c r="C73">
-        <v>2.368369369240037</v>
+        <v>2.269367502795602</v>
       </c>
       <c r="D73">
-        <v>4.476144839904398</v>
+        <v>2.925432158798015</v>
       </c>
       <c r="E73">
-        <v>2.234422628594754</v>
+        <v>13.91375223607481</v>
       </c>
       <c r="F73">
-        <v>5.984046662707406</v>
+        <v>3.870599845658119</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.241373405935425</v>
+        <v>7.697921169307547</v>
       </c>
       <c r="C74">
-        <v>2.374222091731988</v>
+        <v>2.27364591771684</v>
       </c>
       <c r="D74">
-        <v>4.504084192998747</v>
+        <v>2.947267063165095</v>
       </c>
       <c r="E74">
-        <v>2.238235698105354</v>
+        <v>13.97611918784452</v>
       </c>
       <c r="F74">
-        <v>6.044469701600726</v>
+        <v>3.896617775694002</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.245927731195082</v>
+        <v>7.742889862075576</v>
       </c>
       <c r="C75">
-        <v>2.380087178681725</v>
+        <v>2.277934472072242</v>
       </c>
       <c r="D75">
-        <v>4.531862107336716</v>
+        <v>2.969450758908122</v>
       </c>
       <c r="E75">
-        <v>2.242059662225522</v>
+        <v>14.03693763910904</v>
       </c>
       <c r="F75">
-        <v>6.104941886948325</v>
+        <v>3.922635799529966</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.250518010512691</v>
+        <v>7.787086034476562</v>
       </c>
       <c r="C76">
-        <v>2.385964338537619</v>
+        <v>2.282232988107355</v>
       </c>
       <c r="D76">
-        <v>4.559479449114968</v>
+        <v>2.991986823733376</v>
       </c>
       <c r="E76">
-        <v>2.245894342993725</v>
+        <v>14.09624651760398</v>
       </c>
       <c r="F76">
-        <v>6.165460475568905</v>
+        <v>3.948653877265059</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.255144379028775</v>
+        <v>7.830521347508047</v>
       </c>
       <c r="C77">
-        <v>2.391853280791111</v>
+        <v>2.286541288685557</v>
       </c>
       <c r="D77">
-        <v>4.586937077121444</v>
+        <v>3.01487872403682</v>
       </c>
       <c r="E77">
-        <v>2.249739562532531</v>
+        <v>14.15408385065784</v>
       </c>
       <c r="F77">
-        <v>6.226022766989513</v>
+        <v>3.974671968907525</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.259806974716891</v>
+        <v>7.873207337456305</v>
       </c>
       <c r="C78">
-        <v>2.397753715983031</v>
+        <v>2.290859197290679</v>
       </c>
       <c r="D78">
-        <v>4.614235842737833</v>
+        <v>3.038129752724548</v>
       </c>
       <c r="E78">
-        <v>2.253595143062278</v>
+        <v>14.21048678946147</v>
       </c>
       <c r="F78">
-        <v>6.286626103054363</v>
+        <v>4.000690034379931</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.26450593842063</v>
+        <v>7.915155414661759</v>
       </c>
       <c r="C79">
-        <v>2.403665355710787</v>
+        <v>2.295186538066717</v>
       </c>
       <c r="D79">
-        <v>4.64137658995226</v>
+        <v>3.06174300607605</v>
       </c>
       <c r="E79">
-        <v>2.257460906914921</v>
+        <v>14.26549161610453</v>
       </c>
       <c r="F79">
-        <v>6.34726786749984</v>
+        <v>4.026708033521494</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.269241413891174</v>
+        <v>7.95637686453191</v>
       </c>
       <c r="C80">
-        <v>2.409587912636346</v>
+        <v>2.299523135706424</v>
       </c>
       <c r="D80">
-        <v>4.668360155381033</v>
+        <v>3.085721407498363</v>
       </c>
       <c r="E80">
-        <v>2.261336676548034</v>
+        <v>14.31913376205331</v>
       </c>
       <c r="F80">
-        <v>6.40794548550089</v>
+        <v>4.052725926091318</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.274013547825352</v>
+        <v>7.996882845800493</v>
       </c>
       <c r="C81">
-        <v>2.415521100494915</v>
+        <v>2.303868815578268</v>
       </c>
       <c r="D81">
-        <v>4.695187368298379</v>
+        <v>3.110067682920487</v>
       </c>
       <c r="E81">
-        <v>2.265222274558954</v>
+        <v>14.37144784359483</v>
       </c>
       <c r="F81">
-        <v>6.468656423193631</v>
+        <v>4.078743671771791</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.278822489904174</v>
+        <v>8.03668439173272</v>
       </c>
       <c r="C82">
-        <v>2.421464634104253</v>
+        <v>2.308223403765322</v>
       </c>
       <c r="D82">
-        <v>4.721859050673195</v>
+        <v>3.134784340675637</v>
       </c>
       <c r="E82">
-        <v>2.269117523699044</v>
+        <v>14.4224676567592</v>
       </c>
       <c r="F82">
-        <v>6.529398187178472</v>
+        <v>4.10476123017174</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.283668392831836</v>
+        <v>8.075792409067425</v>
       </c>
       <c r="C83">
-        <v>2.427418229374544</v>
+        <v>2.312586727023191</v>
       </c>
       <c r="D83">
-        <v>4.748376017211985</v>
+        <v>3.159873663326857</v>
       </c>
       <c r="E83">
-        <v>2.273022246888059</v>
+        <v>14.47222619646051</v>
       </c>
       <c r="F83">
-        <v>6.590168324007653</v>
+        <v>4.13077856083006</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.288551412375153</v>
+        <v>8.114217678541547</v>
       </c>
       <c r="C84">
-        <v>2.433381603318791</v>
+        <v>2.316958612790311</v>
       </c>
       <c r="D84">
-        <v>4.774739075407251</v>
+        <v>3.185337703650795</v>
       </c>
       <c r="E84">
-        <v>2.276936267228601</v>
+        <v>14.52075567854825</v>
       </c>
       <c r="F84">
-        <v>6.650964419660585</v>
+        <v>4.156795623219814</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.293471707403425</v>
+        <v>8.151970854838137</v>
       </c>
       <c r="C85">
-        <v>2.439354474063647</v>
+        <v>2.321338889242717</v>
       </c>
       <c r="D85">
-        <v>4.800949025590518</v>
+        <v>3.211178267740826</v>
       </c>
       <c r="E85">
-        <v>2.280859408020645</v>
+        <v>14.56808755066513</v>
       </c>
       <c r="F85">
-        <v>6.711784099009993</v>
+        <v>4.182812376749562</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.298429439928654</v>
+        <v>8.189062466521419</v>
       </c>
       <c r="C86">
-        <v>2.445336560860623</v>
+        <v>2.325727385370794</v>
       </c>
       <c r="D86">
-        <v>4.827006660989349</v>
+        <v>3.23739691584586</v>
       </c>
       <c r="E86">
-        <v>2.284791492776119</v>
+        <v>14.61425249685569</v>
       </c>
       <c r="F86">
-        <v>6.772625025281461</v>
+        <v>4.208828780767898</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.303424775146092</v>
+        <v>8.225502916756755</v>
       </c>
       <c r="C87">
-        <v>2.451327584097615</v>
+        <v>2.33012393086246</v>
       </c>
       <c r="D87">
-        <v>4.852912767788334</v>
+        <v>3.263994927543891</v>
       </c>
       <c r="E87">
-        <v>2.288732345233521</v>
+        <v>14.65928047899524</v>
       </c>
       <c r="F87">
-        <v>6.833484899508648</v>
+        <v>4.234844794566476</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.308457881475123</v>
+        <v>8.261302482993456</v>
       </c>
       <c r="C88">
-        <v>2.457327265310722</v>
+        <v>2.334528356215797</v>
       </c>
       <c r="D88">
-        <v>4.87866812519276</v>
+        <v>3.290973307349041</v>
       </c>
       <c r="E88">
-        <v>2.29268178937257</v>
+        <v>14.70320073488427</v>
       </c>
       <c r="F88">
-        <v>6.894361459986072</v>
+        <v>4.260860377383397</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2.313528930600422</v>
+        <v>8.296471317932145</v>
       </c>
       <c r="C89">
-        <v>2.463335327196273</v>
+        <v>2.338940492750149</v>
       </c>
       <c r="D89">
-        <v>4.904273505494916</v>
+        <v>3.318332812058415</v>
       </c>
       <c r="E89">
-        <v>2.296639649428856</v>
+        <v>14.74604179845097</v>
       </c>
       <c r="F89">
-        <v>6.9552524817212</v>
+        <v>4.286875488405446</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.318638097513354</v>
+        <v>8.331019449426515</v>
       </c>
       <c r="C90">
-        <v>2.469351493623027</v>
+        <v>2.343360172656418</v>
       </c>
       <c r="D90">
-        <v>4.92972967414266</v>
+        <v>3.34607387110417</v>
       </c>
       <c r="E90">
-        <v>2.300605749908503</v>
+        <v>14.78783151433096</v>
       </c>
       <c r="F90">
-        <v>7.016155775887188</v>
+        <v>4.312890086772643</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.323785560553604</v>
+        <v>8.364956781232932</v>
       </c>
       <c r="C91">
-        <v>2.475375489644498</v>
+        <v>2.347787228924373</v>
       </c>
       <c r="D91">
-        <v>4.955037389809858</v>
+        <v>3.374196614892563</v>
       </c>
       <c r="E91">
-        <v>2.3045799156028</v>
+        <v>14.82859698508185</v>
       </c>
       <c r="F91">
-        <v>7.077069189277549</v>
+        <v>4.338904131580631</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.328971501450961</v>
+        <v>8.398293093387604</v>
       </c>
       <c r="C92">
-        <v>2.481407041511368</v>
+        <v>2.352221495436215</v>
       </c>
       <c r="D92">
-        <v>4.980197404468249</v>
+        <v>3.402700902053212</v>
       </c>
       <c r="E92">
-        <v>2.308561971602813</v>
+        <v>14.86836473860091</v>
       </c>
       <c r="F92">
-        <v>7.137990603763744</v>
+        <v>4.364917581882891</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.334196105367267</v>
+        <v>8.43103804262018</v>
       </c>
       <c r="C93">
-        <v>2.487445876683932</v>
+        <v>2.356662806999196</v>
       </c>
       <c r="D93">
-        <v>5.005210463460578</v>
+        <v>3.431586281695283</v>
       </c>
       <c r="E93">
-        <v>2.312551743313954</v>
+        <v>14.9071606283412</v>
       </c>
       <c r="F93">
-        <v>7.198917935756567</v>
+        <v>4.390930396695878</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.339459560938467</v>
+        <v>8.463201163149737</v>
       </c>
       <c r="C94">
-        <v>2.493491723844556</v>
+        <v>2.361110999343583</v>
       </c>
       <c r="D94">
-        <v>5.030077305574683</v>
+        <v>3.46085194948474</v>
       </c>
       <c r="E94">
-        <v>2.316549056470495</v>
+        <v>14.94500987902511</v>
       </c>
       <c r="F94">
-        <v>7.259849135672064</v>
+        <v>4.416942535000294</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.344762060316726</v>
+        <v>8.494791866976964</v>
       </c>
       <c r="C95">
-        <v>2.499544312910082</v>
+        <v>2.365565909113769</v>
       </c>
       <c r="D95">
-        <v>5.054798663118303</v>
+        <v>3.490496809298267</v>
       </c>
       <c r="E95">
-        <v>2.320553737150026</v>
+        <v>14.98193710044798</v>
       </c>
       <c r="F95">
-        <v>7.320782187402592</v>
+        <v>4.442953955744259</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.350103799212591</v>
+        <v>8.525819444803302</v>
       </c>
       <c r="C96">
-        <v>2.50560337504418</v>
+        <v>2.370027373929588</v>
       </c>
       <c r="D96">
-        <v>5.079375261994398</v>
+        <v>3.520519504455255</v>
       </c>
       <c r="E96">
-        <v>2.324565611787822</v>
+        <v>15.01796613811266</v>
       </c>
       <c r="F96">
-        <v>7.381715107793519</v>
+        <v>4.468964617847731</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.355484976937134</v>
+        <v>8.556293066573401</v>
       </c>
       <c r="C97">
-        <v>2.511668642669588</v>
+        <v>2.374495232441507</v>
       </c>
       <c r="D97">
-        <v>5.103807821776813</v>
+        <v>3.550918269264512</v>
       </c>
       <c r="E97">
-        <v>2.32858450719114</v>
+        <v>15.05312045188327</v>
       </c>
       <c r="F97">
-        <v>7.442645946126006</v>
+        <v>4.494974480203385</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.360905796444057</v>
+        <v>8.58622178215899</v>
       </c>
       <c r="C98">
-        <v>2.517739849480216</v>
+        <v>2.378969324274326</v>
       </c>
       <c r="D98">
-        <v>5.128097055786092</v>
+        <v>3.581691032377009</v>
       </c>
       <c r="E98">
-        <v>2.332610250553415</v>
+        <v>15.08742285244888</v>
       </c>
       <c r="F98">
-        <v>7.503572783606193</v>
+        <v>4.520983501681053</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.366366464371711</v>
+        <v>8.615614521628657</v>
       </c>
       <c r="C99">
-        <v>2.523816730453091</v>
+        <v>2.383449490091507</v>
       </c>
       <c r="D99">
-        <v>5.152243671165303</v>
+        <v>3.612835476545052</v>
       </c>
       <c r="E99">
-        <v>2.336642669468346</v>
+        <v>15.12089558897272</v>
       </c>
       <c r="F99">
-        <v>7.564493732861078</v>
+        <v>4.546991641130575</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.371867191084978</v>
+        <v>8.644480097388536</v>
       </c>
       <c r="C100">
-        <v>2.529899021860113</v>
+        <v>2.387935571621069</v>
       </c>
       <c r="D100">
-        <v>5.176248368955765</v>
+        <v>3.644348910012186</v>
       </c>
       <c r="E100">
-        <v>2.340681591943877</v>
+        <v>15.15356036317096</v>
       </c>
       <c r="F100">
-        <v>7.625406937441299</v>
+        <v>4.5729988573829</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.377408190716995</v>
+        <v>8.672827202679773</v>
       </c>
       <c r="C101">
-        <v>2.535986461279593</v>
+        <v>2.392427411703169</v>
       </c>
       <c r="D101">
-        <v>5.200111844172507</v>
+        <v>3.67622835703851</v>
       </c>
       <c r="E101">
-        <v>2.344726846416047</v>
+        <v>15.18543812495316</v>
       </c>
       <c r="F101">
-        <v>7.686310571330991</v>
+        <v>4.599005109255607</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.38298968121065</v>
+        <v>8.700664414020864</v>
       </c>
       <c r="C102">
-        <v>2.542078787607548</v>
+        <v>2.396924854245381</v>
       </c>
       <c r="D102">
-        <v>5.223834785879408</v>
+        <v>3.708470545109159</v>
       </c>
       <c r="E102">
-        <v>2.348778261762711</v>
+        <v>15.21654956435291</v>
       </c>
       <c r="F102">
-        <v>7.747202838464895</v>
+        <v>4.625010355553848</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.388611884359816</v>
+        <v>8.728000192499776</v>
       </c>
       <c r="C103">
-        <v>2.548175741068746</v>
+        <v>2.401427744295716</v>
       </c>
       <c r="D103">
-        <v>5.247417877263893</v>
+        <v>3.741071890711664</v>
       </c>
       <c r="E103">
-        <v>2.352835667317126</v>
+        <v>15.24691476033508</v>
       </c>
       <c r="F103">
-        <v>7.808081972252728</v>
+        <v>4.651014555072723</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2.394275025850285</v>
+        <v>8.754842882206468</v>
       </c>
       <c r="C104">
-        <v>2.554277063227466</v>
+        <v>2.40593592806619</v>
       </c>
       <c r="D104">
-        <v>5.270861795711108</v>
+        <v>3.774028529754114</v>
       </c>
       <c r="E104">
-        <v>2.356898892881381</v>
+        <v>15.27655328978553</v>
       </c>
       <c r="F104">
-        <v>7.868946235110951</v>
+        <v>4.67701766660219</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2.399979335300332</v>
+        <v>8.781200713770229</v>
       </c>
       <c r="C105">
-        <v>2.560382496997961</v>
+        <v>2.410449252954027</v>
       </c>
       <c r="D105">
-        <v>5.294167212877513</v>
+        <v>3.807336298240163</v>
       </c>
       <c r="E105">
-        <v>2.360967768739687</v>
+        <v>15.30548424106802</v>
       </c>
       <c r="F105">
-        <v>7.929793918001945</v>
+        <v>4.703019648927337</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2.405725046300887</v>
+        <v>8.807081803718003</v>
       </c>
       <c r="C106">
-        <v>2.566491786654593</v>
+        <v>2.414967567536678</v>
       </c>
       <c r="D106">
-        <v>5.317334794763811</v>
+        <v>3.840990769276763</v>
       </c>
       <c r="E106">
-        <v>2.365042125671492</v>
+        <v>15.33372602342557</v>
       </c>
       <c r="F106">
-        <v>7.990623339980599</v>
+        <v>4.729020460832036</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.411512396455231</v>
+        <v>8.832494155223424</v>
       </c>
       <c r="C107">
-        <v>2.572604677841656</v>
+        <v>2.419490721623066</v>
       </c>
       <c r="D107">
-        <v>5.340365201787187</v>
+        <v>3.874987247112175</v>
       </c>
       <c r="E107">
-        <v>2.369121794964442</v>
+        <v>15.36129682111375</v>
       </c>
       <c r="F107">
-        <v>8.05143284774833</v>
+        <v>4.755020061102563</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2.417341627418191</v>
+        <v>8.857445660323418</v>
       </c>
       <c r="C108">
-        <v>2.578720917582847</v>
+        <v>2.424018566291276</v>
       </c>
       <c r="D108">
-        <v>5.363259088852763</v>
+        <v>3.909320766879447</v>
       </c>
       <c r="E108">
-        <v>2.373206608427159</v>
+        <v>15.38821427269295</v>
       </c>
       <c r="F108">
-        <v>8.112220815214489</v>
+        <v>4.781018408527359</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.423212984934773</v>
+        <v>8.881944099164889</v>
       </c>
       <c r="C109">
-        <v>2.584840254290372</v>
+        <v>2.428550953880071</v>
       </c>
       <c r="D109">
-        <v>5.38601710542428</v>
+        <v>3.943986150631551</v>
       </c>
       <c r="E109">
-        <v>2.37729639840185</v>
+        <v>15.41449556818533</v>
       </c>
       <c r="F109">
-        <v>8.172985643065141</v>
+        <v>4.807015461902789</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.429126718878162</v>
+        <v>8.905997141938176</v>
       </c>
       <c r="C110">
-        <v>2.590962437773684</v>
+        <v>2.433087738022294</v>
       </c>
       <c r="D110">
-        <v>5.408639895593929</v>
+        <v>3.978977956057026</v>
       </c>
       <c r="E110">
-        <v>2.381390997776719</v>
+        <v>15.44015746247967</v>
       </c>
       <c r="F110">
-        <v>8.233725758339142</v>
+        <v>4.83301118003399</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.43508308328705</v>
+        <v>8.929612349661058</v>
       </c>
       <c r="C111">
-        <v>2.597087219247848</v>
+        <v>2.437628773677012</v>
       </c>
       <c r="D111">
-        <v>5.431128098151333</v>
+        <v>4.014290547482682</v>
       </c>
       <c r="E111">
-        <v>2.385490239998214</v>
+        <v>15.46521611438783</v>
       </c>
       <c r="F111">
-        <v>8.294439614011495</v>
+        <v>4.859005521736138</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2.441082336402225</v>
+        <v>8.952797174617551</v>
       </c>
       <c r="C112">
-        <v>2.603214351341517</v>
+        <v>2.442173917173937</v>
       </c>
       <c r="D112">
-        <v>5.453482346651612</v>
+        <v>4.049918076183672</v>
       </c>
       <c r="E112">
-        <v>2.389593959083056</v>
+        <v>15.48968747023672</v>
       </c>
       <c r="F112">
-        <v>8.355125688583859</v>
+        <v>4.884998445839883</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2.447124740702357</v>
+        <v>8.975558962113665</v>
       </c>
       <c r="C113">
-        <v>2.609343588104503</v>
+        <v>2.44672302618828</v>
       </c>
       <c r="D113">
-        <v>5.475703269482573</v>
+        <v>4.08585449870862</v>
       </c>
       <c r="E113">
-        <v>2.39370198963009</v>
+        <v>15.51358699911645</v>
       </c>
       <c r="F113">
-        <v>8.415782485682206</v>
+        <v>4.910989911191213</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2.453210562938923</v>
+        <v>8.997904950706548</v>
       </c>
       <c r="C114">
-        <v>2.615474685014945</v>
+        <v>2.451275959800257</v>
       </c>
       <c r="D114">
-        <v>5.497791489930936</v>
+        <v>4.122093606313233</v>
       </c>
       <c r="E114">
-        <v>2.39781416683192</v>
+        <v>15.53692977116563</v>
       </c>
       <c r="F114">
-        <v>8.476408533661473</v>
+        <v>4.936979876654108</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2.459340074170203</v>
+        <v>9.019842273363526</v>
       </c>
       <c r="C115">
-        <v>2.621607398986071</v>
+        <v>2.455832578517856</v>
       </c>
       <c r="D115">
-        <v>5.519747626247648</v>
+        <v>4.158629015227778</v>
       </c>
       <c r="E115">
-        <v>2.401930326486357</v>
+        <v>15.55973047123567</v>
       </c>
       <c r="F115">
-        <v>8.537002385217194</v>
+        <v>4.962968301114654</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2.465513549794282</v>
+        <v>9.041377958985453</v>
       </c>
       <c r="C116">
-        <v>2.627741488372553</v>
+        <v>2.460392744306747</v>
       </c>
       <c r="D116">
-        <v>5.541572291712212</v>
+        <v>4.195454203213203</v>
       </c>
       <c r="E116">
-        <v>2.406050305007638</v>
+        <v>15.58200324435911</v>
       </c>
       <c r="F116">
-        <v>8.59756261700397</v>
+        <v>4.98895514348062</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.471731269580979</v>
+        <v>9.062518932431738</v>
       </c>
       <c r="C117">
-        <v>2.633876712976421</v>
+        <v>2.464956320587357</v>
       </c>
       <c r="D117">
-        <v>5.563266094696096</v>
+        <v>4.232562507852334</v>
       </c>
       <c r="E117">
-        <v>2.410173939437458</v>
+        <v>15.60376205963301</v>
       </c>
       <c r="F117">
-        <v>8.658087829260722</v>
+        <v>5.014940362685742</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2.477993517702657</v>
+        <v>9.083272016259526</v>
       </c>
       <c r="C118">
-        <v>2.640012834052578</v>
+        <v>2.469523172283123</v>
       </c>
       <c r="D118">
-        <v>5.584829638725122</v>
+        <v>4.269947149231903</v>
       </c>
       <c r="E118">
-        <v>2.414301067455774</v>
+        <v>15.62502046284491</v>
       </c>
       <c r="F118">
-        <v>8.718576645442422</v>
+        <v>5.040923917691757</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2.484300582763802</v>
+        <v>9.103643931577004</v>
       </c>
       <c r="C119">
-        <v>2.646149614313868</v>
+        <v>2.474093165852174</v>
       </c>
       <c r="D119">
-        <v>5.606263522540951</v>
+        <v>4.307601245665958</v>
       </c>
       <c r="E119">
-        <v>2.418431527391393</v>
+        <v>15.64579164594718</v>
       </c>
       <c r="F119">
-        <v>8.779027711858728</v>
+        <v>5.06690576748838</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2.490652757829333</v>
+        <v>9.123641298670568</v>
       </c>
       <c r="C120">
-        <v>2.652286817935746</v>
+        <v>2.478666169297163</v>
       </c>
       <c r="D120">
-        <v>5.627568340161532</v>
+        <v>4.34551782115092</v>
       </c>
       <c r="E120">
-        <v>2.422565158232352</v>
+        <v>15.66608846102977</v>
       </c>
       <c r="F120">
-        <v>8.839439697318861</v>
+        <v>5.092885871098824</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2.497050340451538</v>
+        <v>9.143270638582884</v>
       </c>
       <c r="C121">
-        <v>2.658424210560496</v>
+        <v>2.483242052187757</v>
       </c>
       <c r="D121">
-        <v>5.648744680940647</v>
+        <v>4.383689827314786</v>
       </c>
       <c r="E121">
-        <v>2.426701799636067</v>
+        <v>15.68592326057192</v>
       </c>
       <c r="F121">
-        <v>8.899811292782802</v>
+        <v>5.118864187579566</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.503493632695569</v>
+        <v>9.162538373625209</v>
       </c>
       <c r="C122">
-        <v>2.664561559301027</v>
+        <v>2.487820685695479</v>
       </c>
       <c r="D122">
-        <v>5.669793129626423</v>
+        <v>4.422110152957834</v>
       </c>
       <c r="E122">
-        <v>2.430841291939268</v>
+        <v>15.70530826636399</v>
       </c>
       <c r="F122">
-        <v>8.960141211018852</v>
+        <v>5.144840676022061</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.509982941163408</v>
+        <v>9.181450828608963</v>
       </c>
       <c r="C123">
-        <v>2.670698632744247</v>
+        <v>2.492401942636244</v>
       </c>
       <c r="D123">
-        <v>5.690714266418957</v>
+        <v>4.460771638413566</v>
       </c>
       <c r="E123">
-        <v>2.434983476167719</v>
+        <v>15.72425532139705</v>
       </c>
       <c r="F123">
-        <v>9.020428186267289</v>
+        <v>5.170815295557179</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2.516518577016218</v>
+        <v>9.20001423198252</v>
       </c>
       <c r="C124">
-        <v>2.676835200954021</v>
+        <v>2.496985697456219</v>
       </c>
       <c r="D124">
-        <v>5.711508667026909</v>
+        <v>4.499667089610086</v>
       </c>
       <c r="E124">
-        <v>2.439128194045694</v>
+        <v>15.74277595459883</v>
       </c>
       <c r="F124">
-        <v>9.080670973910062</v>
+        <v>5.1967880053546</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2.523100855994987</v>
+        <v>9.218234716534965</v>
       </c>
       <c r="C125">
-        <v>2.682971035473687</v>
+        <v>2.501571826284047</v>
       </c>
       <c r="D125">
-        <v>5.732176902723218</v>
+        <v>4.538789293627149</v>
       </c>
       <c r="E125">
-        <v>2.443275288005246</v>
+        <v>15.76088139532053</v>
       </c>
       <c r="F125">
-        <v>9.140868350146462</v>
+        <v>5.222758764625879</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2.529730098439392</v>
+        <v>9.236118320694231</v>
       </c>
       <c r="C126">
-        <v>2.689105909328154</v>
+        <v>2.506160206954351</v>
       </c>
       <c r="D126">
-        <v>5.752719540399815</v>
+        <v>4.578131020593037</v>
       </c>
       <c r="E126">
-        <v>2.447424601195245</v>
+        <v>15.7785824183473</v>
       </c>
       <c r="F126">
-        <v>9.201019111674583</v>
+        <v>5.248727532627284</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2.53640662930476</v>
+        <v>9.253670989457975</v>
       </c>
       <c r="C127">
-        <v>2.695239597025584</v>
+        <v>2.510750719043046</v>
       </c>
       <c r="D127">
-        <v>5.773137142621453</v>
+        <v>4.617685052984971</v>
       </c>
       <c r="E127">
-        <v>2.451575977490188</v>
+        <v>15.79588969670422</v>
       </c>
       <c r="F127">
-        <v>9.261122075378527</v>
+        <v>5.27469426865905</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2.543130778177044</v>
+        <v>9.270898575323207</v>
       </c>
       <c r="C128">
-        <v>2.701371874558672</v>
+        <v>2.515343243863647</v>
       </c>
       <c r="D128">
-        <v>5.79343026767857</v>
+        <v>4.657444178989991</v>
       </c>
       <c r="E128">
-        <v>2.455729261498786</v>
+        <v>15.81281356807576</v>
       </c>
       <c r="F128">
-        <v>9.32117607802123</v>
+        <v>5.300658932070295</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2.549902879285727</v>
+        <v>9.287806839532125</v>
       </c>
       <c r="C129">
-        <v>2.707502519405492</v>
+        <v>2.51993766451606</v>
       </c>
       <c r="D129">
-        <v>5.813599469639288</v>
+        <v>4.697401214165993</v>
       </c>
       <c r="E129">
-        <v>2.459884298572325</v>
+        <v>15.82936409150641</v>
       </c>
       <c r="F129">
-        <v>9.381179975942816</v>
+        <v>5.326621482259224</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2.556723271514525</v>
+        <v>9.304401452860336</v>
       </c>
       <c r="C130">
-        <v>2.713631310529943</v>
+        <v>2.524533865917521</v>
       </c>
       <c r="D130">
-        <v>5.833645298400461</v>
+        <v>4.737549012911699</v>
       </c>
       <c r="E130">
-        <v>2.464040934812804</v>
+        <v>15.84555106215063</v>
       </c>
       <c r="F130">
-        <v>9.441132644764371</v>
+        <v>5.352581878673925</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.563592298409803</v>
+        <v>9.320687996784203</v>
       </c>
       <c r="C131">
-        <v>2.719758028381791</v>
+        <v>2.529131734820656</v>
       </c>
       <c r="D131">
-        <v>5.853568299737875</v>
+        <v>4.777880463237719</v>
       </c>
       <c r="E131">
-        <v>2.468199017080836</v>
+        <v>15.86138387229158</v>
       </c>
       <c r="F131">
-        <v>9.501032979097012</v>
+        <v>5.378540080816815</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.570510308186586</v>
+        <v>9.336671964512316</v>
       </c>
       <c r="C132">
-        <v>2.725882454896326</v>
+        <v>2.533731159828179</v>
       </c>
       <c r="D132">
-        <v>5.873369015355529</v>
+        <v>4.818388520942963</v>
       </c>
       <c r="E132">
-        <v>2.472358393003333</v>
+        <v>15.87687182498955</v>
       </c>
       <c r="F132">
-        <v>9.560879892256196</v>
+        <v>5.40449604824344</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.577477653732059</v>
+        <v>9.352358761931873</v>
       </c>
       <c r="C133">
-        <v>2.732004373493603</v>
+        <v>2.538332031433686</v>
       </c>
       <c r="D133">
-        <v>5.893047982934099</v>
+        <v>4.859066189837248</v>
       </c>
       <c r="E133">
-        <v>2.476518910980972</v>
+        <v>15.89202393084889</v>
       </c>
       <c r="F133">
-        <v>9.620672315981123</v>
+        <v>5.430449740564998</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2.584494692606431</v>
+        <v>9.367753708690016</v>
       </c>
       <c r="C134">
-        <v>2.738123569077314</v>
+        <v>2.542934242065112</v>
       </c>
       <c r="D134">
-        <v>5.912605736178492</v>
+        <v>4.899906552718717</v>
       </c>
       <c r="E134">
-        <v>2.480680420195412</v>
+        <v>15.90684895410083</v>
       </c>
       <c r="F134">
-        <v>9.680409200159179</v>
+        <v>5.456401117452858</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2.591561787041055</v>
+        <v>9.382862039207128</v>
       </c>
       <c r="C135">
-        <v>2.744239828033258</v>
+        <v>2.547537686074414</v>
       </c>
       <c r="D135">
-        <v>5.932042804864613</v>
+        <v>4.940902768811116</v>
       </c>
       <c r="E135">
-        <v>2.484842770616326</v>
+        <v>15.92135542712298</v>
       </c>
       <c r="F135">
-        <v>9.74008951255537</v>
+        <v>5.482350138638072</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.598679303933679</v>
+        <v>9.397688903700184</v>
       </c>
       <c r="C136">
-        <v>2.750352938227461</v>
+        <v>2.552142259783489</v>
       </c>
       <c r="D136">
-        <v>5.951359714885254</v>
+        <v>4.982048072122625</v>
       </c>
       <c r="E136">
-        <v>2.489005813008176</v>
+        <v>15.93555152733157</v>
       </c>
       <c r="F136">
-        <v>9.799712238546478</v>
+        <v>5.508296763910226</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.605847614840697</v>
+        <v>9.412239369152369</v>
       </c>
       <c r="C137">
-        <v>2.756462689003908</v>
+        <v>2.556747861513883</v>
       </c>
       <c r="D137">
-        <v>5.970556988295222</v>
+        <v>5.023335801317814</v>
       </c>
       <c r="E137">
-        <v>2.493169398936785</v>
+        <v>15.94944535279772</v>
       </c>
       <c r="F137">
-        <v>9.859276380859667</v>
+        <v>5.534240953119263</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2.613067095966279</v>
+        <v>9.426518420424022</v>
       </c>
       <c r="C138">
-        <v>2.762568871181911</v>
+        <v>2.561354391631709</v>
       </c>
       <c r="D138">
-        <v>5.989635143355606</v>
+        <v>5.064759371634469</v>
       </c>
       <c r="E138">
-        <v>2.497333380775685</v>
+        <v>15.96304474783797</v>
       </c>
       <c r="F138">
-        <v>9.918780959316171</v>
+        <v>5.560182666186714</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2.620338128148248</v>
+        <v>9.440530961187383</v>
       </c>
       <c r="C139">
-        <v>2.76867127705313</v>
+        <v>2.565961752527969</v>
       </c>
       <c r="D139">
-        <v>6.008594694577317</v>
+        <v>5.106312315034651</v>
       </c>
       <c r="E139">
-        <v>2.501497611712244</v>
+        <v>15.97635733961764</v>
       </c>
       <c r="F139">
-        <v>9.978225010579642</v>
+        <v>5.58612186309841</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2.627661096840563</v>
+        <v>9.454281814924448</v>
       </c>
       <c r="C140">
-        <v>2.774769700378234</v>
+        <v>2.570569848680136</v>
       </c>
       <c r="D140">
-        <v>6.027436152763795</v>
+        <v>5.147988260629437</v>
       </c>
       <c r="E140">
-        <v>2.505661945753579</v>
+        <v>15.98939055227311</v>
       </c>
       <c r="F140">
-        <v>10.0376075879087</v>
+        <v>5.612058503904164</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2.635036392092273</v>
+        <v>9.467775726046577</v>
       </c>
       <c r="C141">
-        <v>2.780863936383236</v>
+        <v>2.575178586683433</v>
       </c>
       <c r="D141">
-        <v>6.046160025053013</v>
+        <v>5.189780941761914</v>
       </c>
       <c r="E141">
-        <v>2.50982623773226</v>
+        <v>16.00215149407201</v>
       </c>
       <c r="F141">
-        <v>10.09692776091359</v>
+        <v>5.637992548716289</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2.642464408522803</v>
+        <v>9.481017360729457</v>
       </c>
       <c r="C142">
-        <v>2.786953781755472</v>
+        <v>2.579787875276835</v>
       </c>
       <c r="D142">
-        <v>6.06476681495868</v>
+        <v>5.231684214733215</v>
       </c>
       <c r="E142">
-        <v>2.513990343311785</v>
+        <v>16.01464720721928</v>
       </c>
       <c r="F142">
-        <v>10.15618461531742</v>
+        <v>5.663923957729867</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>2.649945545293422</v>
+        <v>9.494011308049362</v>
       </c>
       <c r="C143">
-        <v>2.79303903463926</v>
+        <v>2.58439762534224</v>
       </c>
       <c r="D143">
-        <v>6.083257022410755</v>
+        <v>5.273692035092513</v>
       </c>
       <c r="E143">
-        <v>2.518154118991858</v>
+        <v>16.02688451335672</v>
       </c>
       <c r="F143">
-        <v>10.21537725272173</v>
+        <v>5.6898526912078</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2.657480206074748</v>
+        <v>9.506762080962467</v>
       </c>
       <c r="C144">
-        <v>2.79911949463124</v>
+        <v>2.589007749959665</v>
       </c>
       <c r="D144">
-        <v>6.101631143795202</v>
+        <v>5.315798490180572</v>
       </c>
       <c r="E144">
-        <v>2.522317422113443</v>
+        <v>16.03887004285798</v>
       </c>
       <c r="F144">
-        <v>10.27450479037578</v>
+        <v>5.715778709483683</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2.665068799010133</v>
+        <v>9.519274117127665</v>
       </c>
       <c r="C145">
-        <v>2.805194962775406</v>
+        <v>2.593618164456144</v>
       </c>
       <c r="D145">
-        <v>6.119889671993073</v>
+        <v>5.357997777842368</v>
       </c>
       <c r="E145">
-        <v>2.526480110863627</v>
+        <v>16.0506102486983</v>
       </c>
       <c r="F145">
-        <v>10.33356636095025</v>
+        <v>5.741701972957518</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2.672711736674782</v>
+        <v>9.531551780176354</v>
       </c>
       <c r="C146">
-        <v>2.811265241557818</v>
+        <v>2.598228786392091</v>
       </c>
       <c r="D146">
-        <v>6.138033096418872</v>
+        <v>5.400284216893103</v>
       </c>
       <c r="E146">
-        <v>2.530642044280257</v>
+        <v>16.06211130174122</v>
       </c>
       <c r="F146">
-        <v>10.39256111231459</v>
+        <v>5.767622442117555</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2.680409436030434</v>
+        <v>9.543599360459515</v>
       </c>
       <c r="C147">
-        <v>2.81733013490102</v>
+        <v>2.602839535601133</v>
       </c>
       <c r="D147">
-        <v>6.156061903058255</v>
+        <v>5.442652254278562</v>
       </c>
       <c r="E147">
-        <v>2.534803082256393</v>
+        <v>16.07337931958402</v>
       </c>
       <c r="F147">
-        <v>10.45148820731846</v>
+        <v>5.793540077524834</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2.688162318375459</v>
+        <v>9.555421076048114</v>
       </c>
       <c r="C148">
-        <v>2.823389448158176</v>
+        <v>2.60745033423038</v>
       </c>
       <c r="D148">
-        <v>6.173976574505043</v>
+        <v>5.485096449105396</v>
       </c>
       <c r="E148">
-        <v>2.538963085544547</v>
+        <v>16.08442022829884</v>
       </c>
       <c r="F148">
-        <v>10.51034682357687</v>
+        <v>5.819454839817527</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2.695970809290198</v>
+        <v>9.567021073897672</v>
       </c>
       <c r="C149">
-        <v>2.829442988106917</v>
+        <v>2.612061106806477</v>
       </c>
       <c r="D149">
-        <v>6.191777589997606</v>
+        <v>5.527611495395798</v>
       </c>
       <c r="E149">
-        <v>2.543121915760722</v>
+        <v>16.09523978547033</v>
       </c>
       <c r="F149">
-        <v>10.56913615325895</v>
+        <v>5.845366689706467</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2.703835338577371</v>
+        <v>9.578403430284736</v>
       </c>
       <c r="C150">
-        <v>2.835490562942909</v>
+        <v>2.616671780177761</v>
       </c>
       <c r="D150">
-        <v>6.20946542545457</v>
+        <v>5.570192202137751</v>
       </c>
       <c r="E150">
-        <v>2.547279435388256</v>
+        <v>16.10584359383984</v>
       </c>
       <c r="F150">
-        <v>10.62785540288045</v>
+        <v>5.871275587992597</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2.7117563401974</v>
+        <v>9.589572152467387</v>
       </c>
       <c r="C151">
-        <v>2.841531982273155</v>
+        <v>2.621282283605066</v>
       </c>
       <c r="D151">
-        <v>6.227040553509908</v>
+        <v>5.612833505593337</v>
       </c>
       <c r="E151">
-        <v>2.551435507781479</v>
+        <v>16.11623700645114</v>
       </c>
       <c r="F151">
-        <v>10.68650379309983</v>
+        <v>5.897181495555611</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2.719734252198462</v>
+        <v>9.600531179401267</v>
       </c>
       <c r="C152">
-        <v>2.847567057109039</v>
+        <v>2.625892548792128</v>
       </c>
       <c r="D152">
-        <v>6.244503443547513</v>
+        <v>5.655530467000139</v>
       </c>
       <c r="E152">
-        <v>2.555589997169156</v>
+        <v>16.12642533153844</v>
       </c>
       <c r="F152">
-        <v>10.74508055851778</v>
+        <v>5.923084373357827</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2.727769516641092</v>
+        <v>9.611284382719012</v>
       </c>
       <c r="C153">
-        <v>2.853595599859125</v>
+        <v>2.630502509928724</v>
       </c>
       <c r="D153">
-        <v>6.261854561735059</v>
+        <v>5.698278264246427</v>
       </c>
       <c r="E153">
-        <v>2.559742768657772</v>
+        <v>16.13641371198429</v>
       </c>
       <c r="F153">
-        <v>10.8035849474802</v>
+        <v>5.948984182439654</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2.735862579517175</v>
+        <v>9.621835566407061</v>
       </c>
       <c r="C154">
-        <v>2.859617424321697</v>
+        <v>2.635112103654957</v>
       </c>
       <c r="D154">
-        <v>6.279094371057216</v>
+        <v>5.741072205164135</v>
       </c>
       <c r="E154">
-        <v>2.563893688234593</v>
+        <v>16.14620714248007</v>
       </c>
       <c r="F154">
-        <v>10.86201622188449</v>
+        <v>5.974880883934641</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2.744013890663123</v>
+        <v>9.632188470112501</v>
       </c>
       <c r="C155">
-        <v>2.865632345677064</v>
+        <v>2.639721269147049</v>
       </c>
       <c r="D155">
-        <v>6.296223331348346</v>
+        <v>5.78390771097447</v>
       </c>
       <c r="E155">
-        <v>2.568042622770571</v>
+        <v>16.15581048272074</v>
       </c>
       <c r="F155">
-        <v>10.92037365698911</v>
+        <v>6.000774439060275</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2.752223903667079</v>
+        <v>9.642346768867151</v>
       </c>
       <c r="C156">
-        <v>2.871640180479649</v>
+        <v>2.644329948173868</v>
       </c>
       <c r="D156">
-        <v>6.313241899324685</v>
+        <v>5.826780328256151</v>
       </c>
       <c r="E156">
-        <v>2.572189440023049</v>
+        <v>16.16522837361639</v>
       </c>
       <c r="F156">
-        <v>10.97865654122645</v>
+        <v>6.02666480912157</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2.76049307576994</v>
+        <v>9.652314074103886</v>
       </c>
       <c r="C157">
-        <v>2.877640746649847</v>
+        <v>2.648938085081751</v>
       </c>
       <c r="D157">
-        <v>6.330150528615958</v>
+        <v>5.869685720759676</v>
       </c>
       <c r="E157">
-        <v>2.576334008638291</v>
+        <v>16.17446541641605</v>
       </c>
       <c r="F157">
-        <v>11.03686417601916</v>
+        <v>6.052551955505497</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>2.768821867760034</v>
+        <v>9.662093932306162</v>
       </c>
       <c r="C158">
-        <v>2.883633863465665</v>
+        <v>2.6535456268161</v>
       </c>
       <c r="D158">
-        <v>6.346949669796399</v>
+        <v>5.912619666870654</v>
       </c>
       <c r="E158">
-        <v>2.580476198153832</v>
+        <v>16.18352607045225</v>
       </c>
       <c r="F158">
-        <v>11.09499587559875</v>
+        <v>6.078435839696668</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2.77721074386124</v>
+        <v>9.671689830206891</v>
       </c>
       <c r="C159">
-        <v>2.889619351554164</v>
+        <v>2.658152522984168</v>
       </c>
       <c r="D159">
-        <v>6.363639770415252</v>
+        <v>5.955578065075624</v>
       </c>
       <c r="E159">
-        <v>2.584615879000663</v>
+        <v>16.19241466506475</v>
       </c>
       <c r="F159">
-        <v>11.15305096682731</v>
+        <v>6.104316423267848</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2.78566017161439</v>
+        <v>9.681105193426527</v>
       </c>
       <c r="C160">
-        <v>2.895597032882693</v>
+        <v>2.662758725958002</v>
       </c>
       <c r="D160">
-        <v>6.380221275026746</v>
+        <v>5.998556922569031</v>
       </c>
       <c r="E160">
-        <v>2.588752922505227</v>
+        <v>16.20113541212677</v>
       </c>
       <c r="F160">
-        <v>11.21102878902296</v>
+        <v>6.130193667883814</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2.794170621751737</v>
+        <v>9.690343387468543</v>
       </c>
       <c r="C161">
-        <v>2.901566730749946</v>
+        <v>2.667364190751925</v>
       </c>
       <c r="D161">
-        <v>6.396694625219579</v>
+        <v>6.041552363055875</v>
       </c>
       <c r="E161">
-        <v>2.592887200891256</v>
+        <v>16.20969233219596</v>
       </c>
       <c r="F161">
-        <v>11.2689286937869</v>
+        <v>6.15606753529335</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2.802742568064318</v>
+        <v>9.69940771639588</v>
       </c>
       <c r="C162">
-        <v>2.907528269776813</v>
+        <v>2.671968875159392</v>
       </c>
       <c r="D162">
-        <v>6.413060259645892</v>
+        <v>6.084560618383374</v>
       </c>
       <c r="E162">
-        <v>2.597018587281406</v>
+        <v>16.21808941071274</v>
       </c>
       <c r="F162">
-        <v>11.32675004483561</v>
+        <v>6.181937987348506</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2.811376487262013</v>
+        <v>9.708301428037409</v>
       </c>
       <c r="C163">
-        <v>2.913481475897076</v>
+        <v>2.676572739782071</v>
       </c>
       <c r="D163">
-        <v>6.429318614049754</v>
+        <v>6.12757802813293</v>
       </c>
       <c r="E163">
-        <v>2.601146955698806</v>
+        <v>16.22633051169371</v>
       </c>
       <c r="F163">
-        <v>11.38449221783471</v>
+        <v>6.207804985992714</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2.820072858826105</v>
+        <v>9.717027712600933</v>
       </c>
       <c r="C164">
-        <v>2.919426176347913</v>
+        <v>2.68117574810994</v>
       </c>
       <c r="D164">
-        <v>6.445470121295156</v>
+        <v>6.170601040085491</v>
       </c>
       <c r="E164">
-        <v>2.6052721810684</v>
+        <v>16.23441938531923</v>
       </c>
       <c r="F164">
-        <v>11.44215460023433</v>
+        <v>6.233668493265017</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2.828832164854176</v>
+        <v>9.725589703596491</v>
       </c>
       <c r="C165">
-        <v>2.925362199660263</v>
+        <v>2.685777866416868</v>
       </c>
       <c r="D165">
-        <v>6.461515211393544</v>
+        <v>6.21362620361188</v>
       </c>
       <c r="E165">
-        <v>2.609394139218093</v>
+        <v>16.24235967976319</v>
       </c>
       <c r="F165">
-        <v>11.49973659110828</v>
+        <v>6.259528471293545</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2.837654889897116</v>
+        <v>9.73399047679448</v>
       </c>
       <c r="C166">
-        <v>2.931289375649016</v>
+        <v>2.690379063903195</v>
       </c>
       <c r="D166">
-        <v>6.4774543115309</v>
+        <v>6.256650172473768</v>
       </c>
       <c r="E166">
-        <v>2.61351270687988</v>
+        <v>16.25015487547782</v>
       </c>
       <c r="F166">
-        <v>11.55723760099475</v>
+        <v>6.285384882310525</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2.846541520788084</v>
+        <v>9.742233054847317</v>
       </c>
       <c r="C167">
-        <v>2.937207535403059</v>
+        <v>2.694979312759114</v>
       </c>
       <c r="D167">
-        <v>6.493287846094354</v>
+        <v>6.299669697940526</v>
       </c>
       <c r="E167">
-        <v>2.617627761690551</v>
+        <v>16.25780842252822</v>
       </c>
       <c r="F167">
-        <v>11.61465705174152</v>
+        <v>6.311237688644661</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2.855492546463236</v>
+        <v>9.750320406202691</v>
       </c>
       <c r="C168">
-        <v>2.943116511275185</v>
+        <v>2.699578588161526</v>
       </c>
       <c r="D168">
-        <v>6.509016236698378</v>
+        <v>6.342681629935985</v>
       </c>
       <c r="E168">
-        <v>2.62173918219244</v>
+        <v>16.2653236672835</v>
       </c>
       <c r="F168">
-        <v>11.67199437635263</v>
+        <v>6.337086852723166</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2.864508457774026</v>
+        <v>9.758255445958397</v>
       </c>
       <c r="C169">
-        <v>2.94901613687186</v>
+        <v>2.704176868248845</v>
       </c>
       <c r="D169">
-        <v>6.524639902210538</v>
+        <v>6.385682915562891</v>
       </c>
       <c r="E169">
-        <v>2.625846847834038</v>
+        <v>16.27270385645696</v>
       </c>
       <c r="F169">
-        <v>11.72924901883732</v>
+        <v>6.362932337067474</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2.873589747290907</v>
+        <v>9.766041035275695</v>
       </c>
       <c r="C170">
-        <v>2.954906247042868</v>
+        <v>2.708774134234482</v>
       </c>
       <c r="D170">
-        <v>6.540159258776818</v>
+        <v>6.428670595694586</v>
       </c>
       <c r="E170">
-        <v>2.629950638970433</v>
+        <v>16.27995214830495</v>
       </c>
       <c r="F170">
-        <v>11.78642043406178</v>
+        <v>6.38877410430366</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2.882736909098267</v>
+        <v>9.773679985086453</v>
       </c>
       <c r="C171">
-        <v>2.960786677870825</v>
+        <v>2.713370370539456</v>
       </c>
       <c r="D171">
-        <v>6.555574719846541</v>
+        <v>6.471641795073314</v>
       </c>
       <c r="E171">
-        <v>2.634050436863576</v>
+        <v>16.28707155415794</v>
       </c>
       <c r="F171">
-        <v>11.84350808760219</v>
+        <v>6.414612117158818</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>2.891950438580415</v>
+        <v>9.781175055477565</v>
       </c>
       <c r="C172">
-        <v>2.966657266660584</v>
+        <v>2.717965564630459</v>
       </c>
       <c r="D172">
-        <v>6.570886696196875</v>
+        <v>6.5145937367358</v>
       </c>
       <c r="E172">
-        <v>2.638146123682381</v>
+        <v>16.29406505907025</v>
       </c>
       <c r="F172">
-        <v>11.90051145560218</v>
+        <v>6.440446338461368</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>2.901230832198476</v>
+        <v>9.788528956499587</v>
       </c>
       <c r="C173">
-        <v>2.972517851928526</v>
+        <v>2.72255970716179</v>
       </c>
       <c r="D173">
-        <v>6.586095595956962</v>
+        <v>6.557523728665791</v>
       </c>
       <c r="E173">
-        <v>2.642237582502739</v>
+        <v>16.30093555978065</v>
       </c>
       <c r="F173">
-        <v>11.95743002463079</v>
+        <v>6.466276731138132</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>2.910578587258024</v>
+        <v>9.795744346832549</v>
       </c>
       <c r="C174">
-        <v>2.978368273391753</v>
+        <v>2.727152792033909</v>
       </c>
       <c r="D174">
-        <v>6.601201824631646</v>
+        <v>6.60042916193138</v>
       </c>
       <c r="E174">
-        <v>2.646324697307394</v>
+        <v>16.30768586582487</v>
       </c>
       <c r="F174">
-        <v>12.01426329154339</v>
+        <v>6.492103258221789</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2.919994201667206</v>
+        <v>9.80282383860634</v>
       </c>
       <c r="C175">
-        <v>2.984208371957178</v>
+        <v>2.731744816539968</v>
       </c>
       <c r="D175">
-        <v>6.616205785124825</v>
+        <v>6.643307505331594</v>
       </c>
       <c r="E175">
-        <v>2.650407352985678</v>
+        <v>16.31431871010212</v>
       </c>
       <c r="F175">
-        <v>12.07101076334428</v>
+        <v>6.517925882849914</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2.929478173685439</v>
+        <v>9.809769996198945</v>
       </c>
       <c r="C176">
-        <v>2.990037989710526</v>
+        <v>2.736335781135994</v>
       </c>
       <c r="D176">
-        <v>6.631107877762439</v>
+        <v>6.686156315789582</v>
       </c>
       <c r="E176">
-        <v>2.65448543533306</v>
+        <v>16.32083669745276</v>
       </c>
       <c r="F176">
-        <v>12.12767195705192</v>
+        <v>6.543744568264045</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>2.93903100166236</v>
+        <v>9.816585336952183</v>
       </c>
       <c r="C177">
-        <v>2.99585696990525</v>
+        <v>2.740925689682642</v>
       </c>
       <c r="D177">
-        <v>6.645908500315085</v>
+        <v>6.728973225894725</v>
       </c>
       <c r="E177">
-        <v>2.658558831050644</v>
+        <v>16.32724240944993</v>
       </c>
       <c r="F177">
-        <v>12.18424639956647</v>
+        <v>6.569559277807554</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>2.948653183766944</v>
+        <v>9.823272329934639</v>
       </c>
       <c r="C178">
-        <v>3.001665156951367</v>
+        <v>2.74551454951099</v>
       </c>
       <c r="D178">
-        <v>6.660608048020287</v>
+        <v>6.771755942582034</v>
       </c>
       <c r="E178">
-        <v>2.662627427744503</v>
+        <v>16.33353835270974</v>
       </c>
       <c r="F178">
-        <v>12.24073362753875</v>
+        <v>6.595369974931124</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>2.958345217706663</v>
+        <v>9.829833400603501</v>
       </c>
       <c r="C179">
-        <v>3.007462396404222</v>
+        <v>2.750102371461332</v>
       </c>
       <c r="D179">
-        <v>6.675206913604419</v>
+        <v>6.814502246844239</v>
       </c>
       <c r="E179">
-        <v>2.666691113924952</v>
+        <v>16.33972695765499</v>
       </c>
       <c r="F179">
-        <v>12.29713318724168</v>
+        <v>6.621176623193805</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>2.968107600436614</v>
+        <v>9.836270929671462</v>
       </c>
       <c r="C180">
-        <v>3.013248534953178</v>
+        <v>2.75468916975818</v>
       </c>
       <c r="D180">
-        <v>6.68970548730428</v>
+        <v>6.857209992441565</v>
       </c>
       <c r="E180">
-        <v>2.670749779005551</v>
+        <v>16.34581058837988</v>
       </c>
       <c r="F180">
-        <v>12.35344463444286</v>
+        <v>6.646979186260962</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2.977940827858499</v>
+        <v>9.842587253752168</v>
       </c>
       <c r="C181">
-        <v>3.01902342041025</v>
+        <v>2.759274962218366</v>
       </c>
       <c r="D181">
-        <v>6.704104156888347</v>
+        <v>6.899877101926833</v>
       </c>
       <c r="E181">
-        <v>2.674803313302133</v>
+        <v>16.35179149786781</v>
       </c>
       <c r="F181">
-        <v>12.40966753428052</v>
+        <v>6.672777627902899</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2.987845394509386</v>
+        <v>9.848784664107262</v>
       </c>
       <c r="C182">
-        <v>3.024786901698677</v>
+        <v>2.763859770417659</v>
       </c>
       <c r="D182">
-        <v>6.718403307677697</v>
+        <v>6.942501569925107</v>
       </c>
       <c r="E182">
-        <v>2.678851608031649</v>
+        <v>16.35767191812806</v>
       </c>
       <c r="F182">
-        <v>12.46580146114041</v>
+        <v>6.698571911998554</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2.997821793240174</v>
+        <v>9.854865411223034</v>
       </c>
       <c r="C183">
-        <v>3.030538828841445</v>
+        <v>2.768443619500707</v>
       </c>
       <c r="D183">
-        <v>6.732603322566616</v>
+        <v>6.985081452234162</v>
       </c>
       <c r="E183">
-        <v>2.682894555310975</v>
+        <v>16.36345401774984</v>
       </c>
       <c r="F183">
-        <v>12.52184599853465</v>
+        <v>6.724362002538333</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3.007870514883701</v>
+        <v>9.86083170370876</v>
       </c>
       <c r="C184">
-        <v>3.036279052949759</v>
+        <v>2.773026538291143</v>
       </c>
       <c r="D184">
-        <v>6.746704582042889</v>
+        <v>7.027614869300032</v>
       </c>
       <c r="E184">
-        <v>2.686932048155468</v>
+        <v>16.36913989886293</v>
       </c>
       <c r="F184">
-        <v>12.57780073898266</v>
+        <v>6.750147863621077</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3.017992047912472</v>
+        <v>9.866685708869928</v>
       </c>
       <c r="C185">
-        <v>3.042007426211476</v>
+        <v>2.777608559430692</v>
       </c>
       <c r="D185">
-        <v>6.760707464207795</v>
+        <v>7.070100004753215</v>
       </c>
       <c r="E185">
-        <v>2.690963980477529</v>
+        <v>16.3747316062615</v>
       </c>
       <c r="F185">
-        <v>12.63366528389302</v>
+        <v>6.775929459453452</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3.028186878085982</v>
+        <v>9.87242955152391</v>
       </c>
       <c r="C186">
-        <v>3.047723801879499</v>
+        <v>2.782189719909819</v>
       </c>
       <c r="D186">
-        <v>6.774612344795804</v>
+        <v>7.112535108217511</v>
       </c>
       <c r="E186">
-        <v>2.694990247085014</v>
+        <v>16.38023108844874</v>
       </c>
       <c r="F186">
-        <v>12.68943924344876</v>
+        <v>6.801706754352002</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3.038455488087619</v>
+        <v>9.878065318358393</v>
       </c>
       <c r="C187">
-        <v>3.05342803426014</v>
+        <v>2.786770059931268</v>
       </c>
       <c r="D187">
-        <v>6.788419597193971</v>
+        <v>7.154918480061751</v>
       </c>
       <c r="E187">
-        <v>2.699010743679594</v>
+        <v>16.38564027503654</v>
       </c>
       <c r="F187">
-        <v>12.74512223649299</v>
+        <v>6.827479712747377</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3.048798357151186</v>
+        <v>9.883595056925801</v>
       </c>
       <c r="C188">
-        <v>3.059119978701456</v>
+        <v>2.791349623834848</v>
       </c>
       <c r="D188">
-        <v>6.802129592461061</v>
+        <v>7.197248479689297</v>
       </c>
       <c r="E188">
-        <v>2.703025366854917</v>
+        <v>16.39096104211963</v>
       </c>
       <c r="F188">
-        <v>12.80071389041665</v>
+        <v>6.853248299180634</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3.059215960677045</v>
+        <v>9.88902077615316</v>
       </c>
       <c r="C189">
-        <v>3.064799491581555</v>
+        <v>2.795928459919926</v>
       </c>
       <c r="D189">
-        <v>6.815742699346383</v>
+        <v>7.23952352501358</v>
       </c>
       <c r="E189">
-        <v>2.707034014094734</v>
+        <v>16.39619520787571</v>
       </c>
       <c r="F189">
-        <v>12.8562138410478</v>
+        <v>6.879012478303264</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3.069708769837968</v>
+        <v>9.89434444512718</v>
       </c>
       <c r="C190">
-        <v>3.070466430296897</v>
+        <v>2.800506620490158</v>
       </c>
       <c r="D190">
-        <v>6.829259284308359</v>
+        <v>7.281742088523734</v>
       </c>
       <c r="E190">
-        <v>2.711036583770917</v>
+        <v>16.40134454097681</v>
       </c>
       <c r="F190">
-        <v>12.9116217325425</v>
+        <v>6.904772214877887</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3.080277251174762</v>
+        <v>9.899567997387756</v>
       </c>
       <c r="C191">
-        <v>3.076120653250567</v>
+        <v>2.805084161902952</v>
       </c>
       <c r="D191">
-        <v>6.842679711532822</v>
+        <v>7.32390268996932</v>
       </c>
       <c r="E191">
-        <v>2.715032975141416</v>
+        <v>16.40641072664074</v>
       </c>
       <c r="F191">
-        <v>12.96693721727794</v>
+        <v>6.930527473783446</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3.090921866181764</v>
+        <v>9.904693329944219</v>
       </c>
       <c r="C192">
-        <v>3.081762019840546</v>
+        <v>2.809661147315821</v>
       </c>
       <c r="D192">
-        <v>6.856004342951054</v>
+        <v>7.366003900863747</v>
       </c>
       <c r="E192">
-        <v>2.719023088348048</v>
+        <v>16.41139543315775</v>
       </c>
       <c r="F192">
-        <v>13.02215995574628</v>
+        <v>6.956278220011129</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3.101643070882342</v>
+        <v>9.909722303714158</v>
       </c>
       <c r="C193">
-        <v>3.087390390447973</v>
+        <v>2.814237640525096</v>
       </c>
       <c r="D193">
-        <v>6.86923353825757</v>
+        <v>7.408044347507845</v>
       </c>
       <c r="E193">
-        <v>2.723006824414236</v>
+        <v>16.4163002837721</v>
       </c>
       <c r="F193">
-        <v>13.07728961645047</v>
+        <v>6.98202441866485</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3.112441315394554</v>
+        <v>9.914656742282933</v>
       </c>
       <c r="C194">
-        <v>3.093005626425409</v>
+        <v>2.818813710923291</v>
       </c>
       <c r="D194">
-        <v>6.882367654927648</v>
+        <v>7.450022698611323</v>
       </c>
       <c r="E194">
-        <v>2.726984085242667</v>
+        <v>16.42112685126864</v>
       </c>
       <c r="F194">
-        <v>13.1323258758011</v>
+        <v>7.007766034960871</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3.12331704348713</v>
+        <v>9.919498436139303</v>
       </c>
       <c r="C195">
-        <v>3.098607590085097</v>
+        <v>2.823389432225811</v>
       </c>
       <c r="D195">
-        <v>6.895407048234624</v>
+        <v>7.491937668546452</v>
       </c>
       <c r="E195">
-        <v>2.73095477361287</v>
+        <v>16.42587666571957</v>
       </c>
       <c r="F195">
-        <v>13.18726841801554</v>
+        <v>7.033503034233716</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3.134270692125995</v>
+        <v>9.924249141710261</v>
       </c>
       <c r="C196">
-        <v>3.104196144687234</v>
+        <v>2.827964882520361</v>
       </c>
       <c r="D196">
-        <v>6.90835207126693</v>
+        <v>7.533788017145921</v>
       </c>
       <c r="E196">
-        <v>2.734918793178683</v>
+        <v>16.43055118497658</v>
       </c>
       <c r="F196">
-        <v>13.24211693501837</v>
+        <v>7.059235381931813</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3.145302691011565</v>
+        <v>9.928910581727539</v>
       </c>
       <c r="C197">
-        <v>3.109771154428252</v>
+        <v>2.832540144316371</v>
       </c>
       <c r="D197">
-        <v>6.92120307494492</v>
+        <v>7.575572553859504</v>
       </c>
       <c r="E197">
-        <v>2.738876048465631</v>
+        <v>16.43515185166981</v>
       </c>
       <c r="F197">
-        <v>13.29687112634408</v>
+        <v>7.084963043618325</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3.156413462107074</v>
+        <v>9.933484443989334</v>
       </c>
       <c r="C198">
-        <v>3.115332484429108</v>
+        <v>2.837115309388285</v>
       </c>
       <c r="D198">
-        <v>6.933960408037448</v>
+        <v>7.617290121865349</v>
       </c>
       <c r="E198">
-        <v>2.742826444868255</v>
+        <v>16.43968007060593</v>
       </c>
       <c r="F198">
-        <v>13.35153069903493</v>
+        <v>7.110685984969887</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3.167603419158228</v>
+        <v>9.937972385493032</v>
       </c>
       <c r="C199">
-        <v>3.120880000723598</v>
+        <v>2.841690468296881</v>
       </c>
       <c r="D199">
-        <v>6.946624417178238</v>
+        <v>7.658939607057008</v>
       </c>
       <c r="E199">
-        <v>2.746769888647352</v>
+        <v>16.4441372026523</v>
       </c>
       <c r="F199">
-        <v>13.40609536755381</v>
+        <v>7.136404171783128</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>3.178872967204518</v>
+        <v>9.942376031509079</v>
       </c>
       <c r="C200">
-        <v>3.126413570246685</v>
+        <v>2.846265718003477</v>
       </c>
       <c r="D200">
-        <v>6.959195446882013</v>
+        <v>7.700519937129895</v>
       </c>
       <c r="E200">
-        <v>2.750706286927151</v>
+        <v>16.44852457184291</v>
       </c>
       <c r="F200">
-        <v>13.46056485367615</v>
+        <v>7.162117569970052</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>3.190222502082528</v>
+        <v>9.946696975878908</v>
       </c>
       <c r="C201">
-        <v>3.13193306082286</v>
+        <v>2.850841160566914</v>
       </c>
       <c r="D201">
-        <v>6.971673839560437</v>
+        <v>7.742030080625797</v>
       </c>
       <c r="E201">
-        <v>2.754635547692363</v>
+        <v>16.45284343989262</v>
       </c>
       <c r="F201">
-        <v>13.51493888641498</v>
+        <v>7.187826145559156</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3.201652409921662</v>
+        <v>9.95093677981599</v>
       </c>
       <c r="C202">
-        <v>3.137438341154517</v>
+        <v>2.855416902924773</v>
       </c>
       <c r="D202">
-        <v>6.984059935537826</v>
+        <v>7.783469036989837</v>
       </c>
       <c r="E202">
-        <v>2.75855757978521</v>
+        <v>16.4570950547099</v>
       </c>
       <c r="F202">
-        <v>13.56921720191023</v>
+        <v>7.213529864693461</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>3.213163066632672</v>
+        <v>9.955096975871339</v>
       </c>
       <c r="C203">
-        <v>3.142929280810375</v>
+        <v>2.859993056956285</v>
       </c>
       <c r="D203">
-        <v>6.99635407306666</v>
+        <v>7.824835843138742</v>
       </c>
       <c r="E203">
-        <v>2.762472292902369</v>
+        <v>16.46128063251076</v>
       </c>
       <c r="F203">
-        <v>13.62339954335719</v>
+        <v>7.239228693637467</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3.224754837389479</v>
+        <v>9.959179067074453</v>
       </c>
       <c r="C204">
-        <v>3.148405750213917</v>
+        <v>2.864569744878247</v>
       </c>
       <c r="D204">
-        <v>7.008556588342894</v>
+        <v>7.866129575928024</v>
       </c>
       <c r="E204">
-        <v>2.766379597591877</v>
+        <v>16.46540135128761</v>
       </c>
       <c r="F204">
-        <v>13.67748566090178</v>
+        <v>7.264922598772365</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>3.236428076104754</v>
+        <v>9.963184527170601</v>
       </c>
       <c r="C205">
-        <v>3.153867620631878</v>
+        <v>2.869147088330046</v>
       </c>
       <c r="D205">
-        <v>7.020667815521077</v>
+        <v>7.907349342811443</v>
       </c>
       <c r="E205">
-        <v>2.77027940524989</v>
+        <v>16.4694583572848</v>
       </c>
       <c r="F205">
-        <v>13.73147531156396</v>
+        <v>7.290611546597381</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>3.248183124899799</v>
+        <v>9.967114799469552</v>
       </c>
       <c r="C206">
-        <v>3.159314764162772</v>
+        <v>2.873725215133892</v>
       </c>
       <c r="D206">
-        <v>7.03268808672927</v>
+        <v>7.948494281962943</v>
       </c>
       <c r="E206">
-        <v>2.774171628117449</v>
+        <v>16.47345274309084</v>
       </c>
       <c r="F206">
-        <v>13.78536825914352</v>
+        <v>7.31629550372725</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3.260020313569282</v>
+        <v>9.97097130062537</v>
       </c>
       <c r="C207">
-        <v>3.16474705372545</v>
+        <v>2.878304259244665</v>
       </c>
       <c r="D207">
-        <v>7.044617732083781</v>
+        <v>7.98956356402638</v>
       </c>
       <c r="E207">
-        <v>2.778056179277155</v>
+        <v>16.47738558871567</v>
       </c>
       <c r="F207">
-        <v>13.83916427413746</v>
+        <v>7.341974436899429</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.271939959041431</v>
+        <v>9.974755419851316</v>
       </c>
       <c r="C208">
-        <v>3.170164363047717</v>
+        <v>2.882884360135843</v>
       </c>
       <c r="D208">
-        <v>7.056457079703714</v>
+        <v>8.030556397251935</v>
       </c>
       <c r="E208">
-        <v>2.781932972649823</v>
+        <v>16.48125794766402</v>
       </c>
       <c r="F208">
-        <v>13.89286313365594</v>
+        <v>7.367648312969235</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3.283942364834298</v>
+        <v>9.978468519101801</v>
       </c>
       <c r="C209">
-        <v>3.175566566654989</v>
+        <v>2.887465662879902</v>
       </c>
       <c r="D209">
-        <v>7.068206455725337</v>
+        <v>8.071472011500514</v>
       </c>
       <c r="E209">
-        <v>2.785801922990994</v>
+        <v>16.48507084021848</v>
       </c>
       <c r="F209">
-        <v>13.94646462133503</v>
+        <v>7.393317098911357</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>3.296027820508789</v>
+        <v>9.982111931963221</v>
       </c>
       <c r="C210">
-        <v>3.180953539859005</v>
+        <v>2.892048323366079</v>
       </c>
       <c r="D210">
-        <v>7.079866184316279</v>
+        <v>8.112309667643148</v>
       </c>
       <c r="E210">
-        <v>2.789662945887465</v>
+        <v>16.4888252593095</v>
       </c>
       <c r="F210">
-        <v>13.99996852726201</v>
+        <v>7.418980761816941</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3.308196601119133</v>
+        <v>9.985686967257601</v>
       </c>
       <c r="C211">
-        <v>3.186325158746592</v>
+        <v>2.896632498670099</v>
       </c>
       <c r="D211">
-        <v>7.091436587689543</v>
+        <v>8.15306865576386</v>
       </c>
       <c r="E211">
-        <v>2.793515957753726</v>
+        <v>16.49252215170722</v>
       </c>
       <c r="F211">
-        <v>14.05337464788361</v>
+        <v>7.44463926890085</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3.32044896666155</v>
+        <v>9.989194908326144</v>
       </c>
       <c r="C212">
-        <v>3.191681300168485</v>
+        <v>2.901218351576235</v>
       </c>
       <c r="D212">
-        <v>7.102917986117363</v>
+        <v>8.193748296338402</v>
       </c>
       <c r="E212">
-        <v>2.797360875828383</v>
+        <v>16.49616245273317</v>
       </c>
       <c r="F212">
-        <v>14.1066827859401</v>
+        <v>7.470292587496856</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>3.332785161521868</v>
+        <v>9.992637013158403</v>
       </c>
       <c r="C213">
-        <v>3.197021841728195</v>
+        <v>2.905806052162136</v>
       </c>
       <c r="D213">
-        <v>7.114310697944889</v>
+        <v>8.234347930548513</v>
       </c>
       <c r="E213">
-        <v>2.80119761817047</v>
+        <v>16.49974707558494</v>
       </c>
       <c r="F213">
-        <v>14.15989275036992</v>
+        <v>7.495940685059248</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3.345205413922907</v>
+        <v>9.996014513321478</v>
       </c>
       <c r="C214">
-        <v>3.202346661770948</v>
+        <v>2.910395776790278</v>
       </c>
       <c r="D214">
-        <v>7.125615039603706</v>
+        <v>8.27486692650211</v>
       </c>
       <c r="E214">
-        <v>2.805026103655746</v>
+        <v>16.50327690459415</v>
       </c>
       <c r="F214">
-        <v>14.21300435624923</v>
+        <v>7.521583529159656</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>3.357709935372453</v>
+        <v>9.999328617397325</v>
       </c>
       <c r="C215">
-        <v>3.20765563937267</v>
+        <v>2.914987708207377</v>
       </c>
       <c r="D215">
-        <v>7.136831325625203</v>
+        <v>8.315304680033863</v>
       </c>
       <c r="E215">
-        <v>2.808846251972949</v>
+        <v>16.50675280053384</v>
       </c>
       <c r="F215">
-        <v>14.26601742469805</v>
+        <v>7.547221087494218</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>3.370298920112703</v>
+        <v>10.00258051032969</v>
       </c>
       <c r="C216">
-        <v>3.212948654329081</v>
+        <v>2.91958204106268</v>
       </c>
       <c r="D216">
-        <v>7.147959868653786</v>
+        <v>8.355660610109977</v>
       </c>
       <c r="E216">
-        <v>2.812657983619998</v>
+        <v>16.51017558303736</v>
       </c>
       <c r="F216">
-        <v>14.31893178282042</v>
+        <v>7.572853327878919</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>3.382972544572063</v>
+        <v>10.00577135350271</v>
       </c>
       <c r="C217">
-        <v>3.218225587144821</v>
+        <v>2.924178972879347</v>
       </c>
       <c r="D217">
-        <v>7.15900097945993</v>
+        <v>8.395934156337832</v>
       </c>
       <c r="E217">
-        <v>2.816461219900138</v>
+        <v>16.51354606227127</v>
       </c>
       <c r="F217">
-        <v>14.37174726361419</v>
+        <v>7.59848021825108</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>3.395730966820234</v>
+        <v>10.00890228371322</v>
       </c>
       <c r="C218">
-        <v>3.223486319022641</v>
+        <v>2.928778706249096</v>
       </c>
       <c r="D218">
-        <v>7.1699549669531</v>
+        <v>8.436124781446489</v>
       </c>
       <c r="E218">
-        <v>2.820255882918044</v>
+        <v>16.51686503014794</v>
       </c>
       <c r="F218">
-        <v>14.42446370591174</v>
+        <v>7.624101726666731</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3.408574326027537</v>
+        <v>10.01197441643819</v>
       </c>
       <c r="C219">
-        <v>3.228730731852674</v>
+        <v>2.933381452596043</v>
       </c>
       <c r="D219">
-        <v>7.180822138194506</v>
+        <v>8.47623197504991</v>
       </c>
       <c r="E219">
-        <v>2.824041895575893</v>
+        <v>16.52013325303323</v>
       </c>
       <c r="F219">
-        <v>14.47708095429303</v>
+        <v>7.649717821306189</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3.421502741929451</v>
+        <v>10.01498884524521</v>
       </c>
       <c r="C220">
-        <v>3.233958708201777</v>
+        <v>2.937987430565332</v>
       </c>
       <c r="D220">
-        <v>7.191602798409735</v>
+        <v>8.516255242393326</v>
       </c>
       <c r="E220">
-        <v>2.827819181569398</v>
+        <v>16.52335147685504</v>
       </c>
       <c r="F220">
-        <v>14.5295988590269</v>
+        <v>7.675328470471006</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3.434516314297372</v>
+        <v>10.01794664182455</v>
       </c>
       <c r="C221">
-        <v>3.239170131302938</v>
+        <v>2.942596866145434</v>
       </c>
       <c r="D221">
-        <v>7.202297251001233</v>
+        <v>8.556194110254781</v>
       </c>
       <c r="E221">
-        <v>2.831587665383801</v>
+        <v>16.52652041810818</v>
       </c>
       <c r="F221">
-        <v>14.58201727598757</v>
+        <v>7.70093364258461</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>3.447615122416601</v>
+        <v>10.02084885501148</v>
       </c>
       <c r="C222">
-        <v>3.244364885044786</v>
+        <v>2.94720999911557</v>
       </c>
       <c r="D222">
-        <v>7.212905797560653</v>
+        <v>8.596048125923195</v>
       </c>
       <c r="E222">
-        <v>2.835347272289805</v>
+        <v>16.52964078065783</v>
       </c>
       <c r="F222">
-        <v>14.63433606659582</v>
+        <v>7.726533306190301</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>3.460799224572629</v>
+        <v>10.02369651387561</v>
       </c>
       <c r="C223">
-        <v>3.249542853961162</v>
+        <v>2.951827074141616</v>
       </c>
       <c r="D223">
-        <v>7.223428737881076</v>
+        <v>8.635816859239339</v>
       </c>
       <c r="E223">
-        <v>2.839097928339506</v>
+        <v>16.53271325207318</v>
       </c>
       <c r="F223">
-        <v>14.68655509773958</v>
+        <v>7.752127429955483</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>3.474068657546739</v>
+        <v>10.02649062719653</v>
       </c>
       <c r="C224">
-        <v>3.254703923220759</v>
+        <v>2.956448339564075</v>
       </c>
       <c r="D224">
-        <v>7.23386636996909</v>
+        <v>8.675499893967087</v>
       </c>
       <c r="E224">
-        <v>2.842839560362276</v>
+        <v>16.53573849957131</v>
       </c>
       <c r="F224">
-        <v>14.73867424171413</v>
+        <v>7.777715982669938</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>3.487423436122034</v>
+        <v>10.02923218345476</v>
       </c>
       <c r="C225">
-        <v>3.259847978616864</v>
+        <v>2.961074054828253</v>
       </c>
       <c r="D225">
-        <v>7.244218990056759</v>
+        <v>8.715096833215481</v>
       </c>
       <c r="E225">
-        <v>2.846572095960622</v>
+        <v>16.53871717318049</v>
       </c>
       <c r="F225">
-        <v>14.79069337614743</v>
+        <v>7.803298933245782</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>3.500863552600943</v>
+        <v>10.03192214990734</v>
       </c>
       <c r="C226">
-        <v>3.264974906557163</v>
+        <v>2.96570448779007</v>
       </c>
       <c r="D226">
-        <v>7.25448689261345</v>
+        <v>8.754607299384981</v>
       </c>
       <c r="E226">
-        <v>2.850295463505991</v>
+        <v>16.54164988895514</v>
       </c>
       <c r="F226">
-        <v>14.84261238393892</v>
+        <v>7.828876250715975</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>3.514388976335311</v>
+        <v>10.03456147549606</v>
       </c>
       <c r="C227">
-        <v>3.270084594053635</v>
+        <v>2.970339914869222</v>
       </c>
       <c r="D227">
-        <v>7.264670370357551</v>
+        <v>8.794030932332985</v>
       </c>
       <c r="E227">
-        <v>2.85400959213457</v>
+        <v>16.54453725762575</v>
       </c>
       <c r="F227">
-        <v>14.89443115318974</v>
+        <v>7.854447904237423</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3.527999653270182</v>
+        <v>10.03715109038779</v>
       </c>
       <c r="C228">
-        <v>3.27517692871255</v>
+        <v>2.974980628571827</v>
       </c>
       <c r="D228">
-        <v>7.274769714268064</v>
+        <v>8.833367385834043</v>
       </c>
       <c r="E228">
-        <v>2.857714411743054</v>
+        <v>16.5473798785426</v>
       </c>
       <c r="F228">
-        <v>14.94614957713974</v>
+        <v>7.880013863090327</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3.541695505502282</v>
+        <v>10.03969190592923</v>
       </c>
       <c r="C229">
-        <v>3.280251798724531</v>
+        <v>2.979626929571269</v>
       </c>
       <c r="D229">
-        <v>7.284785213596086</v>
+        <v>8.872616330344494</v>
       </c>
       <c r="E229">
-        <v>2.861409852984393</v>
+        <v>16.55017833075187</v>
       </c>
       <c r="F229">
-        <v>14.99776755410304</v>
+        <v>7.905574096677603</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3.555476430854476</v>
+        <v>10.04218481377513</v>
       </c>
       <c r="C230">
-        <v>3.285309092854714</v>
+        <v>2.984279119635604</v>
       </c>
       <c r="D230">
-        <v>7.294717155876169</v>
+        <v>8.911777454873693</v>
       </c>
       <c r="E230">
-        <v>2.865095847263492</v>
+        <v>16.55293317813277</v>
       </c>
       <c r="F230">
-        <v>15.04928498740266</v>
+        <v>7.931128574523818</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>3.569342302467048</v>
+        <v>10.0446306886194</v>
       </c>
       <c r="C231">
-        <v>3.290348700432994</v>
+        <v>2.988937514839829</v>
       </c>
       <c r="D231">
-        <v>7.304565826937583</v>
+        <v>8.950850460807933</v>
       </c>
       <c r="E231">
-        <v>2.868772326732909</v>
+        <v>16.55564496096404</v>
       </c>
       <c r="F231">
-        <v>15.10070178531183</v>
+        <v>7.956677266277325</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3.583292968407038</v>
+        <v>10.04703038779701</v>
       </c>
       <c r="C232">
-        <v>3.295370511344359</v>
+        <v>2.993602441209109</v>
       </c>
       <c r="D232">
-        <v>7.314331510915454</v>
+        <v>8.98983506399674</v>
       </c>
       <c r="E232">
-        <v>2.872439224288529</v>
+        <v>16.55831421064072</v>
       </c>
       <c r="F232">
-        <v>15.15201786098577</v>
+        <v>7.982220141710507</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3.597328251296741</v>
+        <v>10.04938475120646</v>
       </c>
       <c r="C233">
-        <v>3.300374416019316</v>
+        <v>2.998274234914183</v>
       </c>
       <c r="D233">
-        <v>7.324014490261802</v>
+        <v>9.028730994862588</v>
       </c>
       <c r="E233">
-        <v>2.876096473565224</v>
+        <v>16.56094144743132</v>
       </c>
       <c r="F233">
-        <v>15.20323313240908</v>
+        <v>8.007757170718754</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3.611447947962315</v>
+        <v>10.0516946004889</v>
       </c>
       <c r="C234">
-        <v>3.305360305424427</v>
+        <v>3.002953247365427</v>
       </c>
       <c r="D234">
-        <v>7.333615045756487</v>
+        <v>9.067538000346527</v>
       </c>
       <c r="E234">
-        <v>2.879744008932473</v>
+        <v>16.56352717559886</v>
       </c>
       <c r="F234">
-        <v>15.25434752232465</v>
+        <v>8.033288323319761</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>3.625651829103515</v>
+        <v>10.05396074158878</v>
       </c>
       <c r="C235">
-        <v>3.310328071052912</v>
+        <v>3.007639844177527</v>
       </c>
       <c r="D235">
-        <v>7.343133456518033</v>
+        <v>9.106255837118347</v>
       </c>
       <c r="E235">
-        <v>2.883381765489985</v>
+        <v>16.56607188641178</v>
       </c>
       <c r="F235">
-        <v>15.30536095818559</v>
+        <v>8.05881356965485</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>3.639939638985577</v>
+        <v>10.0561839644132</v>
       </c>
       <c r="C236">
-        <v>3.315277604915363</v>
+        <v>3.012334394165167</v>
       </c>
       <c r="D236">
-        <v>7.352570000014369</v>
+        <v>9.144884275711037</v>
       </c>
       <c r="E236">
-        <v>2.8870096790633</v>
+        <v>16.56857604859032</v>
       </c>
       <c r="F236">
-        <v>15.35627337208448</v>
+        <v>8.08433287998994</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>3.654311095154257</v>
+        <v>10.05836504272558</v>
       </c>
       <c r="C237">
-        <v>3.320208799530552</v>
+        <v>3.017037281932809</v>
       </c>
       <c r="D237">
-        <v>7.361924952073424</v>
+        <v>9.183423100082692</v>
       </c>
       <c r="E237">
-        <v>2.890627686199386</v>
+        <v>16.57104012422558</v>
       </c>
       <c r="F237">
-        <v>15.40708470070646</v>
+        <v>8.109846224714163</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3.668765888174941</v>
+        <v>10.06050473337481</v>
       </c>
       <c r="C238">
-        <v>3.325121547916319</v>
+        <v>3.021748904472274</v>
       </c>
       <c r="D238">
-        <v>7.371198586893768</v>
+        <v>9.221872107301191</v>
       </c>
       <c r="E238">
-        <v>2.894235724162202</v>
+        <v>16.57346456688136</v>
       </c>
       <c r="F238">
-        <v>15.45779488526059</v>
+        <v>8.135353574339462</v>
       </c>
     </row>
   </sheetData>

--- a/sriramModel-nelson-atypical-patientID_1-sims-gr-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-gr-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.103237016452786</v>
+        <v>2.052330342654279</v>
       </c>
       <c r="C2">
-        <v>2.003054142349444</v>
+        <v>2.040304481281253</v>
       </c>
       <c r="D2">
-        <v>2.007164446642568</v>
+        <v>2.140706682006409</v>
       </c>
       <c r="E2">
-        <v>2.308187985133958</v>
+        <v>2.244984377721364</v>
       </c>
       <c r="F2">
-        <v>2.025913343357785</v>
+        <v>2.206563472809186</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.205174650803865</v>
+        <v>2.104359745800341</v>
       </c>
       <c r="C3">
-        <v>2.006132387166962</v>
+        <v>2.081235347396409</v>
       </c>
       <c r="D3">
-        <v>2.01442751397942</v>
+        <v>2.28105510369152</v>
       </c>
       <c r="E3">
-        <v>2.609679565485379</v>
+        <v>2.487182783000834</v>
       </c>
       <c r="F3">
-        <v>2.051829457440385</v>
+        <v>2.413158638133921</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.305845608895224</v>
+        <v>2.156088460813826</v>
       </c>
       <c r="C4">
-        <v>2.009234519342856</v>
+        <v>2.12270267059581</v>
       </c>
       <c r="D4">
-        <v>2.021790927843802</v>
+        <v>2.421037042379062</v>
       </c>
       <c r="E4">
-        <v>2.904715356287958</v>
+        <v>2.726477460196741</v>
       </c>
       <c r="F4">
-        <v>2.077748296661224</v>
+        <v>2.619588792353062</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.405290975313128</v>
+        <v>2.207516810728014</v>
       </c>
       <c r="C5">
-        <v>2.01236031747531</v>
+        <v>2.16462364537013</v>
       </c>
       <c r="D5">
-        <v>2.02925651643442</v>
+        <v>2.560616005545922</v>
       </c>
       <c r="E5">
-        <v>3.193581983236001</v>
+        <v>2.962799155419747</v>
       </c>
       <c r="F5">
-        <v>2.103669816679691</v>
+        <v>2.825648673450867</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.503562467641389</v>
+        <v>2.258645176738084</v>
       </c>
       <c r="C6">
-        <v>2.015509564496464</v>
+        <v>2.206923531075476</v>
       </c>
       <c r="D6">
-        <v>2.036826134024152</v>
+        <v>2.6997329454741</v>
       </c>
       <c r="E6">
-        <v>3.476618067442646</v>
+        <v>3.19611170306815</v>
       </c>
       <c r="F6">
-        <v>2.129593974278686</v>
+        <v>3.031135981510053</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.60072504105278</v>
+        <v>2.309473991579484</v>
       </c>
       <c r="C7">
-        <v>2.018682044796537</v>
+        <v>2.249535959625493</v>
       </c>
       <c r="D7">
-        <v>2.044501666126469</v>
+        <v>2.838312101876053</v>
       </c>
       <c r="E7">
-        <v>3.754213539542664</v>
+        <v>3.426401094576422</v>
       </c>
       <c r="F7">
-        <v>2.155520727246037</v>
+        <v>3.235859033897882</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.696859735593388</v>
+        <v>2.360003733308557</v>
       </c>
       <c r="C8">
-        <v>2.021877543950305</v>
+        <v>2.292402752115716</v>
       </c>
       <c r="D8">
-        <v>2.05228504152337</v>
+        <v>2.976267047736019</v>
       </c>
       <c r="E8">
-        <v>4.02679895604153</v>
+        <v>3.65366740144637</v>
       </c>
       <c r="F8">
-        <v>2.181450034285743</v>
+        <v>3.439641331849306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.792066356614364</v>
+        <v>2.410234918516891</v>
       </c>
       <c r="C9">
-        <v>2.0250958488943</v>
+        <v>2.335473430545149</v>
       </c>
       <c r="D9">
-        <v>2.060178235714474</v>
+        <v>3.113505970974137</v>
       </c>
       <c r="E9">
-        <v>4.294822912499385</v>
+        <v>3.877920271547803</v>
       </c>
       <c r="F9">
-        <v>2.207381854949249</v>
+        <v>3.642323805435905</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.88646555994911</v>
+        <v>2.460168095755553</v>
       </c>
       <c r="C10">
-        <v>2.028336747842717</v>
+        <v>2.378704543151109</v>
       </c>
       <c r="D10">
-        <v>2.068183269059736</v>
+        <v>3.249936037915932</v>
       </c>
       <c r="E10">
-        <v>4.558718637452344</v>
+        <v>4.099175664140907</v>
       </c>
       <c r="F10">
-        <v>2.233316149569462</v>
+        <v>3.843765428244139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.980199827081767</v>
+        <v>2.509803839153764</v>
       </c>
       <c r="C11">
-        <v>2.031600030266122</v>
+        <v>2.42205891204288</v>
       </c>
       <c r="D11">
-        <v>2.076302207836274</v>
+        <v>3.385466795341212</v>
       </c>
       <c r="E11">
-        <v>4.81886494787876</v>
+        <v>4.317453564743582</v>
       </c>
       <c r="F11">
-        <v>2.259252879175794</v>
+        <v>4.043842774894364</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.073432583892065</v>
+        <v>2.559142742267044</v>
       </c>
       <c r="C12">
-        <v>2.034885486798394</v>
+        <v>2.465504859974453</v>
       </c>
       <c r="D12">
-        <v>2.084537164489169</v>
+        <v>3.520012576951745</v>
       </c>
       <c r="E12">
-        <v>5.075550317486644</v>
+        <v>4.53277693887779</v>
       </c>
       <c r="F12">
-        <v>2.285192005425275</v>
+        <v>4.242448948452148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.166344520037633</v>
+        <v>2.608185412703315</v>
       </c>
       <c r="C13">
-        <v>2.038192909141636</v>
+        <v>2.509015482910981</v>
       </c>
       <c r="D13">
-        <v>2.09289029943999</v>
+        <v>3.653494066217525</v>
       </c>
       <c r="E13">
-        <v>5.328949549789762</v>
+        <v>4.745170725131896</v>
       </c>
       <c r="F13">
-        <v>2.311133490542518</v>
+        <v>4.439492187172571</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.25912640971928</v>
+        <v>2.656932467062939</v>
       </c>
       <c r="C14">
-        <v>2.041522090092307</v>
+        <v>2.552567973447203</v>
       </c>
       <c r="D14">
-        <v>2.101363821487334</v>
+        <v>3.785839174655553</v>
       </c>
       <c r="E14">
-        <v>5.579119225996603</v>
+        <v>4.954661078817256</v>
       </c>
       <c r="F14">
-        <v>2.337077297264459</v>
+        <v>4.634894349988747</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.351968444080093</v>
+        <v>2.705384526578195</v>
       </c>
       <c r="C15">
-        <v>2.044872823439465</v>
+        <v>2.596143018536132</v>
       </c>
       <c r="D15">
-        <v>2.109959989052983</v>
+        <v>3.916983371522957</v>
       </c>
       <c r="E15">
-        <v>5.826011854906837</v>
+        <v>5.161275066065814</v>
       </c>
       <c r="F15">
-        <v>2.363023388787044</v>
+        <v>4.828589407317445</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.445044911798722</v>
+        <v>2.753542213571649</v>
       </c>
       <c r="C16">
-        <v>2.048244903929322</v>
+        <v>2.639724265655262</v>
       </c>
       <c r="D16">
-        <v>2.118681111520671</v>
+        <v>4.046869683509063</v>
       </c>
       <c r="E16">
-        <v>6.069503190908106</v>
+        <v>5.365040480130129</v>
       </c>
       <c r="F16">
-        <v>2.388971728705824</v>
+        <v>5.020522009898396</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.53849829045245</v>
+        <v>2.801406148675719</v>
       </c>
       <c r="C17">
-        <v>2.05163812724158</v>
+        <v>2.683297865342635</v>
       </c>
       <c r="D17">
-        <v>2.127529550066422</v>
+        <v>4.175448422508929</v>
       </c>
       <c r="E17">
-        <v>6.309424182633332</v>
+        <v>5.565985497380272</v>
       </c>
       <c r="F17">
-        <v>2.414922280961359</v>
+        <v>5.210646173626696</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.632423382322429</v>
+        <v>2.84897694889338</v>
       </c>
       <c r="C18">
-        <v>2.055052289970451</v>
+        <v>2.726852076704186</v>
       </c>
       <c r="D18">
-        <v>2.13650771827831</v>
+        <v>4.302676722416128</v>
       </c>
       <c r="E18">
-        <v>6.545590318135962</v>
+        <v>5.764138547546506</v>
       </c>
       <c r="F18">
-        <v>2.440875009885343</v>
+        <v>5.398924096029924</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.726855548805002</v>
+        <v>2.896255226481134</v>
       </c>
       <c r="C19">
-        <v>2.058487189529156</v>
+        <v>2.770376934346265</v>
       </c>
       <c r="D19">
-        <v>2.145618083476011</v>
+        <v>4.428518019599643</v>
       </c>
       <c r="E19">
-        <v>6.777824073873382</v>
+        <v>5.959528261543943</v>
       </c>
       <c r="F19">
-        <v>2.466829880036359</v>
+        <v>5.585325103541225</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.821766197004168</v>
+        <v>2.943241588613666</v>
       </c>
       <c r="C20">
-        <v>2.06194262406192</v>
+        <v>2.813863964780911</v>
       </c>
       <c r="D20">
-        <v>2.154863166711166</v>
+        <v>4.552941505719946</v>
       </c>
       <c r="E20">
-        <v>7.005969349283155</v>
+        <v>6.152183374980887</v>
       </c>
       <c r="F20">
-        <v>2.492786856215673</v>
+        <v>5.769824728712439</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.917066243381087</v>
+        <v>2.989936637787484</v>
       </c>
       <c r="C21">
-        <v>2.06541839262756</v>
+        <v>2.857305949741983</v>
       </c>
       <c r="D21">
-        <v>2.164245545112744</v>
+        <v>4.675921571146799</v>
       </c>
       <c r="E21">
-        <v>7.229898851932698</v>
+        <v>6.342132665937061</v>
       </c>
       <c r="F21">
-        <v>2.518745903407444</v>
+        <v>5.952403903144852</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.012618005801227</v>
+        <v>3.036340972915798</v>
       </c>
       <c r="C22">
-        <v>2.068914294983811</v>
+        <v>2.900696726020379</v>
       </c>
       <c r="D22">
-        <v>2.173767850177704</v>
+        <v>4.797437264595141</v>
       </c>
       <c r="E22">
-        <v>7.449516307564878</v>
+        <v>6.529404917464812</v>
       </c>
       <c r="F22">
-        <v>2.544706986762634</v>
+        <v>6.133048254104184</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.10825152501546</v>
+        <v>3.082455190915786</v>
       </c>
       <c r="C23">
-        <v>2.072430131388588</v>
+        <v>2.944031018834351</v>
       </c>
       <c r="D23">
-        <v>2.183432772799377</v>
+        <v>4.91747178496569</v>
       </c>
       <c r="E23">
-        <v>7.664755366769544</v>
+        <v>6.714028881962088</v>
       </c>
       <c r="F23">
-        <v>2.57067007159137</v>
+        <v>6.31174749570771</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.203781597471006</v>
+        <v>3.128279888831047</v>
       </c>
       <c r="C24">
-        <v>2.07596570324148</v>
+        <v>2.987304301705817</v>
       </c>
       <c r="D24">
-        <v>2.193243059661512</v>
+        <v>5.036012009825761</v>
       </c>
       <c r="E24">
-        <v>7.875576752302844</v>
+        <v>6.896033262046621</v>
       </c>
       <c r="F24">
-        <v>2.596635123317918</v>
+        <v>6.48849490093815</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.299023177268682</v>
+        <v>3.173815666553659</v>
       </c>
       <c r="C25">
-        <v>2.079520812332684</v>
+        <v>3.030512679622</v>
       </c>
       <c r="D25">
-        <v>2.203201518112363</v>
+        <v>5.15304808424253</v>
       </c>
       <c r="E25">
-        <v>8.081964634817602</v>
+        <v>7.075446694507272</v>
       </c>
       <c r="F25">
-        <v>2.622602107458817</v>
+        <v>6.663286845590824</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.393802676146748</v>
+        <v>3.219063129737427</v>
       </c>
       <c r="C26">
-        <v>2.083095260961983</v>
+        <v>3.073652791092941</v>
       </c>
       <c r="D26">
-        <v>2.213311014333609</v>
+        <v>5.268573047827322</v>
       </c>
       <c r="E26">
-        <v>8.28392289464767</v>
+        <v>7.252297735182847</v>
       </c>
       <c r="F26">
-        <v>2.648570989588676</v>
+        <v>6.836122408579751</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.487964921792417</v>
+        <v>3.264022892970626</v>
       </c>
       <c r="C27">
-        <v>2.086688852115013</v>
+        <v>3.116721726158356</v>
       </c>
       <c r="D27">
-        <v>2.223574474997872</v>
+        <v>5.382582494644518</v>
       </c>
       <c r="E27">
-        <v>8.481471672962908</v>
+        <v>7.426614845013103</v>
       </c>
       <c r="F27">
-        <v>2.674541735321327</v>
+        <v>7.007003030969544</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.581376355863493</v>
+        <v>3.308695583216781</v>
       </c>
       <c r="C28">
-        <v>2.090301389208639</v>
+        <v>3.159716957849095</v>
       </c>
       <c r="D28">
-        <v>2.233994888382036</v>
+        <v>5.495074274432061</v>
       </c>
       <c r="E28">
-        <v>8.674644290270924</v>
+        <v>7.598426378406854</v>
       </c>
       <c r="F28">
-        <v>2.700514310304237</v>
+        <v>7.175932219625908</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.673925458602989</v>
+        <v>3.35308184348437</v>
       </c>
       <c r="C29">
-        <v>2.093932676224123</v>
+        <v>3.202636284424664</v>
       </c>
       <c r="D29">
-        <v>2.244575303427225</v>
+        <v>5.606048227573829</v>
       </c>
       <c r="E29">
-        <v>8.863484620295958</v>
+        <v>7.767760574486935</v>
       </c>
       <c r="F29">
-        <v>2.726488680154306</v>
+        <v>7.342915288757725</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.765521452271019</v>
+        <v>3.397182336632369</v>
       </c>
       <c r="C30">
-        <v>2.097582517686279</v>
+        <v>3.245477781207491</v>
       </c>
       <c r="D30">
-        <v>2.255318832231561</v>
+        <v>5.715505952331468</v>
       </c>
       <c r="E30">
-        <v>9.048044893345512</v>
+        <v>7.934645551745587</v>
       </c>
       <c r="F30">
-        <v>2.752464810479252</v>
+        <v>7.507959133116406</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.856092126872871</v>
+        <v>3.44099774928395</v>
       </c>
       <c r="C31">
-        <v>2.101250718583208</v>
+        <v>3.288239759711121</v>
       </c>
       <c r="D31">
-        <v>2.266228648935642</v>
+        <v>5.823450600974216</v>
       </c>
       <c r="E31">
-        <v>9.228383849864066</v>
+        <v>8.099109303537766</v>
       </c>
       <c r="F31">
-        <v>2.778442666867114</v>
+        <v>7.671072031815121</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.945581145013538</v>
+        <v>3.484528795857201</v>
       </c>
       <c r="C32">
-        <v>2.104937084446483</v>
+        <v>3.330920733561216</v>
       </c>
       <c r="D32">
-        <v>2.277307991435153</v>
+        <v>5.929886697178237</v>
       </c>
       <c r="E32">
-        <v>9.404565274229579</v>
+        <v>8.261179692201928</v>
       </c>
       <c r="F32">
-        <v>2.804422214853068</v>
+        <v>7.832263478554248</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.033945613169064</v>
+        <v>3.52777622271242</v>
       </c>
       <c r="C33">
-        <v>2.108641421223519</v>
+        <v>3.373519389437236</v>
       </c>
       <c r="D33">
-        <v>2.288560160476818</v>
+        <v>6.03481997994022</v>
       </c>
       <c r="E33">
-        <v>9.576656802942415</v>
+        <v>8.420884443816439</v>
       </c>
       <c r="F33">
-        <v>2.830403419927722</v>
+        <v>7.991544033537817</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.121153663365231</v>
+        <v>3.570740812403828</v>
       </c>
       <c r="C34">
-        <v>2.112363535296771</v>
+        <v>3.416034562770641</v>
       </c>
       <c r="D34">
-        <v>2.299988521948904</v>
+        <v>6.138257263017914</v>
       </c>
       <c r="E34">
-        <v>9.744728944040286</v>
+        <v>8.578251143928464</v>
       </c>
       <c r="F34">
-        <v>2.856386247505404</v>
+        <v>8.148925189357618</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.207182507378942</v>
+        <v>3.613423388034338</v>
       </c>
       <c r="C35">
-        <v>2.116103233479605</v>
+        <v>3.458465216962459</v>
       </c>
       <c r="D35">
-        <v>2.311596506634163</v>
+        <v>6.240206311261841</v>
       </c>
       <c r="E35">
-        <v>9.90885426688576</v>
+        <v>8.733307233671265</v>
       </c>
       <c r="F35">
-        <v>2.882370662927044</v>
+        <v>8.304419249309319</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.292016658936283</v>
+        <v>3.655824817731794</v>
       </c>
       <c r="C36">
-        <v>2.119860322957654</v>
+        <v>3.500810425924731</v>
       </c>
       <c r="D36">
-        <v>2.323387606389807</v>
+        <v>6.340675732150853</v>
       </c>
       <c r="E36">
-        <v>10.06910676910713</v>
+        <v>8.886080006349884</v>
       </c>
       <c r="F36">
-        <v>2.908356631435736</v>
+        <v>8.458039232688478</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.375646558745316</v>
+        <v>3.697946019244115</v>
       </c>
       <c r="C37">
-        <v>2.123634611309118</v>
+        <v>3.543069359124484</v>
       </c>
       <c r="D37">
-        <v>2.335365380560649</v>
+        <v>6.439674879998977</v>
       </c>
       <c r="E37">
-        <v>10.22556136170259</v>
+        <v>9.036596604127405</v>
       </c>
       <c r="F37">
-        <v>2.934344118173715</v>
+        <v>8.609798787292224</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.458067384745751</v>
+        <v>3.739787964691879</v>
       </c>
       <c r="C38">
-        <v>2.127425906470668</v>
+        <v>3.585241269050934</v>
       </c>
       <c r="D38">
-        <v>2.347533455167973</v>
+        <v>6.537213771188576</v>
       </c>
       <c r="E38">
-        <v>10.37829345753632</v>
+        <v>9.184884014786009</v>
       </c>
       <c r="F38">
-        <v>2.960333088177463</v>
+        <v>8.759712109634711</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.53927813065374</v>
+        <v>3.781351685461575</v>
       </c>
       <c r="C39">
-        <v>2.131234016737506</v>
+        <v>3.627325480175897</v>
       </c>
       <c r="D39">
-        <v>2.359895516385138</v>
+        <v>6.633303009180024</v>
       </c>
       <c r="E39">
-        <v>10.52737862814601</v>
+        <v>9.330969068520547</v>
       </c>
       <c r="F39">
-        <v>2.986323506362695</v>
+        <v>8.907793873274239</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.619280825696323</v>
+        <v>3.822638277274696</v>
       </c>
       <c r="C40">
-        <v>2.135058750760841</v>
+        <v>3.669321379586046</v>
       </c>
       <c r="D40">
-        <v>2.372455311061039</v>
+        <v>6.727953717348118</v>
       </c>
       <c r="E40">
-        <v>10.67289232438795</v>
+        <v>9.47487843497945</v>
       </c>
       <c r="F40">
-        <v>3.012315337528122</v>
+        <v>9.054059165884087</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.69807994699976</v>
+        <v>3.863648905513958</v>
       </c>
       <c r="C41">
-        <v>2.138899917526169</v>
+        <v>3.711228409285638</v>
       </c>
       <c r="D41">
-        <v>2.385216659173724</v>
+        <v>6.821177479772016</v>
       </c>
       <c r="E41">
-        <v>10.81490963264747</v>
+        <v>9.616638620489455</v>
       </c>
       <c r="F41">
-        <v>3.038308546347437</v>
+        <v>9.198523431946921</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.77568197089276</v>
+        <v>3.904384810530709</v>
       </c>
       <c r="C42">
-        <v>2.142757326363648</v>
+        <v>3.753046059573186</v>
       </c>
       <c r="D42">
-        <v>2.398183440442542</v>
+        <v>6.912986288808514</v>
       </c>
       <c r="E42">
-        <v>10.95350510269691</v>
+        <v>9.756275965364166</v>
       </c>
       <c r="F42">
-        <v>3.064303097366806</v>
+        <v>9.341202425999628</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.852094934193967</v>
+        <v>3.944847313334075</v>
       </c>
       <c r="C43">
-        <v>2.146630786924884</v>
+        <v>3.794773863131731</v>
       </c>
       <c r="D43">
-        <v>2.411359583663315</v>
+        <v>7.003392497509319</v>
       </c>
       <c r="E43">
-        <v>11.08875265507354</v>
+        <v>9.893816641288064</v>
       </c>
       <c r="F43">
-        <v>3.090298954995622</v>
+        <v>9.482112168580619</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.927328084101054</v>
+        <v>3.985037821652233</v>
       </c>
       <c r="C44">
-        <v>2.150520109186865</v>
+        <v>3.836411389879954</v>
       </c>
       <c r="D44">
-        <v>2.424749095811284</v>
+        <v>7.092408777339076</v>
       </c>
       <c r="E44">
-        <v>11.22072543173752</v>
+        <v>10.0292866487786</v>
       </c>
       <c r="F44">
-        <v>3.116296083505698</v>
+        <v>9.621268907205137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.001391654184879</v>
+        <v>4.024957835464905</v>
       </c>
       <c r="C45">
-        <v>2.154425103445555</v>
+        <v>3.87795824263124</v>
       </c>
       <c r="D45">
-        <v>2.43835604086857</v>
+        <v>7.180048080232431</v>
       </c>
       <c r="E45">
-        <v>11.34949569788035</v>
+        <v>10.16271181473706</v>
       </c>
       <c r="F45">
-        <v>3.142294447029837</v>
+        <v>9.758689084150689</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.074296688254519</v>
+        <v>4.064608954153077</v>
       </c>
       <c r="C46">
-        <v>2.158345580306989</v>
+        <v>3.919414053418218</v>
       </c>
       <c r="D46">
-        <v>2.452184525078824</v>
+        <v>7.266323604473739</v>
       </c>
       <c r="E46">
-        <v>11.47513476062016</v>
+        <v>10.29411779007664</v>
       </c>
       <c r="F46">
-        <v>3.168294009554727</v>
+        <v>9.894389294395761</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.146054879628222</v>
+        <v>4.103992882785493</v>
       </c>
       <c r="C47">
-        <v>2.162281350673763</v>
+        <v>3.960778480293595</v>
       </c>
       <c r="D47">
-        <v>2.466238726168174</v>
+        <v>7.351248763964752</v>
       </c>
       <c r="E47">
-        <v>11.59771291147556</v>
+        <v>10.4235300474727</v>
       </c>
       <c r="F47">
-        <v>3.194294734923843</v>
+        <v>10.02838627144791</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.216678431193358</v>
+        <v>4.143111438713257</v>
       </c>
       <c r="C48">
-        <v>2.166232225742125</v>
+        <v>4.002051204512517</v>
       </c>
       <c r="D48">
-        <v>2.4805228779466</v>
+        <v>7.434837163051321</v>
       </c>
       <c r="E48">
-        <v>11.7172993815997</v>
+        <v>10.5509738792032</v>
       </c>
       <c r="F48">
-        <v>3.220296586831691</v>
+        <v>10.16069684099574</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.286179926637888</v>
+        <v>4.18196655911751</v>
       </c>
       <c r="C49">
-        <v>2.170198017111765</v>
+        <v>4.043231928076747</v>
       </c>
       <c r="D49">
-        <v>2.495041256397433</v>
+        <v>7.517102564485138</v>
       </c>
       <c r="E49">
-        <v>11.83396230607817</v>
+        <v>10.67647439499049</v>
       </c>
       <c r="F49">
-        <v>3.246299528826762</v>
+        <v>10.29133791928147</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6.354572273690005</v>
+        <v>4.220560308235916</v>
       </c>
       <c r="C50">
-        <v>2.174178536559169</v>
+        <v>4.084320371616799</v>
       </c>
       <c r="D50">
-        <v>2.509798185724586</v>
+        <v>7.598058876220156</v>
       </c>
       <c r="E50">
-        <v>11.94776869510743</v>
+        <v>10.80005652006316</v>
       </c>
       <c r="F50">
-        <v>3.272303524308487</v>
+        <v>10.42032648093266</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6.421868528846947</v>
+        <v>4.258894884653564</v>
       </c>
       <c r="C51">
-        <v>2.178173596179388</v>
+        <v>4.12531627255844</v>
       </c>
       <c r="D51">
-        <v>2.524798052201537</v>
+        <v>7.677720109362205</v>
       </c>
       <c r="E51">
-        <v>12.05878442091734</v>
+        <v>10.92174499285229</v>
       </c>
       <c r="F51">
-        <v>3.298308536528032</v>
+        <v>10.54767954346429</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6.488082022890828</v>
+        <v>4.296972629601107</v>
       </c>
       <c r="C52">
-        <v>2.182183008400243</v>
+        <v>4.166219383507809</v>
       </c>
       <c r="D52">
-        <v>2.540045279479638</v>
+        <v>7.756100393922511</v>
       </c>
       <c r="E52">
-        <v>12.16707419624059</v>
+        <v>11.04156436352736</v>
       </c>
       <c r="F52">
-        <v>3.324314528589118</v>
+        <v>10.67341415109059</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6.55322607061884</v>
+        <v>4.334796035360104</v>
       </c>
       <c r="C53">
-        <v>2.186206586094074</v>
+        <v>4.207029470794809</v>
       </c>
       <c r="D53">
-        <v>2.555544313670009</v>
+        <v>7.833213910525032</v>
       </c>
       <c r="E53">
-        <v>12.27270156112431</v>
+        <v>11.15953907201318</v>
       </c>
       <c r="F53">
-        <v>3.350321463446105</v>
+        <v>10.79754736820527</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.617314202347724</v>
+        <v>4.372367752542424</v>
       </c>
       <c r="C54">
-        <v>2.19024414221974</v>
+        <v>4.247746313595019</v>
       </c>
       <c r="D54">
-        <v>2.571299666003697</v>
+        <v>7.909074984974084</v>
       </c>
       <c r="E54">
-        <v>12.3757288808807</v>
+        <v>11.27569312699309</v>
       </c>
       <c r="F54">
-        <v>3.376329303907511</v>
+        <v>10.92009624742498</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6.680359920391314</v>
+        <v>4.409690600801889</v>
       </c>
       <c r="C55">
-        <v>2.194295490100902</v>
+        <v>4.288369702178806</v>
       </c>
       <c r="D55">
-        <v>2.587315877208183</v>
+        <v>7.98369792430179</v>
       </c>
       <c r="E55">
-        <v>12.47621733221563</v>
+        <v>11.390050574876</v>
       </c>
       <c r="F55">
-        <v>3.402338012634014</v>
+        <v>11.04107782527732</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6.742376806600934</v>
+        <v>4.446767576563478</v>
       </c>
       <c r="C56">
-        <v>2.198360443502045</v>
+        <v>4.328899437476855</v>
       </c>
       <c r="D56">
-        <v>2.603597484362459</v>
+        <v>8.057097098509519</v>
       </c>
       <c r="E56">
-        <v>12.57422692480304</v>
+        <v>11.50263524638871</v>
       </c>
       <c r="F56">
-        <v>3.42834755214221</v>
+        <v>11.16050911065063</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6.803378420773317</v>
+        <v>4.483601861379723</v>
       </c>
       <c r="C57">
-        <v>2.202438816514655</v>
+        <v>4.369335329957822</v>
       </c>
       <c r="D57">
-        <v>2.620149084894551</v>
+        <v>8.12928690224911</v>
       </c>
       <c r="E57">
-        <v>12.66981648921415</v>
+        <v>11.61347073118653</v>
       </c>
       <c r="F57">
-        <v>3.454357884803729</v>
+        <v>11.27840707397911</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6.863378302641921</v>
+        <v>4.520196832189716</v>
       </c>
       <c r="C58">
-        <v>2.206530423422665</v>
+        <v>4.409677199286809</v>
       </c>
       <c r="D58">
-        <v>2.636975290995294</v>
+        <v>8.200281749208779</v>
       </c>
       <c r="E58">
-        <v>12.76304370854049</v>
+        <v>11.72258042582219</v>
       </c>
       <c r="F58">
-        <v>3.480368972848758</v>
+        <v>11.39478863807187</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6.922389956494169</v>
+        <v>4.556556070062681</v>
       </c>
       <c r="C59">
-        <v>2.210635078892082</v>
+        <v>4.449924873314856</v>
       </c>
       <c r="D59">
-        <v>2.654080708048657</v>
+        <v>8.270096060049854</v>
       </c>
       <c r="E59">
-        <v>12.85396510036285</v>
+        <v>11.82998753508519</v>
       </c>
       <c r="F59">
-        <v>3.506380778366576</v>
+        <v>11.5096706692024</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6.98042681687941</v>
+        <v>4.592683369373825</v>
       </c>
       <c r="C60">
-        <v>2.214752598112104</v>
+        <v>4.490078187534773</v>
       </c>
       <c r="D60">
-        <v>2.67146995413089</v>
+        <v>8.338744251677598</v>
       </c>
       <c r="E60">
-        <v>12.94263604597672</v>
+        <v>11.9357150694655</v>
       </c>
       <c r="F60">
-        <v>3.532393263308115</v>
+        <v>11.62306996934152</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.037502268577767</v>
+        <v>4.628582747510837</v>
       </c>
       <c r="C61">
-        <v>2.218882796465363</v>
+        <v>4.530136984695135</v>
       </c>
       <c r="D61">
-        <v>2.689147668544375</v>
+        <v>8.40624072791768</v>
       </c>
       <c r="E61">
-        <v>13.0291107840018</v>
+        <v>12.03978586157725</v>
       </c>
       <c r="F61">
-        <v>3.558406389488366</v>
+        <v>11.73500326900521</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.093629608486514</v>
+        <v>4.664258454903757</v>
       </c>
       <c r="C62">
-        <v>2.223025489718196</v>
+        <v>4.57010111433693</v>
       </c>
       <c r="D62">
-        <v>2.707118471258887</v>
+        <v>8.472599870867429</v>
       </c>
       <c r="E62">
-        <v>13.11344242658569</v>
+        <v>12.14222252116029</v>
       </c>
       <c r="F62">
-        <v>3.584420118587652</v>
+        <v>11.84548722065086</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.148822065758506</v>
+        <v>4.699714984421099</v>
       </c>
       <c r="C63">
-        <v>2.227180494035691</v>
+        <v>4.609970432263022</v>
       </c>
       <c r="D63">
-        <v>2.725386946289154</v>
+        <v>8.537836034307691</v>
       </c>
       <c r="E63">
-        <v>13.19568299135036</v>
+        <v>12.24304745326348</v>
       </c>
       <c r="F63">
-        <v>3.610434412155455</v>
+        <v>11.95453839269437</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.203092776779283</v>
+        <v>4.734957080889871</v>
       </c>
       <c r="C64">
-        <v>2.231347626072802</v>
+        <v>4.649744800213533</v>
       </c>
       <c r="D64">
-        <v>2.743957697563292</v>
+        <v>8.601963536757701</v>
       </c>
       <c r="E64">
-        <v>13.27588337982486</v>
+        <v>12.34228286099575</v>
       </c>
       <c r="F64">
-        <v>3.636449231611685</v>
+        <v>12.0621732639821</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.256454786695103</v>
+        <v>4.769989750801802</v>
       </c>
       <c r="C65">
-        <v>2.235526702749654</v>
+        <v>4.689424085605533</v>
       </c>
       <c r="D65">
-        <v>2.762835292993435</v>
+        <v>8.664996653778987</v>
       </c>
       <c r="E65">
-        <v>13.3540933884743</v>
+        <v>12.43995074568375</v>
       </c>
       <c r="F65">
-        <v>3.662464538251051</v>
+        <v>12.16840821889526</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.30892104016528</v>
+        <v>4.804818271895432</v>
       </c>
       <c r="C66">
-        <v>2.239717541433667</v>
+        <v>4.729008161251087</v>
       </c>
       <c r="D66">
-        <v>2.78202421889017</v>
+        <v>8.726949611576432</v>
       </c>
       <c r="E66">
-        <v>13.43036178622091</v>
+        <v>12.53607290462272</v>
       </c>
       <c r="F66">
-        <v>3.688480293242511</v>
+        <v>12.27325954293457</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7.360504376789862</v>
+        <v>4.839448202511511</v>
       </c>
       <c r="C67">
-        <v>2.243919959957912</v>
+        <v>4.768496905061495</v>
       </c>
       <c r="D67">
-        <v>2.801528969467114</v>
+        <v>8.787836581476979</v>
       </c>
       <c r="E67">
-        <v>13.504736287819</v>
+        <v>12.63067092891791</v>
       </c>
       <c r="F67">
-        <v>3.714496457635581</v>
+        <v>12.37674341880241</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7.411217528911595</v>
+        <v>4.873885390822599</v>
       </c>
       <c r="C68">
-        <v>2.24813377662089</v>
+        <v>4.807890199804632</v>
       </c>
       <c r="D68">
-        <v>2.821353974566938</v>
+        <v>8.847671674741322</v>
       </c>
       <c r="E68">
-        <v>13.57726349140634</v>
+        <v>12.72376620223179</v>
       </c>
       <c r="F68">
-        <v>3.740512992361452</v>
+        <v>12.4788759221071</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7.461073115293961</v>
+        <v>4.908135983909466</v>
       </c>
       <c r="C69">
-        <v>2.252358810087744</v>
+        <v>4.847187932909392</v>
       </c>
       <c r="D69">
-        <v>2.841503569952812</v>
+        <v>8.906468936535132</v>
       </c>
       <c r="E69">
-        <v>13.64798901142033</v>
+        <v>12.81537990021978</v>
       </c>
       <c r="F69">
-        <v>3.766529858232655</v>
+        <v>12.57967301871802</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7.510083642117437</v>
+        <v>4.942206436200918</v>
       </c>
       <c r="C70">
-        <v>2.256594879509686</v>
+        <v>4.886389996270079</v>
       </c>
       <c r="D70">
-        <v>2.861982034002325</v>
+        <v>8.964242343933819</v>
       </c>
       <c r="E70">
-        <v>13.71695754536764</v>
+        <v>12.90553299020029</v>
       </c>
       <c r="F70">
-        <v>3.792547015956937</v>
+        <v>12.67915056028896</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.558261499211561</v>
+        <v>4.97610351763143</v>
       </c>
       <c r="C71">
-        <v>2.260841804592027</v>
+        <v>4.925496286071629</v>
       </c>
       <c r="D71">
-        <v>2.882793576439253</v>
+        <v>9.021005798430791</v>
       </c>
       <c r="E71">
-        <v>13.78421265484472</v>
+        <v>12.9942462307922</v>
       </c>
       <c r="F71">
-        <v>3.818564426127218</v>
+        <v>12.77732428290642</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.605618957849368</v>
+        <v>5.009834321607985</v>
       </c>
       <c r="C72">
-        <v>2.265099405476725</v>
+        <v>4.964506702675818</v>
       </c>
       <c r="D72">
-        <v>2.903942293758456</v>
+        <v>9.076773125685468</v>
       </c>
       <c r="E72">
-        <v>13.84979696289374</v>
+        <v>13.08154017152415</v>
       </c>
       <c r="F72">
-        <v>3.844582049231073</v>
+        <v>12.87420980408525</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.652168170939283</v>
+        <v>5.043406271803127</v>
       </c>
       <c r="C73">
-        <v>2.269367502795602</v>
+        <v>5.003421150449521</v>
       </c>
       <c r="D73">
-        <v>2.925432158798015</v>
+        <v>9.131558067982388</v>
       </c>
       <c r="E73">
-        <v>13.91375223607481</v>
+        <v>13.16743515236785</v>
       </c>
       <c r="F73">
-        <v>3.870599845658119</v>
+        <v>12.96982261990931</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.697921169307547</v>
+        <v>5.0768271287383</v>
       </c>
       <c r="C74">
-        <v>2.27364591771684</v>
+        <v>5.042239537640827</v>
       </c>
       <c r="D74">
-        <v>2.947267063165095</v>
+        <v>9.185374281228501</v>
       </c>
       <c r="E74">
-        <v>13.97611918784452</v>
+        <v>13.2519513037258</v>
       </c>
       <c r="F74">
-        <v>3.896617775694002</v>
+        <v>13.06417810449819</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.742889862075576</v>
+        <v>5.1101049952996</v>
       </c>
       <c r="C75">
-        <v>2.277934472072242</v>
+        <v>5.080961776254556</v>
       </c>
       <c r="D75">
-        <v>2.969450758908122</v>
+        <v>9.238235332378167</v>
       </c>
       <c r="E75">
-        <v>14.03693763910904</v>
+        <v>13.33510854593527</v>
       </c>
       <c r="F75">
-        <v>3.922635799529966</v>
+        <v>13.15729150699278</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.787086034476562</v>
+        <v>5.143248321985462</v>
       </c>
       <c r="C76">
-        <v>2.282232988107355</v>
+        <v>5.119587781950043</v>
       </c>
       <c r="D76">
-        <v>2.991986823733376</v>
+        <v>9.290154695749365</v>
       </c>
       <c r="E76">
-        <v>14.09624651760398</v>
+        <v>13.41692658973936</v>
       </c>
       <c r="F76">
-        <v>3.948653877265059</v>
+        <v>13.24917795076687</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.830521347508047</v>
+        <v>5.176265909933534</v>
       </c>
       <c r="C77">
-        <v>2.286541288685557</v>
+        <v>5.158117473946509</v>
       </c>
       <c r="D77">
-        <v>3.01487872403682</v>
+        <v>9.341145751569973</v>
       </c>
       <c r="E77">
-        <v>14.15408385065784</v>
+        <v>13.4974249356291</v>
       </c>
       <c r="F77">
-        <v>3.974671968907525</v>
+        <v>13.33985242875128</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7.873207337456305</v>
+        <v>5.209166913581089</v>
       </c>
       <c r="C78">
-        <v>2.290859197290679</v>
+        <v>5.196550774933132</v>
       </c>
       <c r="D78">
-        <v>3.038129752724548</v>
+        <v>9.391221782138469</v>
       </c>
       <c r="E78">
-        <v>14.21048678946147</v>
+        <v>13.57662287438577</v>
       </c>
       <c r="F78">
-        <v>4.000690034379931</v>
+        <v>13.42932980891326</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.915155414661759</v>
+        <v>5.241960841516298</v>
       </c>
       <c r="C79">
-        <v>2.295186538066717</v>
+        <v>5.234887610984562</v>
       </c>
       <c r="D79">
-        <v>3.06174300607605</v>
+        <v>9.440395970421212</v>
       </c>
       <c r="E79">
-        <v>14.26549161610453</v>
+        <v>13.65453948684681</v>
       </c>
       <c r="F79">
-        <v>4.026708033521494</v>
+        <v>13.51762482576223</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.95637686453191</v>
+        <v>5.27465755685167</v>
       </c>
       <c r="C80">
-        <v>2.299523135706424</v>
+        <v>5.273127911488328</v>
       </c>
       <c r="D80">
-        <v>3.085721407498363</v>
+        <v>9.488681396770101</v>
       </c>
       <c r="E80">
-        <v>14.31913376205331</v>
+        <v>13.73119364458227</v>
       </c>
       <c r="F80">
-        <v>4.052725926091318</v>
+        <v>13.60475207743261</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.996882845800493</v>
+        <v>5.307267273814285</v>
       </c>
       <c r="C81">
-        <v>2.303868815578268</v>
+        <v>5.311271609070565</v>
       </c>
       <c r="D81">
-        <v>3.110067682920487</v>
+        <v>9.536091037408001</v>
       </c>
       <c r="E81">
-        <v>14.37144784359483</v>
+        <v>13.80660400961357</v>
       </c>
       <c r="F81">
-        <v>4.078743671771791</v>
+        <v>13.69072604284983</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8.03668439173272</v>
+        <v>5.339800553843797</v>
       </c>
       <c r="C82">
-        <v>2.308223403765322</v>
+        <v>5.349318639530991</v>
       </c>
       <c r="D82">
-        <v>3.134784340675637</v>
+        <v>9.582637762160683</v>
       </c>
       <c r="E82">
-        <v>14.4224676567592</v>
+        <v>13.88078903537794</v>
       </c>
       <c r="F82">
-        <v>4.10476123017174</v>
+        <v>13.77556105483522</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8.075792409067425</v>
+        <v>5.372268298646562</v>
       </c>
       <c r="C83">
-        <v>2.312586727023191</v>
+        <v>5.387268941780115</v>
       </c>
       <c r="D83">
-        <v>3.159873663326857</v>
+        <v>9.628334330364913</v>
       </c>
       <c r="E83">
-        <v>14.47222619646051</v>
+        <v>13.95376696666473</v>
       </c>
       <c r="F83">
-        <v>4.13077856083006</v>
+        <v>13.85927131278422</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8.114217678541547</v>
+        <v>5.404681742518492</v>
       </c>
       <c r="C84">
-        <v>2.316958612790311</v>
+        <v>5.42512245778425</v>
       </c>
       <c r="D84">
-        <v>3.185337703650795</v>
+        <v>9.673193390733685</v>
       </c>
       <c r="E84">
-        <v>14.52075567854825</v>
+        <v>14.02555584040311</v>
       </c>
       <c r="F84">
-        <v>4.156795623219814</v>
+        <v>13.94187088867563</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8.151970854838137</v>
+        <v>5.437052439382041</v>
       </c>
       <c r="C85">
-        <v>2.321338889242717</v>
+        <v>5.462879132512094</v>
       </c>
       <c r="D85">
-        <v>3.211178267740826</v>
+        <v>9.717227483790731</v>
       </c>
       <c r="E85">
-        <v>14.56808755066513</v>
+        <v>14.09617348587116</v>
       </c>
       <c r="F85">
-        <v>4.182812376749562</v>
+        <v>14.02337372186229</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8.189062466521419</v>
+        <v>5.469392348791433</v>
       </c>
       <c r="C86">
-        <v>2.325727385370794</v>
+        <v>5.500538912093596</v>
       </c>
       <c r="D86">
-        <v>3.23739691584586</v>
+        <v>9.760449168454651</v>
       </c>
       <c r="E86">
-        <v>14.61425249685569</v>
+        <v>14.16563772219445</v>
       </c>
       <c r="F86">
-        <v>4.208828780767898</v>
+        <v>14.10379361287883</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8.225502916756755</v>
+        <v>5.501713474272883</v>
       </c>
       <c r="C87">
-        <v>2.33012393086246</v>
+        <v>5.538101746881644</v>
       </c>
       <c r="D87">
-        <v>3.263994927543891</v>
+        <v>9.802870651382042</v>
       </c>
       <c r="E87">
-        <v>14.65928047899524</v>
+        <v>14.23396591901115</v>
       </c>
       <c r="F87">
-        <v>4.234844794566476</v>
+        <v>14.18314422523379</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8.261302482993456</v>
+        <v>5.534028188706396</v>
       </c>
       <c r="C88">
-        <v>2.334528356215797</v>
+        <v>5.575567592865498</v>
       </c>
       <c r="D88">
-        <v>3.290973307349041</v>
+        <v>9.844503923850201</v>
       </c>
       <c r="E88">
-        <v>14.70320073488427</v>
+        <v>14.30117481219225</v>
       </c>
       <c r="F88">
-        <v>4.260860377383397</v>
+        <v>14.26143907892337</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8.296471317932145</v>
+        <v>5.566349220371725</v>
       </c>
       <c r="C89">
-        <v>2.338940492750149</v>
+        <v>5.612936407393301</v>
       </c>
       <c r="D89">
-        <v>3.318332812058415</v>
+        <v>9.885361221118639</v>
       </c>
       <c r="E89">
-        <v>14.74604179845097</v>
+        <v>14.36728164132256</v>
       </c>
       <c r="F89">
-        <v>4.286875488405446</v>
+        <v>14.33869156305993</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8.331019449426515</v>
+        <v>5.598689401463202</v>
       </c>
       <c r="C90">
-        <v>2.343360172656418</v>
+        <v>5.650208151601131</v>
       </c>
       <c r="D90">
-        <v>3.34607387110417</v>
+        <v>9.925454508976935</v>
       </c>
       <c r="E90">
-        <v>14.78783151433096</v>
+        <v>14.43230327777656</v>
       </c>
       <c r="F90">
-        <v>4.312890086772643</v>
+        <v>14.41491494486221</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8.364956781232932</v>
+        <v>5.631061724361052</v>
       </c>
       <c r="C91">
-        <v>2.347787228924373</v>
+        <v>5.687382785892692</v>
       </c>
       <c r="D91">
-        <v>3.374196614892563</v>
+        <v>9.964795645945827</v>
       </c>
       <c r="E91">
-        <v>14.82859698508185</v>
+        <v>14.49625632981436</v>
       </c>
       <c r="F91">
-        <v>4.338904131580631</v>
+        <v>14.49012236627268</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>8.398293093387604</v>
+        <v>5.663479334440414</v>
       </c>
       <c r="C92">
-        <v>2.352221495436215</v>
+        <v>5.72446027416274</v>
       </c>
       <c r="D92">
-        <v>3.402700902053212</v>
+        <v>10.00339636762983</v>
       </c>
       <c r="E92">
-        <v>14.86836473860091</v>
+        <v>14.55915720103002</v>
       </c>
       <c r="F92">
-        <v>4.364917581882891</v>
+        <v>14.56432683218904</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>8.43103804262018</v>
+        <v>5.695955455226656</v>
       </c>
       <c r="C93">
-        <v>2.356662806999196</v>
+        <v>5.761440583431297</v>
       </c>
       <c r="D93">
-        <v>3.431586281695283</v>
+        <v>10.04126827049743</v>
       </c>
       <c r="E93">
-        <v>14.9071606283412</v>
+        <v>14.62102207786875</v>
       </c>
       <c r="F93">
-        <v>4.390930396695878</v>
+        <v>14.63754118258595</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8.463201163149737</v>
+        <v>5.728503323276262</v>
       </c>
       <c r="C94">
-        <v>2.361110999343583</v>
+        <v>5.798323684689492</v>
       </c>
       <c r="D94">
-        <v>3.46085194948474</v>
+        <v>10.07842283066978</v>
       </c>
       <c r="E94">
-        <v>14.94500987902511</v>
+        <v>14.68186694148688</v>
       </c>
       <c r="F94">
-        <v>4.416942535000294</v>
+        <v>14.70977813205718</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8.494791866976964</v>
+        <v>5.76113611763048</v>
       </c>
       <c r="C95">
-        <v>2.365565909113769</v>
+        <v>5.835109549725328</v>
       </c>
       <c r="D95">
-        <v>3.490496809298267</v>
+        <v>10.11487140481689</v>
       </c>
       <c r="E95">
-        <v>14.98193710044798</v>
+        <v>14.7417075789875</v>
       </c>
       <c r="F95">
-        <v>4.442953955744259</v>
+        <v>14.78105027227404</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>8.525819444803302</v>
+        <v>5.793866925327155</v>
       </c>
       <c r="C96">
-        <v>2.370027373929588</v>
+        <v>5.871798155483663</v>
       </c>
       <c r="D96">
-        <v>3.520519504455255</v>
+        <v>10.1506252229858</v>
       </c>
       <c r="E96">
-        <v>15.01796613811266</v>
+        <v>14.80055955800137</v>
       </c>
       <c r="F96">
-        <v>4.468964617847731</v>
+        <v>14.85137003448365</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8.556293066573401</v>
+        <v>5.826708660368292</v>
       </c>
       <c r="C97">
-        <v>2.374495232441507</v>
+        <v>5.908389476963388</v>
       </c>
       <c r="D97">
-        <v>3.550918269264512</v>
+        <v>10.18569540055896</v>
       </c>
       <c r="E97">
-        <v>15.05312045188327</v>
+        <v>14.85843827741448</v>
       </c>
       <c r="F97">
-        <v>4.494974480203385</v>
+        <v>14.92074974986283</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8.58622178215899</v>
+        <v>5.859673964237039</v>
       </c>
       <c r="C98">
-        <v>2.378969324274326</v>
+        <v>5.944883495966365</v>
       </c>
       <c r="D98">
-        <v>3.581691032377009</v>
+        <v>10.22009292587034</v>
       </c>
       <c r="E98">
-        <v>15.08742285244888</v>
+        <v>14.91535890996552</v>
       </c>
       <c r="F98">
-        <v>4.520983501681053</v>
+        <v>14.98920159022553</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>8.615614521628657</v>
+        <v>5.892775113616333</v>
       </c>
       <c r="C99">
-        <v>2.383449490091507</v>
+        <v>5.981280194657211</v>
       </c>
       <c r="D99">
-        <v>3.612835476545052</v>
+        <v>10.25382867088036</v>
       </c>
       <c r="E99">
-        <v>15.12089558897272</v>
+        <v>14.97133646466543</v>
       </c>
       <c r="F99">
-        <v>4.546991641130575</v>
+        <v>15.05673759493895</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>8.644480097388536</v>
+        <v>5.926023946412075</v>
       </c>
       <c r="C100">
-        <v>2.387935571621069</v>
+        <v>6.017579557516134</v>
       </c>
       <c r="D100">
-        <v>3.644348910012186</v>
+        <v>10.28691338106152</v>
       </c>
       <c r="E100">
-        <v>15.15356036317096</v>
+        <v>15.02638573581144</v>
       </c>
       <c r="F100">
-        <v>4.5729988573829</v>
+        <v>15.1233696975388</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8.672827202679773</v>
+        <v>5.959431722010353</v>
       </c>
       <c r="C101">
-        <v>2.392427411703169</v>
+        <v>6.053781574098855</v>
       </c>
       <c r="D101">
-        <v>3.67622835703851</v>
+        <v>10.31935768126579</v>
       </c>
       <c r="E101">
-        <v>15.18543812495316</v>
+        <v>15.0805213378875</v>
       </c>
       <c r="F101">
-        <v>4.599005109255607</v>
+        <v>15.18910966840489</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8.700664414020864</v>
+        <v>5.993009018765774</v>
       </c>
       <c r="C102">
-        <v>2.396924854245381</v>
+        <v>6.089886232419683</v>
       </c>
       <c r="D102">
-        <v>3.708470545109159</v>
+        <v>10.35117207143909</v>
       </c>
       <c r="E102">
-        <v>15.21654956435291</v>
+        <v>15.13375768729876</v>
       </c>
       <c r="F102">
-        <v>4.625010355553848</v>
+        <v>15.25396917264685</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8.728000192499776</v>
+        <v>6.026765796556056</v>
       </c>
       <c r="C103">
-        <v>2.401427744295716</v>
+        <v>6.125893526018659</v>
       </c>
       <c r="D103">
-        <v>3.741071890711664</v>
+        <v>10.38236692956873</v>
       </c>
       <c r="E103">
-        <v>15.24691476033508</v>
+        <v>15.1861090144309</v>
       </c>
       <c r="F103">
-        <v>4.651014555072723</v>
+        <v>15.31795973182879</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>8.754842882206468</v>
+        <v>6.060711009839656</v>
       </c>
       <c r="C104">
-        <v>2.40593592806619</v>
+        <v>6.161803449945419</v>
       </c>
       <c r="D104">
-        <v>3.774028529754114</v>
+        <v>10.41295250887599</v>
       </c>
       <c r="E104">
-        <v>15.27655328978553</v>
+        <v>15.23758935704218</v>
       </c>
       <c r="F104">
-        <v>4.67701766660219</v>
+        <v>15.3810927402202</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>8.781200713770229</v>
+        <v>6.094852626268435</v>
       </c>
       <c r="C105">
-        <v>2.410449252954027</v>
+        <v>6.197616000140046</v>
       </c>
       <c r="D105">
-        <v>3.807336298240163</v>
+        <v>10.44293894008473</v>
       </c>
       <c r="E105">
-        <v>15.30548424106802</v>
+        <v>15.28821256780877</v>
       </c>
       <c r="F105">
-        <v>4.703019648927337</v>
+        <v>15.44337946511655</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>8.807081803718003</v>
+        <v>6.129197462751698</v>
       </c>
       <c r="C106">
-        <v>2.414967567536678</v>
+        <v>6.233331177829003</v>
       </c>
       <c r="D106">
-        <v>3.840990769276763</v>
+        <v>10.47233623080666</v>
       </c>
       <c r="E106">
-        <v>15.33372602342557</v>
+        <v>15.33799230984403</v>
       </c>
       <c r="F106">
-        <v>4.729020460832036</v>
+        <v>15.50483104043547</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>8.832494155223424</v>
+        <v>6.163751108990629</v>
       </c>
       <c r="C107">
-        <v>2.419490721623066</v>
+        <v>6.268948983221118</v>
       </c>
       <c r="D107">
-        <v>3.874987247112175</v>
+        <v>10.50115426554561</v>
       </c>
       <c r="E107">
-        <v>15.36129682111375</v>
+        <v>15.38694206459721</v>
       </c>
       <c r="F107">
-        <v>4.755020061102563</v>
+        <v>15.56545849044918</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8.857445660323418</v>
+        <v>6.198517855114884</v>
       </c>
       <c r="C108">
-        <v>2.424018566291276</v>
+        <v>6.304469420792902</v>
       </c>
       <c r="D108">
-        <v>3.909320766879447</v>
+        <v>10.52940280838823</v>
       </c>
       <c r="E108">
-        <v>15.38821427269295</v>
+        <v>15.43507513009211</v>
       </c>
       <c r="F108">
-        <v>4.781018408527359</v>
+        <v>15.62527268957555</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>8.881944099164889</v>
+        <v>6.233500570448773</v>
       </c>
       <c r="C109">
-        <v>2.428550953880071</v>
+        <v>6.339892497819743</v>
       </c>
       <c r="D109">
-        <v>3.943986150631551</v>
+        <v>10.55709149862559</v>
       </c>
       <c r="E109">
-        <v>15.41449556818533</v>
+        <v>15.48240462807424</v>
       </c>
       <c r="F109">
-        <v>4.807015461902789</v>
+        <v>15.68428438747006</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>8.905997141938176</v>
+        <v>6.26870063562392</v>
       </c>
       <c r="C110">
-        <v>2.433087738022294</v>
+        <v>6.375218221088083</v>
       </c>
       <c r="D110">
-        <v>3.978977956057026</v>
+        <v>10.58422985282651</v>
       </c>
       <c r="E110">
-        <v>15.44015746247967</v>
+        <v>15.52894348582704</v>
       </c>
       <c r="F110">
-        <v>4.83301118003399</v>
+        <v>15.74250420347035</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8.929612349661058</v>
+        <v>6.304117847889048</v>
       </c>
       <c r="C111">
-        <v>2.437628773677012</v>
+        <v>6.410446602966845</v>
       </c>
       <c r="D111">
-        <v>4.014290547482682</v>
+        <v>10.61082727247621</v>
       </c>
       <c r="E111">
-        <v>15.46521611438783</v>
+        <v>15.57470444595165</v>
       </c>
       <c r="F111">
-        <v>4.859005521736138</v>
+        <v>15.79994267866583</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>8.952797174617551</v>
+        <v>6.339750345594056</v>
       </c>
       <c r="C112">
-        <v>2.442173917173937</v>
+        <v>6.445577655319065</v>
       </c>
       <c r="D112">
-        <v>4.049918076183672</v>
+        <v>10.63689303273717</v>
       </c>
       <c r="E112">
-        <v>15.48968747023672</v>
+        <v>15.61970012426298</v>
       </c>
       <c r="F112">
-        <v>4.884998445839883</v>
+        <v>15.85661021039516</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8.975558962113665</v>
+        <v>6.375594713150771</v>
       </c>
       <c r="C113">
-        <v>2.44672302618828</v>
+        <v>6.48061139304646</v>
       </c>
       <c r="D113">
-        <v>4.08585449870862</v>
+        <v>10.66243628542727</v>
       </c>
       <c r="E113">
-        <v>15.51358699911645</v>
+        <v>15.66394290085383</v>
       </c>
       <c r="F113">
-        <v>4.910989911191213</v>
+        <v>15.91251702627244</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>8.997904950706548</v>
+        <v>6.411645638604585</v>
       </c>
       <c r="C114">
-        <v>2.451275959800257</v>
+        <v>6.51554783499325</v>
       </c>
       <c r="D114">
-        <v>4.122093606313233</v>
+        <v>10.68746606557835</v>
       </c>
       <c r="E114">
-        <v>15.53692977116563</v>
+        <v>15.70744498700473</v>
       </c>
       <c r="F114">
-        <v>4.936979876654108</v>
+        <v>15.9676732431162</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>9.019842273363526</v>
+        <v>6.447896216565043</v>
       </c>
       <c r="C115">
-        <v>2.455832578517856</v>
+        <v>6.550386998411333</v>
       </c>
       <c r="D115">
-        <v>4.158629015227778</v>
+        <v>10.71199129598895</v>
       </c>
       <c r="E115">
-        <v>15.55973047123567</v>
+        <v>15.7502184344804</v>
       </c>
       <c r="F115">
-        <v>4.962968301114654</v>
+        <v>16.02208884478128</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9.041377958985453</v>
+        <v>6.484337938921901</v>
       </c>
       <c r="C116">
-        <v>2.460392744306747</v>
+        <v>6.585128906175929</v>
       </c>
       <c r="D116">
-        <v>4.195454203213203</v>
+        <v>10.73602076767225</v>
       </c>
       <c r="E116">
-        <v>15.58200324435911</v>
+        <v>15.79227516235242</v>
       </c>
       <c r="F116">
-        <v>4.98895514348062</v>
+        <v>16.07577371012721</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>9.062518932431738</v>
+        <v>6.520960737890745</v>
       </c>
       <c r="C117">
-        <v>2.464956320587357</v>
+        <v>6.619773583931797</v>
       </c>
       <c r="D117">
-        <v>4.232562507852334</v>
+        <v>10.75956315598562</v>
       </c>
       <c r="E117">
-        <v>15.60376205963301</v>
+        <v>15.83362685324501</v>
       </c>
       <c r="F117">
-        <v>5.014940362685742</v>
+        <v>16.12873769535787</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>9.083272016259526</v>
+        <v>6.557753031588931</v>
       </c>
       <c r="C118">
-        <v>2.469523172283123</v>
+        <v>6.654321056350074</v>
       </c>
       <c r="D118">
-        <v>4.269947149231903</v>
+        <v>10.78262702921557</v>
       </c>
       <c r="E118">
-        <v>15.62502046284491</v>
+        <v>15.87428503943888</v>
       </c>
       <c r="F118">
-        <v>5.040923917691757</v>
+        <v>16.18099039447374</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>9.103643931577004</v>
+        <v>6.594701843265647</v>
       </c>
       <c r="C119">
-        <v>2.474093165852174</v>
+        <v>6.688771347727078</v>
       </c>
       <c r="D119">
-        <v>4.307601245665958</v>
+        <v>10.80522082831989</v>
       </c>
       <c r="E119">
-        <v>15.64579164594718</v>
+        <v>15.91426111764921</v>
       </c>
       <c r="F119">
-        <v>5.06690576748838</v>
+        <v>16.23254133639798</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>9.123641298670568</v>
+        <v>6.631792907267242</v>
       </c>
       <c r="C120">
-        <v>2.478666169297163</v>
+        <v>6.723124494600348</v>
       </c>
       <c r="D120">
-        <v>4.34551782115092</v>
+        <v>10.82735287919089</v>
       </c>
       <c r="E120">
-        <v>15.66608846102977</v>
+        <v>15.95356630362215</v>
       </c>
       <c r="F120">
-        <v>5.092885871098824</v>
+        <v>16.28339994041648</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>9.143270638582884</v>
+        <v>6.669010763494568</v>
       </c>
       <c r="C121">
-        <v>2.483242052187757</v>
+        <v>6.757380519953636</v>
       </c>
       <c r="D121">
-        <v>4.383689827314786</v>
+        <v>10.84903139447868</v>
       </c>
       <c r="E121">
-        <v>15.68592326057192</v>
+        <v>15.99221163978982</v>
       </c>
       <c r="F121">
-        <v>5.118864187579566</v>
+        <v>16.33357552944251</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>9.162538373625209</v>
+        <v>6.706338992627734</v>
       </c>
       <c r="C122">
-        <v>2.487820685695479</v>
+        <v>6.791539463714467</v>
       </c>
       <c r="D122">
-        <v>4.422110152957834</v>
+        <v>10.87026447388556</v>
       </c>
       <c r="E122">
-        <v>15.70530826636399</v>
+        <v>16.0302080146677</v>
       </c>
       <c r="F122">
-        <v>5.144840676022061</v>
+        <v>16.3830772907189</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>9.181450828608963</v>
+        <v>6.743760279015059</v>
       </c>
       <c r="C123">
-        <v>2.492401942636244</v>
+        <v>6.825601359015414</v>
       </c>
       <c r="D123">
-        <v>4.460771638413566</v>
+        <v>10.89106009891238</v>
       </c>
       <c r="E123">
-        <v>15.72425532139705</v>
+        <v>16.0675661617752</v>
       </c>
       <c r="F123">
-        <v>5.170815295557179</v>
+        <v>16.43191431119844</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>9.20001423198252</v>
+        <v>6.781256669768251</v>
       </c>
       <c r="C124">
-        <v>2.496985697456219</v>
+        <v>6.859566240260323</v>
       </c>
       <c r="D124">
-        <v>4.499667089610086</v>
+        <v>10.9114261389642</v>
       </c>
       <c r="E124">
-        <v>15.74277595459883</v>
+        <v>16.10429665232209</v>
       </c>
       <c r="F124">
-        <v>5.1967880053546</v>
+        <v>16.48009555527921</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>9.218234716534965</v>
+        <v>6.81880968695082</v>
       </c>
       <c r="C125">
-        <v>2.501571826284047</v>
+        <v>6.893434154484136</v>
       </c>
       <c r="D125">
-        <v>4.538789293627149</v>
+        <v>10.93137035219425</v>
       </c>
       <c r="E125">
-        <v>15.76088139532053</v>
+        <v>16.14040990350859</v>
       </c>
       <c r="F125">
-        <v>5.222758764625879</v>
+        <v>16.52762985292818</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.236118320694231</v>
+        <v>6.856400505452058</v>
       </c>
       <c r="C126">
-        <v>2.506160206954351</v>
+        <v>6.927205134674883</v>
       </c>
       <c r="D126">
-        <v>4.578131020593037</v>
+        <v>10.9509003830982</v>
       </c>
       <c r="E126">
-        <v>15.7785824183473</v>
+        <v>16.17591617291501</v>
       </c>
       <c r="F126">
-        <v>5.248727532627284</v>
+        <v>16.57452596377703</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>9.253670989457975</v>
+        <v>6.894010111138125</v>
       </c>
       <c r="C127">
-        <v>2.510750719043046</v>
+        <v>6.96087923142908</v>
       </c>
       <c r="D127">
-        <v>4.617685052984971</v>
+        <v>10.97002376532257</v>
       </c>
       <c r="E127">
-        <v>15.79588969670422</v>
+        <v>16.21082556214435</v>
       </c>
       <c r="F127">
-        <v>5.27469426865905</v>
+        <v>16.62079252325231</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>9.270898575323207</v>
+        <v>6.931619452780883</v>
       </c>
       <c r="C128">
-        <v>2.515343243863647</v>
+        <v>6.994456486567998</v>
       </c>
       <c r="D128">
-        <v>4.657444178989991</v>
+        <v>10.98874792385415</v>
       </c>
       <c r="E128">
-        <v>15.81281356807576</v>
+        <v>16.2451480275307</v>
       </c>
       <c r="F128">
-        <v>5.300658932070295</v>
+        <v>16.66643805070755</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>9.287806839532125</v>
+        <v>6.969209585407732</v>
       </c>
       <c r="C129">
-        <v>2.51993766451606</v>
+        <v>7.027936945350608</v>
       </c>
       <c r="D129">
-        <v>4.697401214165993</v>
+        <v>11.00708017461855</v>
       </c>
       <c r="E129">
-        <v>15.82936409150641</v>
+        <v>16.27889337191066</v>
       </c>
       <c r="F129">
-        <v>5.326621482259224</v>
+        <v>16.7114709481055</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>9.304401452860336</v>
+        <v>7.006761788309457</v>
       </c>
       <c r="C130">
-        <v>2.524533865917521</v>
+        <v>7.061320662956877</v>
       </c>
       <c r="D130">
-        <v>4.737549012911699</v>
+        <v>11.02502772307839</v>
       </c>
       <c r="E130">
-        <v>15.84555106215063</v>
+        <v>16.31207124747355</v>
       </c>
       <c r="F130">
-        <v>5.352581878673925</v>
+        <v>16.755899523863</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>9.320687996784203</v>
+        <v>7.04425771683769</v>
       </c>
       <c r="C131">
-        <v>2.529131734820656</v>
+        <v>7.094607682448403</v>
       </c>
       <c r="D131">
-        <v>4.777880463237719</v>
+        <v>11.04259766793732</v>
       </c>
       <c r="E131">
-        <v>15.86138387229158</v>
+        <v>16.34469115980183</v>
       </c>
       <c r="F131">
-        <v>5.378540080816815</v>
+        <v>16.79973197187899</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>9.336671964512316</v>
+        <v>7.081679466763915</v>
       </c>
       <c r="C132">
-        <v>2.533731159828179</v>
+        <v>7.12779806420172</v>
       </c>
       <c r="D132">
-        <v>4.818388520942963</v>
+        <v>11.05979700394386</v>
       </c>
       <c r="E132">
-        <v>15.87687182498955</v>
+        <v>16.37676246786275</v>
       </c>
       <c r="F132">
-        <v>5.40449604824344</v>
+        <v>16.8429763864529</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>9.352358761931873</v>
+        <v>7.119009689341849</v>
       </c>
       <c r="C133">
-        <v>2.538332031433686</v>
+        <v>7.160891858080822</v>
       </c>
       <c r="D133">
-        <v>4.859066189837248</v>
+        <v>11.07663261697645</v>
       </c>
       <c r="E133">
-        <v>15.89202393084889</v>
+        <v>16.40829438751374</v>
       </c>
       <c r="F133">
-        <v>5.430449740564998</v>
+        <v>16.88564076139357</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>9.367753708690016</v>
+        <v>7.156231670183535</v>
       </c>
       <c r="C134">
-        <v>2.542934242065112</v>
+        <v>7.193889119568635</v>
       </c>
       <c r="D134">
-        <v>4.899906552718717</v>
+        <v>11.0931112889883</v>
       </c>
       <c r="E134">
-        <v>15.90684895410083</v>
+        <v>16.43929599645192</v>
       </c>
       <c r="F134">
-        <v>5.456401117452858</v>
+        <v>16.92773297339872</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>9.382862039207128</v>
+        <v>7.193329351015566</v>
       </c>
       <c r="C135">
-        <v>2.547537686074414</v>
+        <v>7.226789911807391</v>
       </c>
       <c r="D135">
-        <v>4.940902768811116</v>
+        <v>11.10923969986345</v>
       </c>
       <c r="E135">
-        <v>15.92135542712298</v>
+        <v>16.46977622539666</v>
       </c>
       <c r="F135">
-        <v>5.482350138638072</v>
+        <v>16.96926080083714</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>9.397688903700184</v>
+        <v>7.230287436279169</v>
       </c>
       <c r="C136">
-        <v>2.552142259783489</v>
+        <v>7.259594287231493</v>
       </c>
       <c r="D136">
-        <v>4.982048072122625</v>
+        <v>11.12502442621476</v>
       </c>
       <c r="E136">
-        <v>15.93555152733157</v>
+        <v>16.49974386802599</v>
       </c>
       <c r="F136">
-        <v>5.508296763910226</v>
+        <v>17.01023192638692</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>9.412239369152369</v>
+        <v>7.26709137233984</v>
       </c>
       <c r="C137">
-        <v>2.556747861513883</v>
+        <v>7.29230231569025</v>
       </c>
       <c r="D137">
-        <v>5.023335801317814</v>
+        <v>11.14047194189216</v>
       </c>
       <c r="E137">
-        <v>15.94944535279772</v>
+        <v>16.52920758242137</v>
       </c>
       <c r="F137">
-        <v>5.534240953119263</v>
+        <v>17.05065393411377</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9.426518420424022</v>
+        <v>7.303727392936513</v>
       </c>
       <c r="C138">
-        <v>2.561354391631709</v>
+        <v>7.324914054688631</v>
       </c>
       <c r="D138">
-        <v>5.064759371634469</v>
+        <v>11.15558862098238</v>
       </c>
       <c r="E138">
-        <v>15.96304474783797</v>
+        <v>16.55817589046692</v>
       </c>
       <c r="F138">
-        <v>5.560182666186714</v>
+        <v>17.09053430097634</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>9.440530961187383</v>
+        <v>7.34018255377956</v>
       </c>
       <c r="C139">
-        <v>2.565961752527969</v>
+        <v>7.3574295694641</v>
       </c>
       <c r="D139">
-        <v>5.106312315034651</v>
+        <v>11.17038074005577</v>
       </c>
       <c r="E139">
-        <v>15.97635733961764</v>
+        <v>16.58665717937324</v>
       </c>
       <c r="F139">
-        <v>5.58612186309841</v>
+        <v>17.12988040926339</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>9.454281814924448</v>
+        <v>7.376444688887641</v>
       </c>
       <c r="C140">
-        <v>2.570569848680136</v>
+        <v>7.389848930793666</v>
       </c>
       <c r="D140">
-        <v>5.147988260629437</v>
+        <v>11.18485447339543</v>
       </c>
       <c r="E140">
-        <v>15.98939055227311</v>
+        <v>16.61465970437831</v>
       </c>
       <c r="F140">
-        <v>5.612058503904164</v>
+        <v>17.16869954514719</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9.467775726046577</v>
+        <v>7.41250245427821</v>
       </c>
       <c r="C141">
-        <v>2.575178586683433</v>
+        <v>7.422172200061854</v>
       </c>
       <c r="D141">
-        <v>5.189780941761914</v>
+        <v>11.19901589838553</v>
       </c>
       <c r="E141">
-        <v>16.00215149407201</v>
+        <v>16.64219158703912</v>
       </c>
       <c r="F141">
-        <v>5.637992548716289</v>
+        <v>17.20699889900426</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.481017360729457</v>
+        <v>7.448345287232288</v>
       </c>
       <c r="C142">
-        <v>2.579787875276835</v>
+        <v>7.454399456159815</v>
       </c>
       <c r="D142">
-        <v>5.231684214733215</v>
+        <v>11.2128709952495</v>
       </c>
       <c r="E142">
-        <v>16.01464720721928</v>
+        <v>16.66926082388051</v>
       </c>
       <c r="F142">
-        <v>5.663923957729867</v>
+        <v>17.24478556580458</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.494011308049362</v>
+        <v>7.483963393172749</v>
       </c>
       <c r="C143">
-        <v>2.58439762534224</v>
+        <v>7.486530763888815</v>
       </c>
       <c r="D143">
-        <v>5.273692035092513</v>
+        <v>11.22642564794816</v>
       </c>
       <c r="E143">
-        <v>16.02688451335672</v>
+        <v>16.69587528292927</v>
       </c>
       <c r="F143">
-        <v>5.6898526912078</v>
+        <v>17.28206654730796</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.506762080962467</v>
+        <v>7.519347745371372</v>
       </c>
       <c r="C144">
-        <v>2.589007749959665</v>
+        <v>7.518566195401681</v>
       </c>
       <c r="D144">
-        <v>5.315798490180572</v>
+        <v>11.23968565363634</v>
       </c>
       <c r="E144">
-        <v>16.03887004285798</v>
+        <v>16.72204270672843</v>
       </c>
       <c r="F144">
-        <v>5.715778709483683</v>
+        <v>17.31884874365436</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.519274117127665</v>
+        <v>7.554490030299039</v>
       </c>
       <c r="C145">
-        <v>2.593618164456144</v>
+        <v>7.550505827893647</v>
       </c>
       <c r="D145">
-        <v>5.357997777842368</v>
+        <v>11.25265670826587</v>
       </c>
       <c r="E145">
-        <v>16.0506102486983</v>
+        <v>16.74777071404701</v>
       </c>
       <c r="F145">
-        <v>5.741701972957518</v>
+        <v>17.35513896720796</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.531551780176354</v>
+        <v>7.589382643186129</v>
       </c>
       <c r="C146">
-        <v>2.598228786392091</v>
+        <v>7.582349738740635</v>
       </c>
       <c r="D146">
-        <v>5.400284216893103</v>
+        <v>11.26534441391577</v>
       </c>
       <c r="E146">
-        <v>16.06211130174122</v>
+        <v>16.77306680145558</v>
       </c>
       <c r="F146">
-        <v>5.767622442117555</v>
+        <v>17.39094394486568</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.543599360459515</v>
+        <v>7.624018649077128</v>
       </c>
       <c r="C147">
-        <v>2.602839535601133</v>
+        <v>7.614098005454227</v>
       </c>
       <c r="D147">
-        <v>5.442652254278562</v>
+        <v>11.27775428224318</v>
       </c>
       <c r="E147">
-        <v>16.07337931958402</v>
+        <v>16.79793832442912</v>
       </c>
       <c r="F147">
-        <v>5.793540077524834</v>
+        <v>17.42627031110353</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.555421076048114</v>
+        <v>7.658391751291171</v>
       </c>
       <c r="C148">
-        <v>2.60745033423038</v>
+        <v>7.645750708406585</v>
       </c>
       <c r="D148">
-        <v>5.485096449105396</v>
+        <v>11.28989173371754</v>
       </c>
       <c r="E148">
-        <v>16.08442022829884</v>
+        <v>16.82239254673537</v>
       </c>
       <c r="F148">
-        <v>5.819454839817527</v>
+        <v>17.46112461217248</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.567021073897672</v>
+        <v>7.692496267047254</v>
       </c>
       <c r="C149">
-        <v>2.612061106806477</v>
+        <v>7.677307930117228</v>
       </c>
       <c r="D149">
-        <v>5.527611495395798</v>
+        <v>11.30176210248364</v>
       </c>
       <c r="E149">
-        <v>16.09523978547033</v>
+        <v>16.84643660431852</v>
       </c>
       <c r="F149">
-        <v>5.845366689706467</v>
+        <v>17.49551330726925</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.578403430284736</v>
+        <v>7.726327087689207</v>
       </c>
       <c r="C150">
-        <v>2.616671780177761</v>
+        <v>7.708769752774731</v>
       </c>
       <c r="D150">
-        <v>5.570192202137751</v>
+        <v>11.31337064213649</v>
       </c>
       <c r="E150">
-        <v>16.10584359383984</v>
+        <v>16.87007751717178</v>
       </c>
       <c r="F150">
-        <v>5.871275587992597</v>
+        <v>17.52944276572284</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.589572152467387</v>
+        <v>7.759879650777667</v>
       </c>
       <c r="C151">
-        <v>2.621282283605066</v>
+        <v>7.740136258263923</v>
       </c>
       <c r="D151">
-        <v>5.612833505593337</v>
+        <v>11.32472250290189</v>
       </c>
       <c r="E151">
-        <v>16.11623700645114</v>
+        <v>16.89332219101284</v>
       </c>
       <c r="F151">
-        <v>5.897181495555611</v>
+        <v>17.56291923087916</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.600531179401267</v>
+        <v>7.79314990995432</v>
       </c>
       <c r="C152">
-        <v>2.625892548792128</v>
+        <v>7.771407536367175</v>
       </c>
       <c r="D152">
-        <v>5.655530467000139</v>
+        <v>11.33582275472274</v>
       </c>
       <c r="E152">
-        <v>16.12642533153844</v>
+        <v>16.91617741895944</v>
       </c>
       <c r="F152">
-        <v>5.923084373357827</v>
+        <v>17.59594892301553</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.611284382719012</v>
+        <v>7.826134303830215</v>
       </c>
       <c r="C153">
-        <v>2.630502509928724</v>
+        <v>7.8025836707439</v>
       </c>
       <c r="D153">
-        <v>5.698278264246427</v>
+        <v>11.34667638187668</v>
       </c>
       <c r="E153">
-        <v>16.13641371198429</v>
+        <v>16.93864986517877</v>
       </c>
       <c r="F153">
-        <v>5.948984182439654</v>
+        <v>17.62853795468943</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.621835566407061</v>
+        <v>7.858829724171669</v>
       </c>
       <c r="C154">
-        <v>2.635112103654957</v>
+        <v>7.833664749304998</v>
       </c>
       <c r="D154">
-        <v>5.741072205164135</v>
+        <v>11.35728828396981</v>
       </c>
       <c r="E154">
-        <v>16.14620714248007</v>
+        <v>16.96074610185954</v>
       </c>
       <c r="F154">
-        <v>5.974880883934641</v>
+        <v>17.66069235583652</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.632188470112501</v>
+        <v>7.891233487437435</v>
       </c>
       <c r="C155">
-        <v>2.639721269147049</v>
+        <v>7.864650864638465</v>
       </c>
       <c r="D155">
-        <v>5.78390771097447</v>
+        <v>11.36766328608823</v>
       </c>
       <c r="E155">
-        <v>16.15581048272074</v>
+        <v>16.9824725876059</v>
       </c>
       <c r="F155">
-        <v>6.000774439060275</v>
+        <v>17.69241807487752</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.642346768867151</v>
+        <v>7.923343313436817</v>
       </c>
       <c r="C156">
-        <v>2.644329948173868</v>
+        <v>7.8955421064358</v>
       </c>
       <c r="D156">
-        <v>5.826780328256151</v>
+        <v>11.3778061223609</v>
       </c>
       <c r="E156">
-        <v>16.16522837361639</v>
+        <v>17.00383567219928</v>
       </c>
       <c r="F156">
-        <v>6.02666480912157</v>
+        <v>17.72372097982522</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.652314074103886</v>
+        <v>7.955157287432785</v>
       </c>
       <c r="C157">
-        <v>2.648938085081751</v>
+        <v>7.926338568008518</v>
       </c>
       <c r="D157">
-        <v>5.869685720759676</v>
+        <v>11.38772144604055</v>
       </c>
       <c r="E157">
-        <v>16.17446541641605</v>
+        <v>17.02484159844813</v>
       </c>
       <c r="F157">
-        <v>6.052551955505497</v>
+        <v>17.75460683210233</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9.662093932306162</v>
+        <v>7.986673832962762</v>
       </c>
       <c r="C158">
-        <v>2.6535456268161</v>
+        <v>7.957040344444657</v>
       </c>
       <c r="D158">
-        <v>5.912619666870654</v>
+        <v>11.39741383173669</v>
       </c>
       <c r="E158">
-        <v>16.18352607045225</v>
+        <v>17.04549650358463</v>
       </c>
       <c r="F158">
-        <v>6.078435839696668</v>
+        <v>17.78508132116104</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.671689830206891</v>
+        <v>8.017891722328612</v>
       </c>
       <c r="C159">
-        <v>2.658152522984168</v>
+        <v>7.987647531607765</v>
       </c>
       <c r="D159">
-        <v>5.955578065075624</v>
+        <v>11.40688777499618</v>
       </c>
       <c r="E159">
-        <v>16.19241466506475</v>
+        <v>17.06580642307378</v>
       </c>
       <c r="F159">
-        <v>6.104316423267848</v>
+        <v>17.8151500866007</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.681105193426527</v>
+        <v>8.048809990088055</v>
       </c>
       <c r="C160">
-        <v>2.662758725958002</v>
+        <v>8.018160226622044</v>
       </c>
       <c r="D160">
-        <v>5.998556922569031</v>
+        <v>11.41614769375973</v>
       </c>
       <c r="E160">
-        <v>16.20113541212677</v>
+        <v>17.08577728979152</v>
       </c>
       <c r="F160">
-        <v>6.130193667883814</v>
+        <v>17.84481867395357</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.690343387468543</v>
+        <v>8.079427970852384</v>
       </c>
       <c r="C161">
-        <v>2.667364190751925</v>
+        <v>8.048578528418986</v>
       </c>
       <c r="D161">
-        <v>6.041552363055875</v>
+        <v>11.4251979296799</v>
       </c>
       <c r="E161">
-        <v>16.20969233219596</v>
+        <v>17.10541493617111</v>
       </c>
       <c r="F161">
-        <v>6.15606753529335</v>
+        <v>17.87409255210963</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.69940771639588</v>
+        <v>8.109745264873212</v>
       </c>
       <c r="C162">
-        <v>2.671968875159392</v>
+        <v>8.078902537254137</v>
       </c>
       <c r="D162">
-        <v>6.084560618383374</v>
+        <v>11.43404274717074</v>
       </c>
       <c r="E162">
-        <v>16.21808941071274</v>
+        <v>17.1247250979013</v>
       </c>
       <c r="F162">
-        <v>6.181937987348506</v>
+        <v>17.90297711431423</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.708301428037409</v>
+        <v>8.139761676210338</v>
       </c>
       <c r="C163">
-        <v>2.676572739782071</v>
+        <v>8.109132352270032</v>
       </c>
       <c r="D163">
-        <v>6.12757802813293</v>
+        <v>11.44268633638762</v>
       </c>
       <c r="E163">
-        <v>16.22633051169371</v>
+        <v>17.14371341114309</v>
       </c>
       <c r="F163">
-        <v>6.207804985992714</v>
+        <v>17.93147767916581</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.717027712600933</v>
+        <v>8.169477284249526</v>
       </c>
       <c r="C164">
-        <v>2.68117574810994</v>
+        <v>8.139268077173437</v>
       </c>
       <c r="D164">
-        <v>6.170601040085491</v>
+        <v>11.4511328137059</v>
       </c>
       <c r="E164">
-        <v>16.23441938531923</v>
+        <v>17.16238541672044</v>
       </c>
       <c r="F164">
-        <v>6.233668493265017</v>
+        <v>17.95959945709042</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.725589703596491</v>
+        <v>8.198892324345643</v>
       </c>
       <c r="C165">
-        <v>2.685777866416868</v>
+        <v>8.169309816263588</v>
       </c>
       <c r="D165">
-        <v>6.21362620361188</v>
+        <v>11.45938622276727</v>
       </c>
       <c r="E165">
-        <v>16.24235967976319</v>
+        <v>17.18074656128983</v>
       </c>
       <c r="F165">
-        <v>6.259528471293545</v>
+        <v>17.98734763245806</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.73399047679448</v>
+        <v>8.228007237364766</v>
       </c>
       <c r="C166">
-        <v>2.690379063903195</v>
+        <v>8.199257675371808</v>
       </c>
       <c r="D166">
-        <v>6.256650172473768</v>
+        <v>11.46745053116644</v>
       </c>
       <c r="E166">
-        <v>16.25015487547782</v>
+        <v>17.19880219684242</v>
       </c>
       <c r="F166">
-        <v>6.285384882310525</v>
+        <v>18.01472729946785</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.742233054847317</v>
+        <v>8.256822659207975</v>
       </c>
       <c r="C167">
-        <v>2.694979312759114</v>
+        <v>8.229111761861486</v>
       </c>
       <c r="D167">
-        <v>6.299669697940526</v>
+        <v>11.4753296401438</v>
       </c>
       <c r="E167">
-        <v>16.25780842252822</v>
+        <v>17.21655758186467</v>
       </c>
       <c r="F167">
-        <v>6.311237688644661</v>
+        <v>18.04174348033716</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.750320406202691</v>
+        <v>8.285339350430879</v>
       </c>
       <c r="C168">
-        <v>2.699578588161526</v>
+        <v>8.258872184628089</v>
       </c>
       <c r="D168">
-        <v>6.342681629935985</v>
+        <v>11.48302738052049</v>
       </c>
       <c r="E168">
-        <v>16.2653236672835</v>
+        <v>17.23401788873125</v>
       </c>
       <c r="F168">
-        <v>6.337086852723166</v>
+        <v>18.06840112649895</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9.758255445958397</v>
+        <v>8.313558253342752</v>
       </c>
       <c r="C169">
-        <v>2.704176868248845</v>
+        <v>8.288539047029277</v>
       </c>
       <c r="D169">
-        <v>6.385682915562891</v>
+        <v>11.49054751377181</v>
       </c>
       <c r="E169">
-        <v>16.27270385645696</v>
+        <v>17.2511881993524</v>
       </c>
       <c r="F169">
-        <v>6.362932337067474</v>
+        <v>18.09470511952949</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.766041035275695</v>
+        <v>8.341480428176997</v>
       </c>
       <c r="C170">
-        <v>2.708774134234482</v>
+        <v>8.318112460873733</v>
       </c>
       <c r="D170">
-        <v>6.428670595694586</v>
+        <v>11.49789373358282</v>
       </c>
       <c r="E170">
-        <v>16.27995214830495</v>
+        <v>17.26807350830325</v>
       </c>
       <c r="F170">
-        <v>6.38877410430366</v>
+        <v>18.12066026678361</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>9.773679985086453</v>
+        <v>8.36910705521314</v>
       </c>
       <c r="C171">
-        <v>2.713370370539456</v>
+        <v>8.347592540077288</v>
       </c>
       <c r="D171">
-        <v>6.471641795073314</v>
+        <v>11.50506966529636</v>
       </c>
       <c r="E171">
-        <v>16.28707155415794</v>
+        <v>17.28467871611973</v>
       </c>
       <c r="F171">
-        <v>6.414612117158818</v>
+        <v>18.14627130532508</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.781175055477565</v>
+        <v>8.396439457037223</v>
       </c>
       <c r="C172">
-        <v>2.717965564630459</v>
+        <v>8.376979398244156</v>
       </c>
       <c r="D172">
-        <v>6.5145937367358</v>
+        <v>11.51207886658516</v>
       </c>
       <c r="E172">
-        <v>16.29406505907025</v>
+        <v>17.3010086463515</v>
       </c>
       <c r="F172">
-        <v>6.440446338461368</v>
+        <v>18.17154291523125</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9.788528956499587</v>
+        <v>8.423479028993436</v>
       </c>
       <c r="C173">
-        <v>2.72255970716179</v>
+        <v>8.406273150407191</v>
       </c>
       <c r="D173">
-        <v>6.557523728665791</v>
+        <v>11.51892483445199</v>
       </c>
       <c r="E173">
-        <v>16.30093555978065</v>
+        <v>17.31706803719193</v>
       </c>
       <c r="F173">
-        <v>6.466276731138132</v>
+        <v>18.19647970495712</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>9.795744346832549</v>
+        <v>8.450227283612064</v>
       </c>
       <c r="C174">
-        <v>2.727152792033909</v>
+        <v>8.435473913027893</v>
       </c>
       <c r="D174">
-        <v>6.60042916193138</v>
+        <v>11.52561100013259</v>
       </c>
       <c r="E174">
-        <v>16.30768586582487</v>
+        <v>17.33286154396784</v>
       </c>
       <c r="F174">
-        <v>6.492103258221789</v>
+        <v>18.22108621728946</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>9.80282383860634</v>
+        <v>8.476685821155472</v>
       </c>
       <c r="C175">
-        <v>2.731744816539968</v>
+        <v>8.464581799612183</v>
       </c>
       <c r="D175">
-        <v>6.643307505331594</v>
+        <v>11.53214073192535</v>
       </c>
       <c r="E175">
-        <v>16.31431871010212</v>
+        <v>17.34839373768924</v>
       </c>
       <c r="F175">
-        <v>6.517925882849914</v>
+        <v>18.24536693024561</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9.809769996198945</v>
+        <v>8.502856306826972</v>
       </c>
       <c r="C176">
-        <v>2.736335781135994</v>
+        <v>8.493596922947368</v>
       </c>
       <c r="D176">
-        <v>6.686156315789582</v>
+        <v>11.53851733619618</v>
       </c>
       <c r="E176">
-        <v>16.32083669745276</v>
+        <v>17.36366910568767</v>
       </c>
       <c r="F176">
-        <v>6.543744568264045</v>
+        <v>18.26932625797235</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>9.816585336952183</v>
+        <v>8.528740506988143</v>
       </c>
       <c r="C177">
-        <v>2.740925689682642</v>
+        <v>8.522519406977107</v>
       </c>
       <c r="D177">
-        <v>6.728973225894725</v>
+        <v>11.54474405138508</v>
       </c>
       <c r="E177">
-        <v>16.32724240944993</v>
+        <v>17.37869206395073</v>
       </c>
       <c r="F177">
-        <v>6.569559277807554</v>
+        <v>18.2929685395703</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9.823272329934639</v>
+        <v>8.554340229671933</v>
       </c>
       <c r="C178">
-        <v>2.74551454951099</v>
+        <v>8.55134937216067</v>
       </c>
       <c r="D178">
-        <v>6.771755942582034</v>
+        <v>11.55082406340263</v>
       </c>
       <c r="E178">
-        <v>16.33353835270974</v>
+        <v>17.39346694768864</v>
       </c>
       <c r="F178">
-        <v>6.595369974931124</v>
+        <v>18.31629806614414</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>9.829833400603501</v>
+        <v>8.579657354033179</v>
       </c>
       <c r="C179">
-        <v>2.750102371461332</v>
+        <v>8.580086940235709</v>
       </c>
       <c r="D179">
-        <v>6.814502246844239</v>
+        <v>11.55676049727466</v>
       </c>
       <c r="E179">
-        <v>16.33972695765499</v>
+        <v>17.40799801571976</v>
       </c>
       <c r="F179">
-        <v>6.621176623193805</v>
+        <v>18.33931906420138</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9.836270929671462</v>
+        <v>8.604693820859774</v>
       </c>
       <c r="C180">
-        <v>2.75468916975818</v>
+        <v>8.608732234218246</v>
       </c>
       <c r="D180">
-        <v>6.857209992441565</v>
+        <v>11.56255641909865</v>
       </c>
       <c r="E180">
-        <v>16.34581058837988</v>
+        <v>17.42228944798901</v>
       </c>
       <c r="F180">
-        <v>6.646979186260962</v>
+        <v>18.36203569826439</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>9.842587253752168</v>
+        <v>8.629451605309804</v>
       </c>
       <c r="C181">
-        <v>2.759274962218366</v>
+        <v>8.637285377913173</v>
       </c>
       <c r="D181">
-        <v>6.899877101926833</v>
+        <v>11.56821483762558</v>
       </c>
       <c r="E181">
-        <v>16.35179149786781</v>
+        <v>17.43634535405601</v>
       </c>
       <c r="F181">
-        <v>6.672777627902899</v>
+        <v>18.38445207302121</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>9.848784664107262</v>
+        <v>8.653932746143308</v>
       </c>
       <c r="C182">
-        <v>2.763859770417659</v>
+        <v>8.665746487414587</v>
       </c>
       <c r="D182">
-        <v>6.942501569925107</v>
+        <v>11.57373870241838</v>
       </c>
       <c r="E182">
-        <v>16.35767191812806</v>
+        <v>17.45016976990403</v>
       </c>
       <c r="F182">
-        <v>6.698571911998554</v>
+        <v>18.40657223419577</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>9.854865411223034</v>
+        <v>8.678139308810071</v>
       </c>
       <c r="C183">
-        <v>2.768443619500707</v>
+        <v>8.694115693783935</v>
       </c>
       <c r="D183">
-        <v>6.985081452234162</v>
+        <v>11.57913090521147</v>
       </c>
       <c r="E183">
-        <v>16.36345401774984</v>
+        <v>17.46376665966846</v>
       </c>
       <c r="F183">
-        <v>6.724362002538333</v>
+        <v>18.42840016436176</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>9.86083170370876</v>
+        <v>8.702073397096543</v>
       </c>
       <c r="C184">
-        <v>2.773026538291143</v>
+        <v>8.722393123812214</v>
       </c>
       <c r="D184">
-        <v>7.027614869300032</v>
+        <v>11.58439428926364</v>
       </c>
       <c r="E184">
-        <v>16.36913989886293</v>
+        <v>17.47713991280134</v>
       </c>
       <c r="F184">
-        <v>6.750147863621077</v>
+        <v>18.44993978087967</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9.866685708869928</v>
+        <v>8.725737156802079</v>
       </c>
       <c r="C185">
-        <v>2.777608559430692</v>
+        <v>8.750578905447989</v>
       </c>
       <c r="D185">
-        <v>7.070100004753215</v>
+        <v>11.58953164119249</v>
       </c>
       <c r="E185">
-        <v>16.3747316062615</v>
+        <v>17.49029334565897</v>
       </c>
       <c r="F185">
-        <v>6.775929459453452</v>
+        <v>18.47119496232003</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9.87242955152391</v>
+        <v>8.749132749115775</v>
       </c>
       <c r="C186">
-        <v>2.782189719909819</v>
+        <v>8.778673167797388</v>
       </c>
       <c r="D186">
-        <v>7.112535108217511</v>
+        <v>11.59454569469575</v>
       </c>
       <c r="E186">
-        <v>16.38023108844874</v>
+        <v>17.50323071682676</v>
       </c>
       <c r="F186">
-        <v>6.801706754352002</v>
+        <v>18.49216952330417</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>9.878065318358393</v>
+        <v>8.772262370268978</v>
       </c>
       <c r="C187">
-        <v>2.786770059931268</v>
+        <v>8.806676041124101</v>
       </c>
       <c r="D187">
-        <v>7.154918480061751</v>
+        <v>11.59943913149165</v>
       </c>
       <c r="E187">
-        <v>16.38564027503654</v>
+        <v>17.51595571376125</v>
       </c>
       <c r="F187">
-        <v>6.827479712747377</v>
+        <v>18.51286722323612</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>9.883595056925801</v>
+        <v>8.795128235646338</v>
       </c>
       <c r="C188">
-        <v>2.791349623834848</v>
+        <v>8.834587652087819</v>
       </c>
       <c r="D188">
-        <v>7.197248479689297</v>
+        <v>11.60421457227234</v>
       </c>
       <c r="E188">
-        <v>16.39096104211963</v>
+        <v>17.52847195842685</v>
       </c>
       <c r="F188">
-        <v>6.853248299180634</v>
+        <v>18.53329176713363</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>9.88902077615316</v>
+        <v>8.81773257587883</v>
       </c>
       <c r="C189">
-        <v>2.795928459919926</v>
+        <v>8.862408132860589</v>
       </c>
       <c r="D189">
-        <v>7.23952352501358</v>
+        <v>11.60887459885384</v>
       </c>
       <c r="E189">
-        <v>16.39619520787571</v>
+        <v>17.54078300858206</v>
       </c>
       <c r="F189">
-        <v>6.879012478303264</v>
+        <v>18.55344680645929</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>9.89434444512718</v>
+        <v>8.840077647166018</v>
       </c>
       <c r="C190">
-        <v>2.800506620490158</v>
+        <v>8.890137617679107</v>
       </c>
       <c r="D190">
-        <v>7.281742088523734</v>
+        <v>11.61342174024175</v>
       </c>
       <c r="E190">
-        <v>16.40134454097681</v>
+        <v>17.55289235906576</v>
       </c>
       <c r="F190">
-        <v>6.904772214877887</v>
+        <v>18.57333591834616</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>9.899567997387756</v>
+        <v>8.86216571013872</v>
       </c>
       <c r="C191">
-        <v>2.805084161902952</v>
+        <v>8.917776240437844</v>
       </c>
       <c r="D191">
-        <v>7.32390268996932</v>
+        <v>11.6178584761225</v>
       </c>
       <c r="E191">
-        <v>16.40641072664074</v>
+        <v>17.56480342180028</v>
       </c>
       <c r="F191">
-        <v>6.930527473783446</v>
+        <v>18.59296264806154</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>9.904693329944219</v>
+        <v>8.883999041781603</v>
       </c>
       <c r="C192">
-        <v>2.809661147315821</v>
+        <v>8.945324136103652</v>
       </c>
       <c r="D192">
-        <v>7.366003900863747</v>
+        <v>11.62218723831084</v>
       </c>
       <c r="E192">
-        <v>16.41139543315775</v>
+        <v>17.57651954860551</v>
       </c>
       <c r="F192">
-        <v>6.956278220011129</v>
+        <v>18.61233049077367</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>9.909722303714158</v>
+        <v>8.905579929713506</v>
       </c>
       <c r="C193">
-        <v>2.814237640525096</v>
+        <v>8.972781440715783</v>
       </c>
       <c r="D193">
-        <v>7.408044347507845</v>
+        <v>11.62641040781704</v>
       </c>
       <c r="E193">
-        <v>16.4163002837721</v>
+        <v>17.58804406068882</v>
       </c>
       <c r="F193">
-        <v>6.98202441866485</v>
+        <v>18.63144288546783</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9.914656742282933</v>
+        <v>8.92691066342282</v>
       </c>
       <c r="C194">
-        <v>2.818813710923291</v>
+        <v>9.000148289531445</v>
       </c>
       <c r="D194">
-        <v>7.450022698611323</v>
+        <v>11.63053031741966</v>
       </c>
       <c r="E194">
-        <v>16.42112685126864</v>
+        <v>17.59938020463706</v>
       </c>
       <c r="F194">
-        <v>7.007766034960871</v>
+        <v>18.65030322076007</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9.919498436139303</v>
+        <v>8.947993545600392</v>
       </c>
       <c r="C195">
-        <v>2.823389432225811</v>
+        <v>9.027424817410916</v>
       </c>
       <c r="D195">
-        <v>7.491937668546452</v>
+        <v>11.63454926138663</v>
       </c>
       <c r="E195">
-        <v>16.42587666571957</v>
+        <v>17.61053116929579</v>
       </c>
       <c r="F195">
-        <v>7.033503034233716</v>
+        <v>18.6689148356672</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.924249141710261</v>
+        <v>8.968830875798291</v>
       </c>
       <c r="C196">
-        <v>2.827964882520361</v>
+        <v>9.054611165210744</v>
       </c>
       <c r="D196">
-        <v>7.533788017145921</v>
+        <v>11.6384694859566</v>
       </c>
       <c r="E196">
-        <v>16.43055118497658</v>
+        <v>17.62150008699668</v>
       </c>
       <c r="F196">
-        <v>7.059235381931813</v>
+        <v>18.68728101659736</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.928910581727539</v>
+        <v>8.989424957956858</v>
       </c>
       <c r="C197">
-        <v>2.832540144316371</v>
+        <v>9.081707472460511</v>
       </c>
       <c r="D197">
-        <v>7.575572553859504</v>
+        <v>11.64229319344319</v>
       </c>
       <c r="E197">
-        <v>16.43515185166981</v>
+        <v>17.63229003478484</v>
       </c>
       <c r="F197">
-        <v>7.084963043618325</v>
+        <v>18.70540498662105</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.933484443989334</v>
+        <v>9.009778099268217</v>
       </c>
       <c r="C198">
-        <v>2.837115309388285</v>
+        <v>9.108713879692017</v>
       </c>
       <c r="D198">
-        <v>7.617290121865349</v>
+        <v>11.64602254309212</v>
       </c>
       <c r="E198">
-        <v>16.43968007060593</v>
+        <v>17.64290399296262</v>
       </c>
       <c r="F198">
-        <v>7.110685984969887</v>
+        <v>18.7232899473534</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.937972385493032</v>
+        <v>9.029892601332545</v>
       </c>
       <c r="C199">
-        <v>2.841690468296881</v>
+        <v>9.135630528439286</v>
       </c>
       <c r="D199">
-        <v>7.658939607057008</v>
+        <v>11.64965963830798</v>
       </c>
       <c r="E199">
-        <v>16.4441372026523</v>
+        <v>17.65334490947687</v>
       </c>
       <c r="F199">
-        <v>7.136404171783128</v>
+        <v>18.74093904237981</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.942376031509079</v>
+        <v>9.049770767949193</v>
       </c>
       <c r="C200">
-        <v>2.846265718003477</v>
+        <v>9.162457561176517</v>
       </c>
       <c r="D200">
-        <v>7.700519937129895</v>
+        <v>11.65320655730562</v>
       </c>
       <c r="E200">
-        <v>16.44852457184291</v>
+        <v>17.6636157110878</v>
       </c>
       <c r="F200">
-        <v>7.162117569970052</v>
+        <v>18.75835536880489</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.946696975878908</v>
+        <v>9.069414897219286</v>
       </c>
       <c r="C201">
-        <v>2.850841160566914</v>
+        <v>9.189195118191805</v>
       </c>
       <c r="D201">
-        <v>7.742030080625797</v>
+        <v>11.65666533175369</v>
       </c>
       <c r="E201">
-        <v>16.45284343989262</v>
+        <v>17.67371925074864</v>
       </c>
       <c r="F201">
-        <v>7.187826145559156</v>
+        <v>18.77554197797473</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.95093677981599</v>
+        <v>9.088827282253476</v>
       </c>
       <c r="C202">
-        <v>2.855416902924773</v>
+        <v>9.215843344572859</v>
       </c>
       <c r="D202">
-        <v>7.783469036989837</v>
+        <v>11.66003795261779</v>
       </c>
       <c r="E202">
-        <v>16.4570950547099</v>
+        <v>17.68365833010534</v>
       </c>
       <c r="F202">
-        <v>7.213529864693461</v>
+        <v>18.7925018761991</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.955096975871339</v>
+        <v>9.108010213682002</v>
       </c>
       <c r="C203">
-        <v>2.859993056956285</v>
+        <v>9.242402384902938</v>
       </c>
       <c r="D203">
-        <v>7.824835843138742</v>
+        <v>11.66332637131079</v>
       </c>
       <c r="E203">
-        <v>16.46128063251076</v>
+        <v>17.69343570059589</v>
       </c>
       <c r="F203">
-        <v>7.239228693637467</v>
+        <v>18.80923801410508</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.959179067074453</v>
+        <v>9.126965972058295</v>
       </c>
       <c r="C204">
-        <v>2.864569744878247</v>
+        <v>9.268872384641266</v>
       </c>
       <c r="D204">
-        <v>7.866129575928024</v>
+        <v>11.66653249535238</v>
       </c>
       <c r="E204">
-        <v>16.46540135128761</v>
+        <v>17.70305406454969</v>
       </c>
       <c r="F204">
-        <v>7.264922598772365</v>
+        <v>18.82575330558737</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.963184527170601</v>
+        <v>9.14569683277899</v>
       </c>
       <c r="C205">
-        <v>2.869147088330046</v>
+        <v>9.295253489274712</v>
       </c>
       <c r="D205">
-        <v>7.907349342811443</v>
+        <v>11.66965819272241</v>
       </c>
       <c r="E205">
-        <v>16.4694583572848</v>
+        <v>17.71251602681417</v>
       </c>
       <c r="F205">
-        <v>7.290611546597381</v>
+        <v>18.84205062722167</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.967114799469552</v>
+        <v>9.164205062877667</v>
       </c>
       <c r="C206">
-        <v>2.873725215133892</v>
+        <v>9.321545845964168</v>
       </c>
       <c r="D206">
-        <v>7.948494281962943</v>
+        <v>11.67270530158438</v>
       </c>
       <c r="E206">
-        <v>16.47345274309084</v>
+        <v>17.72182418489513</v>
       </c>
       <c r="F206">
-        <v>7.31629550372725</v>
+        <v>18.85813280824643</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.97097130062537</v>
+        <v>9.182492918794949</v>
       </c>
       <c r="C207">
-        <v>2.878304259244665</v>
+        <v>9.347749602589607</v>
       </c>
       <c r="D207">
-        <v>7.98956356402638</v>
+        <v>11.67567561939359</v>
       </c>
       <c r="E207">
-        <v>16.47738558871567</v>
+        <v>17.73098110370343</v>
       </c>
       <c r="F207">
-        <v>7.341974436899429</v>
+        <v>18.87400263585695</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.974755419851316</v>
+        <v>9.200562650047459</v>
       </c>
       <c r="C208">
-        <v>2.882884360135843</v>
+        <v>9.373864907788372</v>
       </c>
       <c r="D208">
-        <v>8.030556397251935</v>
+        <v>11.6785709073993</v>
       </c>
       <c r="E208">
-        <v>16.48125794766402</v>
+        <v>17.73998928522639</v>
       </c>
       <c r="F208">
-        <v>7.367648312969235</v>
+        <v>18.88966285588843</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.978468519101801</v>
+        <v>9.218416493144701</v>
       </c>
       <c r="C209">
-        <v>2.887465662879902</v>
+        <v>9.399891910634665</v>
       </c>
       <c r="D209">
-        <v>8.071472011500514</v>
+        <v>11.68139289137474</v>
       </c>
       <c r="E209">
-        <v>16.48507084021848</v>
+        <v>17.74885118572358</v>
       </c>
       <c r="F209">
-        <v>7.393317098911357</v>
+        <v>18.90511617212755</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.982111931963221</v>
+        <v>9.236056675740086</v>
       </c>
       <c r="C210">
-        <v>2.892048323366079</v>
+        <v>9.42583076126726</v>
       </c>
       <c r="D210">
-        <v>8.112309667643148</v>
+        <v>11.68414324971752</v>
       </c>
       <c r="E210">
-        <v>16.4888252593095</v>
+        <v>17.75756921669798</v>
       </c>
       <c r="F210">
-        <v>7.418980761816941</v>
+        <v>18.92036523032912</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.985686967257601</v>
+        <v>9.253485414952081</v>
       </c>
       <c r="C211">
-        <v>2.896632498670099</v>
+        <v>9.451681610765423</v>
       </c>
       <c r="D211">
-        <v>8.15306865576386</v>
+        <v>11.68682364261297</v>
       </c>
       <c r="E211">
-        <v>16.49252215170722</v>
+        <v>17.76614574586705</v>
       </c>
       <c r="F211">
-        <v>7.44463926890085</v>
+        <v>18.93541266335931</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.989194908326144</v>
+        <v>9.270704912256313</v>
       </c>
       <c r="C212">
-        <v>2.901218351576235</v>
+        <v>9.477444610922515</v>
       </c>
       <c r="D212">
-        <v>8.193748296338402</v>
+        <v>11.68943569055037</v>
       </c>
       <c r="E212">
-        <v>16.49616245273317</v>
+        <v>17.7745830566431</v>
       </c>
       <c r="F212">
-        <v>7.470292587496856</v>
+        <v>18.95026105432595</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.992637013158403</v>
+        <v>9.287717356176726</v>
       </c>
       <c r="C213">
-        <v>2.905806052162136</v>
+        <v>9.503119913641536</v>
       </c>
       <c r="D213">
-        <v>8.234347930548513</v>
+        <v>11.69198098093747</v>
       </c>
       <c r="E213">
-        <v>16.49974707558494</v>
+        <v>17.78288343371988</v>
       </c>
       <c r="F213">
-        <v>7.495940685059248</v>
+        <v>18.96491294774945</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.996014513321478</v>
+        <v>9.304524927148414</v>
       </c>
       <c r="C214">
-        <v>2.910395776790278</v>
+        <v>9.528707671683398</v>
       </c>
       <c r="D214">
-        <v>8.27486692650211</v>
+        <v>11.69446106880382</v>
       </c>
       <c r="E214">
-        <v>16.50327690459415</v>
+        <v>17.79104911806053</v>
       </c>
       <c r="F214">
-        <v>7.521583529159656</v>
+        <v>18.97937085020365</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.999328617397325</v>
+        <v>9.321129793003001</v>
       </c>
       <c r="C215">
-        <v>2.914987708207377</v>
+        <v>9.554208039295833</v>
       </c>
       <c r="D215">
-        <v>8.315304680033863</v>
+        <v>11.69687747214933</v>
       </c>
       <c r="E215">
-        <v>16.50675280053384</v>
+        <v>17.79908230114879</v>
       </c>
       <c r="F215">
-        <v>7.547221087494218</v>
+        <v>18.9936372309565</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>10.00258051032969</v>
+        <v>9.337534098705959</v>
       </c>
       <c r="C216">
-        <v>2.91958204106268</v>
+        <v>9.579621171164558</v>
       </c>
       <c r="D216">
-        <v>8.355660610109977</v>
+        <v>11.69923167750617</v>
       </c>
       <c r="E216">
-        <v>16.51017558303736</v>
+        <v>17.80698513401594</v>
       </c>
       <c r="F216">
-        <v>7.572853327878919</v>
+        <v>19.00771451182598</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>10.00577135350271</v>
+        <v>9.353739976497716</v>
       </c>
       <c r="C217">
-        <v>2.924178972879347</v>
+        <v>9.604947222765466</v>
       </c>
       <c r="D217">
-        <v>8.395934156337832</v>
+        <v>11.70152514732643</v>
       </c>
       <c r="E217">
-        <v>16.51354606227127</v>
+        <v>17.81475972812019</v>
       </c>
       <c r="F217">
-        <v>7.59848021825108</v>
+        <v>19.02160508011063</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>10.00890228371322</v>
+        <v>9.369749552727598</v>
       </c>
       <c r="C218">
-        <v>2.928778706249096</v>
+        <v>9.630186350368675</v>
       </c>
       <c r="D218">
-        <v>8.436124781446489</v>
+        <v>11.70375931055017</v>
       </c>
       <c r="E218">
-        <v>16.51686503014794</v>
+        <v>17.82240815622602</v>
       </c>
       <c r="F218">
-        <v>7.624101726666731</v>
+        <v>19.03531129983988</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>10.01197441643819</v>
+        <v>9.385564939744793</v>
       </c>
       <c r="C219">
-        <v>2.933381452596043</v>
+        <v>9.655338711042544</v>
       </c>
       <c r="D219">
-        <v>8.47623197504991</v>
+        <v>11.70593556662297</v>
       </c>
       <c r="E219">
-        <v>16.52013325303323</v>
+        <v>17.82993241650677</v>
       </c>
       <c r="F219">
-        <v>7.649717821306189</v>
+        <v>19.04883549258289</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>10.01498884524521</v>
+        <v>9.401188222690969</v>
       </c>
       <c r="C220">
-        <v>2.937987430565332</v>
+        <v>9.680404460819549</v>
       </c>
       <c r="D220">
-        <v>8.516255242393326</v>
+        <v>11.70805528579525</v>
       </c>
       <c r="E220">
-        <v>16.52335147685504</v>
+        <v>17.83733451532109</v>
       </c>
       <c r="F220">
-        <v>7.675328470471006</v>
+        <v>19.06217994507247</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>10.01794664182455</v>
+        <v>9.416621475218916</v>
       </c>
       <c r="C221">
-        <v>2.942596866145434</v>
+        <v>9.70538375817026</v>
       </c>
       <c r="D221">
-        <v>8.556194110254781</v>
+        <v>11.71011979844049</v>
       </c>
       <c r="E221">
-        <v>16.52652041810818</v>
+        <v>17.84461641075628</v>
       </c>
       <c r="F221">
-        <v>7.70093364258461</v>
+        <v>19.07534690979895</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>10.02084885501148</v>
+        <v>9.431866762830746</v>
       </c>
       <c r="C222">
-        <v>2.94720999911557</v>
+        <v>9.730276761972171</v>
       </c>
       <c r="D222">
-        <v>8.596048125923195</v>
+        <v>11.71213042228251</v>
       </c>
       <c r="E222">
-        <v>16.52964078065783</v>
+        <v>17.85178002118946</v>
       </c>
       <c r="F222">
-        <v>7.726533306190301</v>
+        <v>19.08833860560399</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>10.02369651387561</v>
+        <v>9.446926135564107</v>
       </c>
       <c r="C223">
-        <v>2.951827074141616</v>
+        <v>9.755083631528279</v>
       </c>
       <c r="D223">
-        <v>8.635816859239339</v>
+        <v>11.71408844194441</v>
       </c>
       <c r="E223">
-        <v>16.53271325207318</v>
+        <v>17.85882722952492</v>
       </c>
       <c r="F223">
-        <v>7.752127429955483</v>
+        <v>19.101157196208</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>10.02649062719653</v>
+        <v>9.461801619048348</v>
       </c>
       <c r="C224">
-        <v>2.956448339564075</v>
+        <v>9.779804526719534</v>
       </c>
       <c r="D224">
-        <v>8.675499893967087</v>
+        <v>11.71599511521054</v>
       </c>
       <c r="E224">
-        <v>16.53573849957131</v>
+        <v>17.86575988400307</v>
       </c>
       <c r="F224">
-        <v>7.777715982669938</v>
+        <v>19.11380484203138</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>10.02923218345476</v>
+        <v>9.476495226250631</v>
       </c>
       <c r="C225">
-        <v>2.961074054828253</v>
+        <v>9.804439607883827</v>
       </c>
       <c r="D225">
-        <v>8.715096833215481</v>
+        <v>11.7178516736347</v>
       </c>
       <c r="E225">
-        <v>16.53871717318049</v>
+        <v>17.87257979900938</v>
       </c>
       <c r="F225">
-        <v>7.803298933245782</v>
+        <v>19.12628366064748</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>10.03192214990734</v>
+        <v>9.491008957805152</v>
       </c>
       <c r="C226">
-        <v>2.96570448779007</v>
+        <v>9.828989036124039</v>
       </c>
       <c r="D226">
-        <v>8.754607299384981</v>
+        <v>11.71965931726951</v>
       </c>
       <c r="E226">
-        <v>16.54164988895514</v>
+        <v>17.87928871202045</v>
       </c>
       <c r="F226">
-        <v>7.828876250715975</v>
+        <v>19.1385957371596</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>10.03456147549606</v>
+        <v>9.505344797954352</v>
       </c>
       <c r="C227">
-        <v>2.970339914869222</v>
+        <v>9.853452973022831</v>
       </c>
       <c r="D227">
-        <v>8.794030932332985</v>
+        <v>11.72141922171129</v>
       </c>
       <c r="E227">
-        <v>16.54453725762575</v>
+        <v>17.88588838870582</v>
       </c>
       <c r="F227">
-        <v>7.854447904237423</v>
+        <v>19.1507431252539</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>10.03715109038779</v>
+        <v>9.519504710807851</v>
       </c>
       <c r="C228">
-        <v>2.974980628571827</v>
+        <v>9.877831580699716</v>
       </c>
       <c r="D228">
-        <v>8.833367385834043</v>
+        <v>11.72313254356987</v>
       </c>
       <c r="E228">
-        <v>16.5473798785426</v>
+        <v>17.89238053943516</v>
       </c>
       <c r="F228">
-        <v>7.880013863090327</v>
+        <v>19.16272784774731</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>10.03969190592923</v>
+        <v>9.533490645604532</v>
       </c>
       <c r="C229">
-        <v>2.979626929571269</v>
+        <v>9.902125022251315</v>
       </c>
       <c r="D229">
-        <v>8.872616330344494</v>
+        <v>11.7248004118906</v>
       </c>
       <c r="E229">
-        <v>16.55017833075187</v>
+        <v>17.89876684235306</v>
       </c>
       <c r="F229">
-        <v>7.905574096677603</v>
+        <v>19.17455188998185</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>10.04218481377513</v>
+        <v>9.547304536296583</v>
       </c>
       <c r="C230">
-        <v>2.984279119635604</v>
+        <v>9.926333461265626</v>
       </c>
       <c r="D230">
-        <v>8.911777454873693</v>
+        <v>11.72642393188851</v>
       </c>
       <c r="E230">
-        <v>16.55293317813277</v>
+        <v>17.90504894455648</v>
       </c>
       <c r="F230">
-        <v>7.931128574523818</v>
+        <v>19.18621720336054</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>10.0446306886194</v>
+        <v>9.56094829993317</v>
       </c>
       <c r="C231">
-        <v>2.988937514839829</v>
+        <v>9.950457061487979</v>
       </c>
       <c r="D231">
-        <v>8.950850460807933</v>
+        <v>11.72800418484174</v>
       </c>
       <c r="E231">
-        <v>16.55564496096404</v>
+        <v>17.91122846282995</v>
       </c>
       <c r="F231">
-        <v>7.956677266277325</v>
+        <v>19.19772572515831</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>10.04703038779701</v>
+        <v>9.574423835521602</v>
       </c>
       <c r="C232">
-        <v>2.993602441209109</v>
+        <v>9.974495987409307</v>
       </c>
       <c r="D232">
-        <v>8.98983506399674</v>
+        <v>11.72954221888345</v>
       </c>
       <c r="E232">
-        <v>16.55831421064072</v>
+        <v>17.91730698126397</v>
       </c>
       <c r="F232">
-        <v>7.982220141710507</v>
+        <v>19.20907935597309</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>10.04938475120646</v>
+        <v>9.587733025579157</v>
       </c>
       <c r="C233">
-        <v>2.998274234914183</v>
+        <v>9.9984504040545</v>
       </c>
       <c r="D233">
-        <v>9.028730994862588</v>
+        <v>11.73103907364161</v>
       </c>
       <c r="E233">
-        <v>16.56094144743132</v>
+        <v>17.92328601424387</v>
       </c>
       <c r="F233">
-        <v>8.007757170718754</v>
+        <v>19.22027996763257</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>10.0516946004889</v>
+        <v>9.60087773804757</v>
       </c>
       <c r="C234">
-        <v>3.002953247365427</v>
+        <v>10.02232047740691</v>
       </c>
       <c r="D234">
-        <v>9.067538000346527</v>
+        <v>11.73249576135389</v>
       </c>
       <c r="E234">
-        <v>16.56352717559886</v>
+        <v>17.92916710943797</v>
       </c>
       <c r="F234">
-        <v>8.033288323319761</v>
+        <v>19.23132940370087</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>10.05396074158878</v>
+        <v>9.613859823478126</v>
       </c>
       <c r="C235">
-        <v>3.007639844177527</v>
+        <v>10.04610637351752</v>
       </c>
       <c r="D235">
-        <v>9.106255837118347</v>
+        <v>11.73391327263426</v>
       </c>
       <c r="E235">
-        <v>16.56607188641178</v>
+        <v>17.93495176127019</v>
       </c>
       <c r="F235">
-        <v>8.05881356965485</v>
+        <v>19.24222947998523</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>10.0561839644132</v>
+        <v>9.626681113640332</v>
       </c>
       <c r="C236">
-        <v>3.012334394165167</v>
+        <v>10.06980825911547</v>
       </c>
       <c r="D236">
-        <v>9.144884275711037</v>
+        <v>11.73529257698807</v>
       </c>
       <c r="E236">
-        <v>16.56857604859032</v>
+        <v>17.94064143626706</v>
       </c>
       <c r="F236">
-        <v>8.08433287998994</v>
+        <v>19.25298196852306</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>10.05836504272558</v>
+        <v>9.639343424089553</v>
       </c>
       <c r="C237">
-        <v>3.017037281932809</v>
+        <v>10.09342630147565</v>
       </c>
       <c r="D237">
-        <v>9.183423100082692</v>
+        <v>11.73663461755566</v>
       </c>
       <c r="E237">
-        <v>16.57104012422558</v>
+        <v>17.94623757371359</v>
       </c>
       <c r="F237">
-        <v>8.109846224714163</v>
+        <v>19.26358863327217</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>10.06050473337481</v>
+        <v>9.651848555927481</v>
       </c>
       <c r="C238">
-        <v>3.021748904472274</v>
+        <v>10.11696066834103</v>
       </c>
       <c r="D238">
-        <v>9.221872107301191</v>
+        <v>11.73794031889239</v>
       </c>
       <c r="E238">
-        <v>16.57346456688136</v>
+        <v>17.95174158630914</v>
       </c>
       <c r="F238">
-        <v>8.135353574339462</v>
+        <v>19.27405120808916</v>
       </c>
     </row>
   </sheetData>
